--- a/Portfolio/父母资产配置情况.xlsx
+++ b/Portfolio/父母资产配置情况.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF0C8E1-6CA8-4D81-BD43-E8126F031674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88894B5-6385-45EF-98BE-3B67CCE81010}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-8865" windowWidth="21600" windowHeight="37935" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资产配置情况" sheetId="11" r:id="rId1"/>
+    <sheet name="资产配置旭日图" sheetId="13" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">资产配置情况!$A$2:$D$33</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">资产配置情况!$E$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">资产配置情况!$E$2:$E$33</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>大类目</t>
     <rPh sb="0" eb="1">
@@ -88,57 +89,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>本金总和</t>
-    <rPh sb="0" eb="1">
-      <t>zi'j</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'shu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达创业板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国中证红利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发养老</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>广发医药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达消费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发金融地产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交银海外互联网</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝油气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴全可转债</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长信可转债</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达安心债</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -251,10 +202,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>货币基金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>老爸蛋卷</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -305,13 +252,71 @@
     <t>老爸蛋卷投入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>老妈货币基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老爸货币基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货基收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权益类资金综合</t>
+    <rPh sb="0" eb="1">
+      <t>zi'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>权益类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老妈蛋卷收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老爸蛋卷收益益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -399,18 +404,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1940,7 +1939,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1970,9 +1969,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1994,8 +1990,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="500">
@@ -2520,6 +2519,1779 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>资产配置情况!$L$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>占比</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E3F4-49C2-A4D3-A8345C29EC0E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E968-41B3-BFE2-9C3E04C8E340}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E3F4-49C2-A4D3-A8345C29EC0E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.110795961099814E-2"/>
+                  <c:y val="2.9602551110358692E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E968-41B3-BFE2-9C3E04C8E340}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>资产配置情况!$K$15:$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>权益类</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>债券类</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>低风险</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>资产配置情况!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.0295495057743823E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2260476134733495E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93547369895517074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E968-41B3-BFE2-9C3E04C8E340}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="DengXian"/>
+                <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
+              <a:t>资产旭日图</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="DengXian"/>
+              <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{8088FB3B-8710-4C4C-B870-6F5E76FD2C5D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>市值占比</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="ctr">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="381">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DDDE04E1-2FC7-41CE-BE55-39A4B9B938FE}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F47BABB-C731-4315-83CB-6EBDFF613913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9299677" cy="6073468"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="图表 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{910BEC13-651C-4C02-8F72-3553AFF39332}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks noGrp="1"/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="矩形 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9367C21E-211C-4FBE-BCE3-45E6D19EFB87}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noTextEdit="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="9299677" cy="6073468"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstClr val="white"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="1">
+          <a:solidFill>
+            <a:prstClr val="green"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>此图表在您的 Excel 版本中不可用。
+编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -2809,9 +4581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.25" defaultRowHeight="14.25"/>
@@ -2824,7 +4596,7 @@
     <col min="7" max="9" width="9" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.25" style="9"/>
     <col min="11" max="11" width="15.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="21.25" style="9"/>
   </cols>
   <sheetData>
@@ -2839,7 +4611,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>6</v>
@@ -2847,40 +4619,43 @@
       <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="17"/>
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="22" t="str">
+      <c r="A2" s="23" t="str">
         <f>"A股"&amp;" , "&amp;TEXT(SUM(E2:E24),"0.00%")</f>
-        <v>A股 , 64.46%</v>
-      </c>
-      <c r="B2" s="22" t="str">
+        <v>A股 , 64.65%</v>
+      </c>
+      <c r="B2" s="23" t="str">
         <f>"大盘股"&amp;" , "&amp;TEXT(SUM(E2:E3),"0.00%")</f>
-        <v>大盘股 , 5.99%</v>
-      </c>
-      <c r="C2" s="21" t="str">
+        <v>大盘股 , 5.96%</v>
+      </c>
+      <c r="C2" s="20" t="str">
         <f>"上证50"&amp;" , "&amp;TEXT(SUM(E2:E2),"0.00%")</f>
         <v>上证50 , 0.60%</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E2" s="11">
-        <f>F2/$F$34</f>
-        <v>6.0217249267993638E-3</v>
+        <f t="shared" ref="E2:E16" si="0">F2/$F$34</f>
+        <v>5.9895826245441996E-3</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(G2:I2)</f>
@@ -2891,90 +4666,95 @@
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="K2" s="8">
-        <f>K4+K6+K8+K10</f>
-        <v>73497.86</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="18"/>
+      <c r="K2" s="18">
+        <f>K4+K6+K8</f>
+        <v>73497.960000000006</v>
+      </c>
+      <c r="L2" s="18">
+        <f>$K$4+$K$6+$K$8+$K$10+$K$12</f>
+        <v>815139.86</v>
+      </c>
+      <c r="M2" s="17"/>
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="21" t="str">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="20" t="str">
         <f>"沪深300"&amp;" , "&amp;TEXT(SUM(E3:E3),"0.00%")</f>
-        <v>沪深300 , 5.39%</v>
+        <v>沪深300 , 5.36%</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E3" s="11">
-        <f>F3/$F$34</f>
-        <v>5.3856713693435337E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.3569241450673107E-2</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F33" si="0">SUM(G3:I3)</f>
+        <f t="shared" ref="F3:F33" si="1">SUM(G3:I3)</f>
         <v>4330.0200000000004</v>
       </c>
       <c r="G3" s="2">
         <v>4330.0200000000004</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="K3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="23">
-        <v>615881.54</v>
+      <c r="K3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22" t="str">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23" t="str">
         <f>"中小盘股"&amp;" , "&amp;TEXT(SUM(E4:E8),"0.00%")</f>
-        <v>中小盘股 , 21.53%</v>
-      </c>
-      <c r="C4" s="22" t="str">
+        <v>中小盘股 , 21.41%</v>
+      </c>
+      <c r="C4" s="23" t="str">
         <f>"中证500"&amp;" , "&amp;TEXT(SUM(E4:E5),"0.00%")</f>
-        <v>中证500 , 17.27%</v>
+        <v>中证500 , 17.18%</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E4" s="11">
-        <f>F4/$F$34</f>
-        <v>0.13033637653455168</v>
+        <f t="shared" si="0"/>
+        <v>0.12964067700321438</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10478.9</v>
       </c>
       <c r="G4" s="2">
         <v>10478.9</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="18">
         <v>72000</v>
+      </c>
+      <c r="L4" s="5">
+        <f>F34-K4</f>
+        <v>8830.3399999999965</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E5" s="11">
-        <f>F5/$F$34</f>
-        <v>4.241128204630687E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.2184902352260308E-2</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3409.82</v>
       </c>
       <c r="G5" s="2">
@@ -2982,28 +4762,29 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21" t="str">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="20" t="str">
         <f>"中证1000"&amp;" , "&amp;TEXT(SUM(E6:E6),"0.00%")</f>
         <v>中证1000 , 1.10%</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E6" s="11">
-        <f>F6/$F$34</f>
-        <v>1.1040948450905232E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.0982014921624726E-2</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>887.68</v>
       </c>
       <c r="G6" s="2">
@@ -3011,53 +4792,60 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="K6" s="8">
-        <f>945.39+17.09</f>
-        <v>962.48</v>
+      <c r="K6" s="18">
+        <f>945.39-L6</f>
+        <v>962.58</v>
+      </c>
+      <c r="L6" s="18">
+        <f>-17.19</f>
+        <v>-17.190000000000001</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22" t="str">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23" t="str">
         <f>"创业板"&amp;" , "&amp;TEXT(SUM(E7:E8),"0.00%")</f>
-        <v>创业板 , 3.15%</v>
+        <v>创业板 , 3.13%</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E7" s="11">
-        <f>F7/$F$34</f>
-        <v>5.7025662916490531E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.6721275699199089E-3</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>458.48</v>
       </c>
       <c r="G7" s="2">
         <v>458.48</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="18" t="s">
         <v>56</v>
       </c>
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E8" s="11">
-        <f>F8/$F$34</f>
-        <v>2.5798117362068062E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.5660414146470249E-2</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2074.14</v>
       </c>
       <c r="G8" s="2">
@@ -3065,32 +4853,36 @@
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="2"/>
-      <c r="K8" s="8">
-        <f>523.56+11.82</f>
+      <c r="K8" s="18">
+        <f>523.56-L8</f>
         <v>535.38</v>
+      </c>
+      <c r="L8" s="18">
+        <f>-11.82</f>
+        <v>-11.82</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21" t="str">
+      <c r="A9" s="23"/>
+      <c r="B9" s="20" t="str">
         <f>"红利价值"&amp;" , "&amp;TEXT(SUM(E9:E9),"0.00%")</f>
-        <v>红利价值 , 9.89%</v>
-      </c>
-      <c r="C9" s="21" t="str">
+        <v>红利价值 , 9.84%</v>
+      </c>
+      <c r="C9" s="20" t="str">
         <f>"中证红利"&amp;" , "&amp;TEXT(SUM(E9:E9),"0.00%")</f>
-        <v>中证红利 , 9.89%</v>
+        <v>中证红利 , 9.84%</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E9" s="11">
-        <f>F9/$F$34</f>
-        <v>9.8928977750812247E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.8400922227965384E-2</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7953.78</v>
       </c>
       <c r="G9" s="2">
@@ -3098,28 +4890,33 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22" t="str">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23" t="str">
         <f>"行业股"&amp;" , "&amp;TEXT(SUM(E10:E16),"0.00%")</f>
-        <v>行业股 , 25.76%</v>
-      </c>
-      <c r="C10" s="21" t="str">
+        <v>行业股 , 25.62%</v>
+      </c>
+      <c r="C10" s="20" t="str">
         <f>"养老产业"&amp;" , "&amp;TEXT(SUM(E10:E10),"0.00%")</f>
-        <v>养老产业 , 7.40%</v>
+        <v>养老产业 , 7.36%</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E10" s="11">
-        <f>F10/$F$34</f>
-        <v>7.3959230034146006E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.3564456118828642E-2</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5946.24</v>
       </c>
       <c r="G10" s="2">
@@ -3127,50 +4924,61 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="K10" s="8"/>
+      <c r="K10" s="18">
+        <v>615881.54</v>
+      </c>
+      <c r="L10" s="18">
+        <v>19690.009999999998</v>
+      </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="21" t="str">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="20" t="str">
         <f>"全指医药"&amp;" , "&amp;TEXT(SUM(E11:E11),"0.00%")</f>
-        <v>全指医药 , 6.78%</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>11</v>
+        <v>全指医药 , 6.74%</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="E11" s="11">
-        <f>F11/$F$34</f>
-        <v>6.776399524918815E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.7402289783761893E-2</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5448.15</v>
       </c>
       <c r="G11" s="2">
         <v>5448.15</v>
       </c>
       <c r="I11" s="2"/>
+      <c r="K11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="21" t="str">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="20" t="str">
         <f>"中证传媒"&amp;" , "&amp;TEXT(SUM(E12:E12),"0.00%")</f>
-        <v>中证传媒 , 4.48%</v>
+        <v>中证传媒 , 4.46%</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E12" s="11">
-        <f>F12/$F$34</f>
-        <v>4.4797509020335989E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.4558392306651193E-2</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3601.67</v>
       </c>
       <c r="G12" s="2">
@@ -3178,25 +4986,31 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
+      <c r="K12" s="18">
+        <v>125760.36</v>
+      </c>
+      <c r="L12" s="18">
+        <v>2836.62</v>
+      </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="21" t="str">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="20" t="str">
         <f>"中证环保"&amp;" , "&amp;TEXT(SUM(E13:E13),"0.00%")</f>
-        <v>中证环保 , 4.44%</v>
+        <v>中证环保 , 4.42%</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E13" s="11">
-        <f>F13/$F$34</f>
-        <v>4.4401856791803973E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.416485196029115E-2</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3569.86</v>
       </c>
       <c r="G13" s="2">
@@ -3206,71 +5020,83 @@
       <c r="O13" s="13"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="21" t="str">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="20" t="str">
         <f>"全指消费"&amp;" , "&amp;TEXT(SUM(E14:E14),"0.00%")</f>
-        <v>全指消费 , 0.77%</v>
+        <v>全指消费 , 0.76%</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E14" s="11">
-        <f>F14/$F$34</f>
-        <v>7.6763497605501774E-3</v>
+        <f t="shared" si="0"/>
+        <v>7.6353755285453453E-3</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>617.16999999999996</v>
       </c>
       <c r="G14" s="2">
         <v>617.16999999999996</v>
       </c>
       <c r="I14" s="2"/>
+      <c r="K14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="21" t="str">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="20" t="str">
         <f>"金融地产"&amp;" , "&amp;TEXT(SUM(E15:E15),"0.00%")</f>
-        <v>金融地产 , 1.22%</v>
+        <v>金融地产 , 1.21%</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E15" s="11">
-        <f>F15/$F$34</f>
-        <v>1.2213103937131473E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.2147913766043791E-2</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>981.92</v>
       </c>
       <c r="G15" s="2">
         <v>981.92</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="K15" s="15"/>
+      <c r="K15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="1">
+        <f>SUM($F$2:$F$29)/($K$2+$K$10+K$12)</f>
+        <v>7.0295495057743823E-2</v>
+      </c>
       <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="21" t="str">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="20" t="str">
         <f>"证券公司"&amp;" , "&amp;TEXT(SUM(E16:E16),"0.00%")</f>
         <v>证券公司 , 0.68%</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E16" s="11">
-        <f>F16/$F$34</f>
-        <v>6.8110393066371953E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.7746838625199401E-3</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>547.6</v>
       </c>
       <c r="G16" s="2">
@@ -3278,226 +5104,291 @@
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="2"/>
+      <c r="K16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="1">
+        <f>SUM($F$30:$F$32)/($K$2+$K$10+K$12)</f>
+        <v>3.2260476134733495E-3</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" s="20" customFormat="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22" t="str">
-        <f>"风格指数"&amp;" , "&amp;TEXT(SUM(E17:E24),"0.00%")</f>
-        <v>风格指数 , 1.29%</v>
-      </c>
-      <c r="C17" s="22" t="str">
+    <row r="17" spans="1:15" s="19" customFormat="1">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23" t="str">
         <f>"螺丝钉定投"&amp;" , "&amp;TEXT(SUM(E17:E24),"0.00%")</f>
-        <v>螺丝钉定投 , 1.29%</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>47</v>
+        <v>螺丝钉定投 , 1.82%</v>
+      </c>
+      <c r="C17" s="21" t="str">
+        <f>"短融债"&amp;" , "&amp;TEXT(SUM(E17:E17),"0.00%")</f>
+        <v>短融债 , 0.43%</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" ref="E17:E24" si="1">F17/$F$34</f>
-        <v>3.5126106840529768E-3</v>
+        <f t="shared" ref="E17:E24" si="2">F17/$F$34</f>
+        <v>4.2842173248312451E-3</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>282.40999999999997</v>
+        <f t="shared" si="1"/>
+        <v>346.29474299999998</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2">
-        <v>173.69</v>
+        <f>($K$6 + $L$6) * 0.2253</f>
+        <v>212.99636699999999</v>
       </c>
       <c r="I17" s="2">
-        <v>108.72</v>
-      </c>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.2546</f>
+        <v>133.29837599999999</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="1">
+        <f>(F33+SUM($K$10:$K$12))/($K$2+$K$10+K$12)</f>
+        <v>0.93547369895517074</v>
+      </c>
+      <c r="M17" s="9"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="21" t="s">
-        <v>48</v>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="21" t="str">
+        <f>"香港中小"&amp;" , "&amp;TEXT(SUM(E18:E18),"0.00%")</f>
+        <v>香港中小 , 0.44%</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="E18" s="11">
+        <f t="shared" si="2"/>
+        <v>4.3575059810462263E-3</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>3.1532773648989434E-3</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>253.51999999999998</v>
+        <v>352.21868999999998</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2">
-        <v>157.47</v>
+        <f>($K$6 + $L$6) * 0.2314</f>
+        <v>218.76324599999998</v>
       </c>
       <c r="I18" s="2">
-        <v>96.05</v>
-      </c>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.2549</f>
+        <v>133.455444</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="N18" s="12"/>
       <c r="O18" s="13"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="21" t="s">
-        <v>49</v>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="21" t="str">
+        <f>"上证50AH"&amp;" , "&amp;TEXT(SUM(E19:E19),"0.00%")</f>
+        <v>上证50AH , 0.32%</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="E19" s="11">
+        <f t="shared" si="2"/>
+        <v>3.2184956910981696E-3</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>2.5397116800990665E-3</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>204.19</v>
+        <v>260.15210100000002</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2">
-        <v>142.1</v>
+        <f>($K$6 + $L$6) * 0.1915</f>
+        <v>181.04218499999999</v>
       </c>
       <c r="I19" s="2">
-        <v>62.09</v>
-      </c>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1511</f>
+        <v>79.109915999999998</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="21" t="s">
-        <v>50</v>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="21" t="str">
+        <f>"中证红利"&amp;" , "&amp;TEXT(SUM(E20:E20),"0.00%")</f>
+        <v>中证红利 , 0.36%</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="E20" s="11">
+        <f t="shared" si="2"/>
+        <v>3.5508198406687388E-3</v>
+      </c>
+      <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>1.8948022789866878E-3</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>152.34</v>
+        <v>287.01397499999996</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2">
-        <v>98.41</v>
+        <f>($K$6 + $L$6) * 0.1961</f>
+        <v>185.39097899999999</v>
       </c>
       <c r="I20" s="2">
-        <v>53.93</v>
-      </c>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1941</f>
+        <v>101.62299599999999</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="N20" s="12"/>
       <c r="O20" s="13"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="21" t="s">
-        <v>51</v>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="21" t="str">
+        <f>"500低波动"&amp;" , "&amp;TEXT(SUM(E21:E21),"0.00%")</f>
+        <v>500低波动 , 0.04%</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="E21" s="11">
+        <f t="shared" si="2"/>
+        <v>4.1754646831870318E-4</v>
+      </c>
+      <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>4.1493110166073197E-4</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>33.36</v>
+        <v>33.750423000000005</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2">
-        <v>33.36</v>
-      </c>
+        <f>($K$6 + $L$6) * 0.0357</f>
+        <v>33.750423000000005</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
       <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="21" t="s">
-        <v>53</v>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23" t="str">
+        <f>"300价值"&amp;" , "&amp;TEXT(SUM(E22:E23),"0.00%")</f>
+        <v>300价值 , 0.19%</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="E22" s="11">
+        <f t="shared" si="2"/>
+        <v>9.5145804162150016E-4</v>
+      </c>
+      <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>5.7886371316817945E-4</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>46.54</v>
+        <v>76.906677000000002</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2">
-        <v>23.27</v>
+        <f>($K$6 + $L$6) * 0.0407</f>
+        <v>38.477373</v>
       </c>
       <c r="I22" s="2">
-        <v>23.27</v>
-      </c>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0734</f>
+        <v>38.429304000000002</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
       <c r="O22" s="13"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="21" t="s">
-        <v>52</v>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="E23" s="11">
+        <f t="shared" si="2"/>
+        <v>9.3121575388647397E-4</v>
+      </c>
+      <c r="F23" s="2">
         <f t="shared" si="1"/>
-        <v>5.597092198660953E-4</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <v>75.270486000000005</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2">
-        <v>22.5</v>
+        <f>($K$6 + $L$6) * 0.0398</f>
+        <v>37.626522000000001</v>
       </c>
       <c r="I23" s="2">
-        <v>22.5</v>
-      </c>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0719</f>
+        <v>37.643963999999997</v>
+      </c>
+      <c r="K23" s="20"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="21" t="s">
-        <v>54</v>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="21" t="str">
+        <f>"基本面120"&amp;" , "&amp;TEXT(SUM(E24:E24),"0.00%")</f>
+        <v>基本面120 , 0.05%</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="E24" s="11">
+        <f t="shared" si="2"/>
+        <v>4.6199119043666034E-4</v>
+      </c>
+      <c r="F24" s="2">
         <f t="shared" si="1"/>
-        <v>2.5050097084673684E-4</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="0"/>
-        <v>20.14</v>
+        <v>37.342905000000002</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2">
-        <v>20.14</v>
+        <f>($K$6 + $L$6) * 0.0395</f>
+        <v>37.342905000000002</v>
       </c>
       <c r="I24" s="2"/>
       <c r="O24" s="13"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="22" t="str">
+      <c r="A25" s="23" t="str">
         <f>"海外新兴"&amp;" , "&amp;TEXT(SUM(E25:E26),"0.00%")</f>
-        <v>海外新兴 , 1.63%</v>
-      </c>
-      <c r="B25" s="21" t="str">
+        <v>海外新兴 , 1.62%</v>
+      </c>
+      <c r="B25" s="20" t="str">
         <f>"香港"&amp;" , "&amp;TEXT(SUM(E25:E25),"0.00%")</f>
         <v>香港 , 0.53%</v>
       </c>
-      <c r="C25" s="21" t="str">
+      <c r="C25" s="20" t="str">
         <f>"恒生"&amp;" , "&amp;TEXT(SUM(E25:E25),"0.00%")</f>
         <v>恒生 , 0.53%</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E25" s="11">
-        <f>F25/$F$34</f>
-        <v>5.3363920820299893E-3</v>
+        <f t="shared" ref="E25:E33" si="3">F25/$F$34</f>
+        <v>5.3079078969604735E-3</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>429.04</v>
       </c>
       <c r="G25" s="2">
@@ -3509,24 +5400,24 @@
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="21" t="str">
+      <c r="A26" s="23"/>
+      <c r="B26" s="20" t="str">
         <f>"海外互联"&amp;" , "&amp;TEXT(SUM(E26:E26),"0.00%")</f>
-        <v>海外互联 , 1.10%</v>
-      </c>
-      <c r="C26" s="21" t="str">
+        <v>海外互联 , 1.09%</v>
+      </c>
+      <c r="C26" s="20" t="str">
         <f>"海外互联网"&amp;" , "&amp;TEXT(SUM(E26:E26),"0.00%")</f>
-        <v>海外互联网 , 1.10%</v>
+        <v>海外互联网 , 1.09%</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E26" s="11">
-        <f>F26/$F$34</f>
-        <v>1.0994057256263116E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.0935374019211103E-2</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>883.91</v>
       </c>
       <c r="G26" s="2">
@@ -3539,25 +5430,25 @@
     <row r="27" spans="1:15">
       <c r="A27" s="10" t="str">
         <f>"海外成熟"&amp;" , "&amp;TEXT(SUM(E27:E27),"0.00%")</f>
-        <v>海外成熟 , 2.61%</v>
-      </c>
-      <c r="B27" s="21" t="str">
+        <v>海外成熟 , 2.59%</v>
+      </c>
+      <c r="B27" s="20" t="str">
         <f>"海外成熟"&amp;" , "&amp;TEXT(SUM(E27:E27),"0.00%")</f>
-        <v>海外成熟 , 2.61%</v>
-      </c>
-      <c r="C27" s="21" t="str">
+        <v>海外成熟 , 2.59%</v>
+      </c>
+      <c r="C27" s="20" t="str">
         <f>"德国30"&amp;" , "&amp;TEXT(SUM(E27:E27),"0.00%")</f>
-        <v>德国30 , 2.61%</v>
+        <v>德国30 , 2.59%</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E27" s="11">
-        <f>F27/$F$34</f>
-        <v>2.6067897206043519E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.5928753980250484E-2</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2095.83</v>
       </c>
       <c r="G27" s="2">
@@ -3570,27 +5461,27 @@
       <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="22" t="str">
+      <c r="A28" s="23" t="str">
         <f>"商品"&amp;" , "&amp;TEXT(SUM(E28:E29),"0.00%")</f>
-        <v>商品 , 2.03%</v>
-      </c>
-      <c r="B28" s="21" t="str">
+        <v>商品 , 2.02%</v>
+      </c>
+      <c r="B28" s="20" t="str">
         <f>"原油"&amp;" , "&amp;TEXT(SUM(E28:E28),"0.00%")</f>
         <v>原油 , 1.54%</v>
       </c>
-      <c r="C28" s="21" t="str">
+      <c r="C28" s="20" t="str">
         <f>"原油"&amp;" , "&amp;TEXT(SUM(E28:E28),"0.00%")</f>
         <v>原油 , 1.54%</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E28" s="11">
-        <f>F28/$F$34</f>
-        <v>1.5441382337492473E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.5358960509135556E-2</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1241.47</v>
       </c>
       <c r="G28" s="2">
@@ -3602,24 +5493,24 @@
       <c r="O28" s="13"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="21" t="str">
+      <c r="A29" s="23"/>
+      <c r="B29" s="20" t="str">
         <f>"黄金"&amp;" , "&amp;TEXT(SUM(E29:E29),"0.00%")</f>
-        <v>黄金 , 0.49%</v>
-      </c>
-      <c r="C29" s="21" t="str">
+        <v>黄金 , 0.48%</v>
+      </c>
+      <c r="C29" s="20" t="str">
         <f>"黄金"&amp;" , "&amp;TEXT(SUM(E29:E29),"0.00%")</f>
-        <v>黄金 , 0.49%</v>
+        <v>黄金 , 0.48%</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E29" s="11">
-        <f>F29/$F$34</f>
-        <v>4.8743210260738679E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.8483032485079243E-3</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>391.89</v>
       </c>
       <c r="G29" s="2">
@@ -3631,27 +5522,27 @@
       <c r="O29" s="12"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="22" t="str">
+      <c r="A30" s="23" t="str">
         <f>"债券"&amp;" , "&amp;TEXT(SUM(E30:E32),"0.00%")</f>
-        <v>债券 , 3.27%</v>
-      </c>
-      <c r="B30" s="22" t="str">
+        <v>债券 , 3.25%</v>
+      </c>
+      <c r="B30" s="23" t="str">
         <f>"国内债券"&amp;" , "&amp;TEXT(SUM(E30:E32),"0.00%")</f>
-        <v>国内债券 , 3.27%</v>
-      </c>
-      <c r="C30" s="22" t="str">
+        <v>国内债券 , 3.25%</v>
+      </c>
+      <c r="C30" s="23" t="str">
         <f>"可转债"&amp;" , "&amp;TEXT(SUM(E30:E32),"0.00%")</f>
-        <v>可转债 , 3.27%</v>
+        <v>可转债 , 3.25%</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E30" s="11">
-        <f>F30/$F$34</f>
-        <v>2.2069707678800048E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.1951905682940344E-2</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1774.38</v>
       </c>
       <c r="G30" s="2">
@@ -3662,18 +5553,18 @@
       <c r="O30" s="13"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E31" s="11">
-        <f>F31/$F$34</f>
-        <v>5.481543339715263E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.452284377376119E-3</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>440.71</v>
       </c>
       <c r="G31" s="2">
@@ -3685,18 +5576,18 @@
       <c r="O31" s="12"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E32" s="11">
-        <f>F32/$F$34</f>
-        <v>5.1566632325396539E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.1291383903618367E-3</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>414.59</v>
       </c>
       <c r="G32" s="2">
@@ -3707,27 +5598,27 @@
       <c r="O32" s="13"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="21" t="str">
+      <c r="A33" s="20" t="str">
         <f>"现金"&amp;" , "&amp;TEXT(SUM(E33:E33),"0.00%")</f>
-        <v>现金 , 26.00%</v>
+        <v>现金 , 25.86%</v>
       </c>
       <c r="B33" s="10" t="str">
         <f>"低风险理财"&amp;" , "&amp;TEXT(SUM(E33:E33),"0.00%")</f>
-        <v>低风险理财 , 26.00%</v>
-      </c>
-      <c r="C33" s="21" t="str">
+        <v>低风险理财 , 25.86%</v>
+      </c>
+      <c r="C33" s="20" t="str">
         <f>"货币基金"&amp;" , "&amp;TEXT(SUM(E33:E33),"0.00%")</f>
-        <v>货币基金 , 26.00%</v>
+        <v>货币基金 , 25.86%</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E33" s="11">
-        <f>F33/$F$34</f>
-        <v>0.25995383767114205</v>
+        <f t="shared" si="3"/>
+        <v>0.25856627598003423</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20900</v>
       </c>
       <c r="G33" s="2">
@@ -3744,11 +5635,11 @@
       </c>
       <c r="E34" s="13">
         <f>SUM(E2:E33)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="F34" s="2">
         <f>SUM(F2:F33)</f>
-        <v>80398.889999999985</v>
+        <v>80830.34</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
@@ -3758,9 +5649,9 @@
       <c r="D35" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <f>F34/$K$2-1</f>
-        <v>9.3894298419028521E-2</v>
+        <v>9.9763041042227441E-2</v>
       </c>
       <c r="I35" s="8"/>
       <c r="N35" s="12"/>
@@ -3771,14 +5662,12 @@
       <c r="P36" s="13"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="17"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="8"/>
       <c r="C37" s="2"/>
       <c r="O37" s="12"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="8"/>
-      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -3786,8 +5675,6 @@
       <c r="P38" s="13"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="8"/>
-      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3795,8 +5682,6 @@
       <c r="O39" s="12"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="8"/>
-      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4072,12 +5957,12 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="8"/>
-      <c r="B80" s="18"/>
+      <c r="B80" s="17"/>
       <c r="C80" s="2"/>
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="18"/>
+      <c r="A81" s="17"/>
       <c r="B81" s="8"/>
       <c r="C81" s="2"/>
       <c r="D81" s="1"/>
@@ -4176,12 +6061,12 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B10:B16"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C17:C24"/>
     <mergeCell ref="A2:A24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4219,5 +6104,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Portfolio/父母资产配置情况.xlsx
+++ b/Portfolio/父母资产配置情况.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88894B5-6385-45EF-98BE-3B67CCE81010}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC26CBE-82B3-46CA-8AEB-6D23059EAF64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-8865" windowWidth="21600" windowHeight="37935" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资产配置情况" sheetId="11" r:id="rId1"/>
-    <sheet name="资产配置旭日图" sheetId="13" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">资产配置情况!$A$2:$D$33</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">资产配置情况!$E$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">资产配置情况!$E$2:$E$33</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>大类目</t>
     <rPh sb="0" eb="1">
@@ -213,10 +214,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大成景安短融债券E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>华宝香港中小</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -308,6 +305,18 @@
   </si>
   <si>
     <t>计划收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏沪深300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝红利基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘中证医药100A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1990,8 +1999,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2742,13 +2751,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.0295495057743823E-2</c:v>
+                  <c:v>7.0176176487121752E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2260476134733495E-3</c:v>
+                  <c:v>4.4975641270194201E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93547369895517074</c:v>
+                  <c:v>0.9278013307993026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2853,214 +2862,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1"/>
-        <c:axId val="2"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="size">
-        <cx:f>_xlchart.v1.2</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="0" lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:uLnTx/>
-                <a:uFillTx/>
-                <a:latin typeface="DengXian"/>
-                <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              </a:rPr>
-              <a:t>资产旭日图</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="0" lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="DengXian"/>
-              <a:ea typeface="DengXian" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="sunburst" uniqueId="{8088FB3B-8710-4C4C-B870-6F5E76FD2C5D}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>市值占比</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataLabels pos="ctr">
-            <cx:visibility seriesName="0" categoryName="1" value="0"/>
-          </cx:dataLabels>
-          <cx:dataId val="0"/>
-        </cx:series>
-      </cx:plotAreaRegion>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3619,527 +3421,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="381">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DDDE04E1-2FC7-41CE-BE55-39A4B9B938FE}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4179,117 +3460,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9299677" cy="6073468"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="图表 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{910BEC13-651C-4C02-8F72-3553AFF39332}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks noGrp="1"/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="矩形 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9367C21E-211C-4FBE-BCE3-45E6D19EFB87}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr>
-          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noTextEdit="1"/>
-        </cdr:cNvSpPr>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="0"/>
-          <a:ext cx="9299677" cy="6073468"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstClr val="white"/>
-        </a:solidFill>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="1">
-          <a:solidFill>
-            <a:prstClr val="green"/>
-          </a:solidFill>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>此图表在您的 Excel 版本中不可用。
-编辑此形状或将此工作簿转换为其他文件格式将永久破坏图表。</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4579,11 +3749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.25" defaultRowHeight="14.25"/>
@@ -4629,50 +3799,50 @@
         <v>33</v>
       </c>
       <c r="K1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="M1" s="17"/>
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="23" t="str">
-        <f>"A股"&amp;" , "&amp;TEXT(SUM(E2:E24),"0.00%")</f>
-        <v>A股 , 64.65%</v>
+        <f>"A股"&amp;" , "&amp;TEXT(SUM(E2:E26),"0.00%")</f>
+        <v>A股 , 66.28%</v>
       </c>
       <c r="B2" s="23" t="str">
-        <f>"大盘股"&amp;" , "&amp;TEXT(SUM(E2:E3),"0.00%")</f>
-        <v>大盘股 , 5.96%</v>
+        <f>"大盘股"&amp;" , "&amp;TEXT(SUM(E2:E4),"0.00%")</f>
+        <v>大盘股 , 7.15%</v>
       </c>
       <c r="C2" s="20" t="str">
         <f>"上证50"&amp;" , "&amp;TEXT(SUM(E2:E2),"0.00%")</f>
-        <v>上证50 , 0.60%</v>
+        <v>上证50 , 1.57%</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="11">
-        <f t="shared" ref="E2:E16" si="0">F2/$F$34</f>
-        <v>5.9895826245441996E-3</v>
+        <f>F2/$F$36</f>
+        <v>1.5652484524588426E-2</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(G2:I2)</f>
-        <v>484.14</v>
+        <v>1228.7</v>
       </c>
       <c r="G2" s="2">
-        <v>484.14</v>
+        <v>1228.7</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="K2" s="18">
         <f>K4+K6+K8</f>
-        <v>73497.960000000006</v>
+        <v>76470.28</v>
       </c>
       <c r="L2" s="18">
         <f>$K$4+$K$6+$K$8+$K$10+$K$12</f>
-        <v>815139.86</v>
+        <v>819548.07</v>
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="8"/>
@@ -4680,125 +3850,122 @@
     <row r="3" spans="1:15">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
-      <c r="C3" s="20" t="str">
-        <f>"沪深300"&amp;" , "&amp;TEXT(SUM(E3:E3),"0.00%")</f>
-        <v>沪深300 , 5.36%</v>
+      <c r="C3" s="23" t="str">
+        <f>"沪深300"&amp;" , "&amp;TEXT(SUM(E3:E4),"0.00%")</f>
+        <v>沪深300 , 5.58%</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" si="0"/>
-        <v>5.3569241450673107E-2</v>
+        <f>F3/$F$36</f>
+        <v>5.0924524629191406E-2</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F33" si="1">SUM(G3:I3)</f>
-        <v>4330.0200000000004</v>
+        <f t="shared" ref="F3:F35" si="0">SUM(G3:I3)</f>
+        <v>3997.51</v>
       </c>
       <c r="G3" s="2">
-        <v>4330.0200000000004</v>
+        <v>3997.51</v>
       </c>
       <c r="I3" s="2"/>
       <c r="K3" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="23"/>
-      <c r="B4" s="23" t="str">
-        <f>"中小盘股"&amp;" , "&amp;TEXT(SUM(E4:E8),"0.00%")</f>
-        <v>中小盘股 , 21.41%</v>
-      </c>
-      <c r="C4" s="23" t="str">
-        <f>"中证500"&amp;" , "&amp;TEXT(SUM(E4:E5),"0.00%")</f>
-        <v>中证500 , 17.18%</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>25</v>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="E4" s="11">
+        <f>F4/$F$36</f>
+        <v>4.89867860265747E-3</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.12964067700321438</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="1"/>
-        <v>10478.9</v>
+        <v>384.54</v>
       </c>
       <c r="G4" s="2">
-        <v>10478.9</v>
+        <v>384.54</v>
       </c>
       <c r="K4" s="18">
         <v>72000</v>
       </c>
       <c r="L4" s="5">
-        <f>F34-K4</f>
-        <v>8830.3399999999965</v>
+        <f>F36-K4</f>
+        <v>6498.7200000000012</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="23" t="str">
+        <f>"中小盘股"&amp;" , "&amp;TEXT(SUM(E5:E9),"0.00%")</f>
+        <v>中小盘股 , 19.82%</v>
+      </c>
+      <c r="C5" s="23" t="str">
+        <f>"中证500"&amp;" , "&amp;TEXT(SUM(E5:E6),"0.00%")</f>
+        <v>中证500 , 15.57%</v>
+      </c>
       <c r="D5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="11">
+        <f>F5/$F$36</f>
+        <v>0.11742484463440933</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>4.2184902352260308E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="1"/>
-        <v>3409.82</v>
+        <v>9217.7000000000007</v>
       </c>
       <c r="G5" s="2">
-        <v>3409.82</v>
+        <v>9217.7000000000007</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="K5" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
-      <c r="C6" s="20" t="str">
-        <f>"中证1000"&amp;" , "&amp;TEXT(SUM(E6:E6),"0.00%")</f>
-        <v>中证1000 , 1.10%</v>
-      </c>
+      <c r="C6" s="23"/>
       <c r="D6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="11">
+        <f>F6/$F$36</f>
+        <v>3.8309669253205662E-2</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>1.0982014921624726E-2</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="1"/>
-        <v>887.68</v>
+        <v>3007.26</v>
       </c>
       <c r="G6" s="2">
-        <v>887.68</v>
+        <v>3007.26</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="K6" s="18">
-        <f>945.39-L6</f>
-        <v>962.58</v>
+        <f>2331.65-L6</f>
+        <v>2463.7000000000003</v>
       </c>
       <c r="L6" s="18">
-        <f>-17.19</f>
-        <v>-17.190000000000001</v>
+        <f>-132.05</f>
+        <v>-132.05000000000001</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -4806,126 +3973,123 @@
     <row r="7" spans="1:15">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="23" t="str">
-        <f>"创业板"&amp;" , "&amp;TEXT(SUM(E7:E8),"0.00%")</f>
-        <v>创业板 , 3.13%</v>
+      <c r="C7" s="20" t="str">
+        <f>"中证1000"&amp;" , "&amp;TEXT(SUM(E7:E7),"0.00%")</f>
+        <v>中证1000 , 1.45%</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="11">
+        <f>F7/$F$36</f>
+        <v>1.454482315125648E-2</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>5.6721275699199089E-3</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="1"/>
-        <v>458.48</v>
+        <v>1141.75</v>
       </c>
       <c r="G7" s="2">
-        <v>458.48</v>
+        <v>1141.75</v>
       </c>
       <c r="I7" s="2"/>
       <c r="K7" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="C8" s="23" t="str">
+        <f>"创业板"&amp;" , "&amp;TEXT(SUM(E8:E9),"0.00%")</f>
+        <v>创业板 , 2.79%</v>
+      </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E8" s="11">
+        <f>F8/$F$36</f>
+        <v>5.0674711638610164E-3</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>2.5660414146470249E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="1"/>
-        <v>2074.14</v>
+        <v>397.79</v>
       </c>
       <c r="G8" s="2">
-        <v>2074.14</v>
+        <v>397.79</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="2"/>
       <c r="K8" s="18">
-        <f>523.56-L8</f>
-        <v>535.38</v>
+        <f>1909.55-L8</f>
+        <v>2006.58</v>
       </c>
       <c r="L8" s="18">
-        <f>-11.82</f>
-        <v>-11.82</v>
+        <f>-97.03</f>
+        <v>-97.03</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="23"/>
-      <c r="B9" s="20" t="str">
-        <f>"红利价值"&amp;" , "&amp;TEXT(SUM(E9:E9),"0.00%")</f>
-        <v>红利价值 , 9.84%</v>
-      </c>
-      <c r="C9" s="20" t="str">
-        <f>"中证红利"&amp;" , "&amp;TEXT(SUM(E9:E9),"0.00%")</f>
-        <v>中证红利 , 9.84%</v>
-      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="11">
+        <f>F9/$F$36</f>
+        <v>2.2817187337576969E-2</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>9.8400922227965384E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="1"/>
-        <v>7953.78</v>
+        <v>1791.12</v>
       </c>
       <c r="G9" s="2">
-        <v>7953.78</v>
+        <v>1791.12</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="K9" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="23"/>
-      <c r="B10" s="23" t="str">
-        <f>"行业股"&amp;" , "&amp;TEXT(SUM(E10:E16),"0.00%")</f>
-        <v>行业股 , 25.62%</v>
+      <c r="B10" s="20" t="str">
+        <f>"红利价值"&amp;" , "&amp;TEXT(SUM(E10:E10),"0.00%")</f>
+        <v>红利价值 , 11.38%</v>
       </c>
       <c r="C10" s="20" t="str">
-        <f>"养老产业"&amp;" , "&amp;TEXT(SUM(E10:E10),"0.00%")</f>
-        <v>养老产业 , 7.36%</v>
+        <f>"中证红利"&amp;" , "&amp;TEXT(SUM(E10:E10),"0.00%")</f>
+        <v>中证红利 , 11.38%</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="11">
+        <f>F10/$F$36</f>
+        <v>0.11381064557485777</v>
+      </c>
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>7.3564456118828642E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>5946.24</v>
+        <v>8933.99</v>
       </c>
       <c r="G10" s="2">
-        <v>5946.24</v>
+        <v>8933.99</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="K10" s="18">
-        <v>615881.54</v>
+        <v>612405.84</v>
       </c>
       <c r="L10" s="18">
         <v>19690.009999999998</v>
@@ -4935,31 +4099,34 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="23" t="str">
+        <f>"行业股"&amp;" , "&amp;TEXT(SUM(E11:E17),"0.00%")</f>
+        <v>行业股 , 22.53%</v>
+      </c>
       <c r="C11" s="20" t="str">
-        <f>"全指医药"&amp;" , "&amp;TEXT(SUM(E11:E11),"0.00%")</f>
-        <v>全指医药 , 6.74%</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>7</v>
+        <f>"养老产业"&amp;" , "&amp;TEXT(SUM(E11:E11),"0.00%")</f>
+        <v>养老产业 , 6.74%</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="E11" s="11">
+        <f>F11/$F$36</f>
+        <v>6.735447406021397E-2</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>6.7402289783761893E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>5448.15</v>
+        <v>5287.24</v>
       </c>
       <c r="G11" s="2">
-        <v>5448.15</v>
+        <v>5287.24</v>
       </c>
       <c r="I11" s="2"/>
       <c r="K11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="O11" s="13"/>
     </row>
@@ -4967,30 +4134,30 @@
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="20" t="str">
-        <f>"中证传媒"&amp;" , "&amp;TEXT(SUM(E12:E12),"0.00%")</f>
-        <v>中证传媒 , 4.46%</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>29</v>
+        <f>"全指医药"&amp;" , "&amp;TEXT(SUM(E12:E12),"0.00%")</f>
+        <v>全指医药 , 6.06%</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="E12" s="11">
+        <f>F12/$F$36</f>
+        <v>6.063309057778267E-2</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>4.4558392306651193E-2</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="1"/>
-        <v>3601.67</v>
+        <v>4759.62</v>
       </c>
       <c r="G12" s="2">
-        <v>3601.67</v>
+        <v>4759.62</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="K12" s="18">
-        <v>125760.36</v>
+        <v>130671.95</v>
       </c>
       <c r="L12" s="18">
-        <v>2836.62</v>
+        <v>3248.45</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -4999,22 +4166,22 @@
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="20" t="str">
-        <f>"中证环保"&amp;" , "&amp;TEXT(SUM(E13:E13),"0.00%")</f>
-        <v>中证环保 , 4.42%</v>
+        <f>"中证传媒"&amp;" , "&amp;TEXT(SUM(E13:E13),"0.00%")</f>
+        <v>中证传媒 , 3.95%</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="11">
+        <f>F13/$F$36</f>
+        <v>3.9535803895910659E-2</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>4.416485196029115E-2</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="1"/>
-        <v>3569.86</v>
+        <v>3103.51</v>
       </c>
       <c r="G13" s="2">
-        <v>3569.86</v>
+        <v>3103.51</v>
       </c>
       <c r="H13" s="2"/>
       <c r="O13" s="13"/>
@@ -5023,29 +4190,29 @@
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="20" t="str">
-        <f>"全指消费"&amp;" , "&amp;TEXT(SUM(E14:E14),"0.00%")</f>
-        <v>全指消费 , 0.76%</v>
+        <f>"中证环保"&amp;" , "&amp;TEXT(SUM(E14:E14),"0.00%")</f>
+        <v>中证环保 , 4.01%</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E14" s="11">
+        <f>F14/$F$36</f>
+        <v>4.0064857108498074E-2</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>7.6353755285453453E-3</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="1"/>
-        <v>617.16999999999996</v>
+        <v>3145.04</v>
       </c>
       <c r="G14" s="2">
-        <v>617.16999999999996</v>
+        <v>3145.04</v>
       </c>
       <c r="I14" s="2"/>
       <c r="K14" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -5054,30 +4221,30 @@
       <c r="A15" s="23"/>
       <c r="B15" s="23"/>
       <c r="C15" s="20" t="str">
-        <f>"金融地产"&amp;" , "&amp;TEXT(SUM(E15:E15),"0.00%")</f>
-        <v>金融地产 , 1.21%</v>
+        <f>"全指消费"&amp;" , "&amp;TEXT(SUM(E15:E15),"0.00%")</f>
+        <v>全指消费 , 0.00%</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="11">
+        <f>F15/$F$36</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>1.2147913766043791E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="1"/>
-        <v>981.92</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>981.92</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2"/>
       <c r="K15" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L15" s="1">
-        <f>SUM($F$2:$F$29)/($K$2+$K$10+K$12)</f>
-        <v>7.0295495057743823E-2</v>
+        <f>SUM($F$2:$F$31)/($K$2+$K$10+K$12)</f>
+        <v>7.0176176487121752E-2</v>
       </c>
       <c r="O15" s="13"/>
     </row>
@@ -5085,31 +4252,31 @@
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="20" t="str">
-        <f>"证券公司"&amp;" , "&amp;TEXT(SUM(E16:E16),"0.00%")</f>
-        <v>证券公司 , 0.68%</v>
+        <f>"金融地产"&amp;" , "&amp;TEXT(SUM(E16:E16),"0.00%")</f>
+        <v>金融地产 , 1.17%</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E16" s="11">
+        <f>F16/$F$36</f>
+        <v>1.1669107470796976E-2</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>6.7746838625199401E-3</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>547.6</v>
+        <v>916.01</v>
       </c>
       <c r="G16" s="2">
-        <v>547.6</v>
+        <v>916.01</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="2"/>
       <c r="K16" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L16" s="1">
-        <f>SUM($F$30:$F$32)/($K$2+$K$10+K$12)</f>
-        <v>3.2260476134733495E-3</v>
+        <f>SUM($F$32:$F$34)/($K$2+$K$10+K$12)</f>
+        <v>4.4975641270194201E-3</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="12"/>
@@ -5117,40 +4284,31 @@
     </row>
     <row r="17" spans="1:15" s="19" customFormat="1">
       <c r="A17" s="23"/>
-      <c r="B17" s="23" t="str">
-        <f>"螺丝钉定投"&amp;" , "&amp;TEXT(SUM(E17:E24),"0.00%")</f>
-        <v>螺丝钉定投 , 1.82%</v>
-      </c>
-      <c r="C17" s="21" t="str">
-        <f>"短融债"&amp;" , "&amp;TEXT(SUM(E17:E17),"0.00%")</f>
-        <v>短融债 , 0.43%</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>35</v>
+      <c r="B17" s="23"/>
+      <c r="C17" s="20" t="str">
+        <f>"证券公司"&amp;" , "&amp;TEXT(SUM(E17:E17),"0.00%")</f>
+        <v>证券公司 , 0.60%</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" ref="E17:E24" si="2">F17/$F$34</f>
-        <v>4.2842173248312451E-3</v>
+        <f>F17/$F$36</f>
+        <v>6.0445571596581451E-3</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
-        <v>346.29474299999998</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2">
-        <f>($K$6 + $L$6) * 0.2253</f>
-        <v>212.99636699999999</v>
-      </c>
-      <c r="I17" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.2546</f>
-        <v>133.29837599999999</v>
+        <f t="shared" si="0"/>
+        <v>474.49</v>
+      </c>
+      <c r="G17" s="2">
+        <v>474.49</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L17" s="1">
-        <f>(F33+SUM($K$10:$K$12))/($K$2+$K$10+K$12)</f>
-        <v>0.93547369895517074</v>
+        <f>(F35+SUM($K$10:$K$12))/($K$2+$K$10+K$12)</f>
+        <v>0.9278013307993026</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="12"/>
@@ -5158,30 +4316,33 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="23" t="str">
+        <f>"螺丝钉定投"&amp;" , "&amp;TEXT(SUM(E18:E26),"0.00%")</f>
+        <v>螺丝钉定投 , 5.40%</v>
+      </c>
       <c r="C18" s="21" t="str">
-        <f>"香港中小"&amp;" , "&amp;TEXT(SUM(E18:E18),"0.00%")</f>
-        <v>香港中小 , 0.44%</v>
+        <f>"医药"&amp;" , "&amp;TEXT(SUM(E18:E18),"0.00%")</f>
+        <v>医药 , 0.09%</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E18" s="11">
-        <f t="shared" si="2"/>
-        <v>4.3575059810462263E-3</v>
+        <f>F18/$F$36</f>
+        <v>8.5639676672434931E-4</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
-        <v>352.21868999999998</v>
+        <f t="shared" si="0"/>
+        <v>67.226050000000015</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2">
-        <f>($K$6 + $L$6) * 0.2314</f>
-        <v>218.76324599999998</v>
+        <f>($K$6 + $L$6) * 0.0145</f>
+        <v>33.808925000000002</v>
       </c>
       <c r="I18" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.2549</f>
-        <v>133.455444</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0175</f>
+        <v>33.417125000000006</v>
       </c>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
@@ -5192,28 +4353,28 @@
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="21" t="str">
-        <f>"上证50AH"&amp;" , "&amp;TEXT(SUM(E19:E19),"0.00%")</f>
-        <v>上证50AH , 0.32%</v>
+        <f>"香港中小"&amp;" , "&amp;TEXT(SUM(E19:E19),"0.00%")</f>
+        <v>香港中小 , 1.12%</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" s="11">
-        <f t="shared" si="2"/>
-        <v>3.2184956910981696E-3</v>
+        <f>F19/$F$36</f>
+        <v>1.1235784481581355E-2</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
-        <v>260.15210100000002</v>
+        <f t="shared" si="0"/>
+        <v>881.99469999999997</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2">
-        <f>($K$6 + $L$6) * 0.1915</f>
-        <v>181.04218499999999</v>
+        <f>($K$6 + $L$6) * 0.2103</f>
+        <v>490.34599500000002</v>
       </c>
       <c r="I19" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1511</f>
-        <v>79.109915999999998</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.2051</f>
+        <v>391.64870500000001</v>
       </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -5224,28 +4385,28 @@
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
       <c r="C20" s="21" t="str">
-        <f>"中证红利"&amp;" , "&amp;TEXT(SUM(E20:E20),"0.00%")</f>
-        <v>中证红利 , 0.36%</v>
+        <f>"上证50AH"&amp;" , "&amp;TEXT(SUM(E20:E20),"0.00%")</f>
+        <v>上证50AH , 0.31%</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" si="2"/>
-        <v>3.5508198406687388E-3</v>
+        <f>F20/$F$36</f>
+        <v>3.1299870876875446E-3</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>287.01397499999996</v>
+        <f t="shared" si="0"/>
+        <v>245.69998000000001</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2">
-        <f>($K$6 + $L$6) * 0.1961</f>
-        <v>185.39097899999999</v>
+        <f>($K$6 + $L$6) * 0.0736</f>
+        <v>171.60944000000001</v>
       </c>
       <c r="I20" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1941</f>
-        <v>101.62299599999999</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0388</f>
+        <v>74.090540000000004</v>
       </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -5255,27 +4416,30 @@
     <row r="21" spans="1:15">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="21" t="str">
-        <f>"500低波动"&amp;" , "&amp;TEXT(SUM(E21:E21),"0.00%")</f>
-        <v>500低波动 , 0.04%</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>39</v>
+      <c r="C21" s="23" t="str">
+        <f>"中证红利"&amp;" , "&amp;TEXT(SUM(E21:E22),"0.00%")</f>
+        <v>中证红利 , 1.60%</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="E21" s="11">
-        <f t="shared" si="2"/>
-        <v>4.1754646831870318E-4</v>
+        <f>F21/$F$36</f>
+        <v>5.2928363672681547E-3</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>33.750423000000005</v>
+        <f t="shared" si="0"/>
+        <v>415.48088000000001</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2">
-        <f>($K$6 + $L$6) * 0.0357</f>
-        <v>33.750423000000005</v>
-      </c>
-      <c r="I21" s="22"/>
+        <f>($K$6 + $L$6) * 0.0922</f>
+        <v>214.97813000000002</v>
+      </c>
+      <c r="I21" s="2">
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.105</f>
+        <v>200.50274999999999</v>
+      </c>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
       <c r="N21" s="12"/>
@@ -5283,29 +4447,26 @@
     <row r="22" spans="1:15">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="23" t="str">
-        <f>"300价值"&amp;" , "&amp;TEXT(SUM(E22:E23),"0.00%")</f>
-        <v>300价值 , 0.19%</v>
-      </c>
+      <c r="C22" s="23"/>
       <c r="D22" s="20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E22" s="11">
-        <f t="shared" si="2"/>
-        <v>9.5145804162150016E-4</v>
+        <f>F22/$F$36</f>
+        <v>1.0661976908668064E-2</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>76.906677000000002</v>
+        <f t="shared" si="0"/>
+        <v>836.95154000000002</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2">
-        <f>($K$6 + $L$6) * 0.0407</f>
-        <v>38.477373</v>
+        <f>($K$6 + $L$6) * 0.2004</f>
+        <v>467.26265999999998</v>
       </c>
       <c r="I22" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0734</f>
-        <v>38.429304000000002</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1936</f>
+        <v>369.68887999999998</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
@@ -5314,26 +4475,29 @@
     <row r="23" spans="1:15">
       <c r="A23" s="23"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="C23" s="21" t="str">
+        <f>"500低波动"&amp;" , "&amp;TEXT(SUM(E23:E23),"0.00%")</f>
+        <v>500低波动 , 0.62%</v>
+      </c>
       <c r="D23" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="11">
-        <f t="shared" si="2"/>
-        <v>9.3121575388647397E-4</v>
+        <f>F23/$F$36</f>
+        <v>6.1912006972852556E-3</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>75.270486000000005</v>
+        <f t="shared" si="0"/>
+        <v>486.00133000000005</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2">
-        <f>($K$6 + $L$6) * 0.0398</f>
-        <v>37.626522000000001</v>
+        <f>($K$6 + $L$6) * 0.1136</f>
+        <v>264.87544000000003</v>
       </c>
       <c r="I23" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0719</f>
-        <v>37.643963999999997</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1158</f>
+        <v>221.12589</v>
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="2"/>
@@ -5344,115 +4508,114 @@
     <row r="24" spans="1:15">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="21" t="str">
-        <f>"基本面120"&amp;" , "&amp;TEXT(SUM(E24:E24),"0.00%")</f>
-        <v>基本面120 , 0.05%</v>
+      <c r="C24" s="23" t="str">
+        <f>"300价值"&amp;" , "&amp;TEXT(SUM(E24:E25),"0.00%")</f>
+        <v>300价值 , 0.96%</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="11">
-        <f t="shared" si="2"/>
-        <v>4.6199119043666034E-4</v>
+        <f>F24/$F$36</f>
+        <v>8.7383961165226638E-3</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="1"/>
-        <v>37.342905000000002</v>
+        <f t="shared" si="0"/>
+        <v>685.95290999999997</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2">
-        <f>($K$6 + $L$6) * 0.0395</f>
-        <v>37.342905000000002</v>
-      </c>
-      <c r="I24" s="2"/>
+        <f>($K$6 + $L$6) * 0.1512</f>
+        <v>352.54548</v>
+      </c>
+      <c r="I24" s="2">
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1746</f>
+        <v>333.40742999999998</v>
+      </c>
       <c r="O24" s="13"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="23" t="str">
-        <f>"海外新兴"&amp;" , "&amp;TEXT(SUM(E25:E26),"0.00%")</f>
-        <v>海外新兴 , 1.62%</v>
-      </c>
-      <c r="B25" s="20" t="str">
-        <f>"香港"&amp;" , "&amp;TEXT(SUM(E25:E25),"0.00%")</f>
-        <v>香港 , 0.53%</v>
-      </c>
-      <c r="C25" s="20" t="str">
-        <f>"恒生"&amp;" , "&amp;TEXT(SUM(E25:E25),"0.00%")</f>
-        <v>恒生 , 0.53%</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>14</v>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="E25" s="11">
-        <f t="shared" ref="E25:E33" si="3">F25/$F$34</f>
-        <v>5.3079078969604735E-3</v>
+        <f>F25/$F$36</f>
+        <v>8.5099387607848892E-4</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="1"/>
-        <v>429.04</v>
-      </c>
-      <c r="G25" s="2">
-        <v>429.04</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+        <f t="shared" si="0"/>
+        <v>66.801929999999999</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
+        <f>($K$6 + $L$6) * 0.0144</f>
+        <v>33.575760000000002</v>
+      </c>
+      <c r="I25" s="2">
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0174</f>
+        <v>33.226169999999996</v>
+      </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="23"/>
-      <c r="B26" s="20" t="str">
-        <f>"海外互联"&amp;" , "&amp;TEXT(SUM(E26:E26),"0.00%")</f>
-        <v>海外互联 , 1.09%</v>
-      </c>
-      <c r="C26" s="20" t="str">
-        <f>"海外互联网"&amp;" , "&amp;TEXT(SUM(E26:E26),"0.00%")</f>
-        <v>海外互联网 , 1.09%</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>15</v>
+      <c r="B26" s="23"/>
+      <c r="C26" s="21" t="str">
+        <f>"基本面120"&amp;" , "&amp;TEXT(SUM(E26:E26),"0.00%")</f>
+        <v>基本面120 , 0.71%</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="E26" s="11">
-        <f t="shared" si="3"/>
-        <v>1.0935374019211103E-2</v>
+        <f>F26/$F$36</f>
+        <v>7.0713341567862509E-3</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="1"/>
-        <v>883.91</v>
-      </c>
-      <c r="G26" s="2">
-        <v>883.91</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="2"/>
+        <f>SUM(G26:I26)</f>
+        <v>555.09068000000002</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
+        <f>($K$6 + $L$6) * 0.1298</f>
+        <v>302.64816999999999</v>
+      </c>
+      <c r="I26" s="2">
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1322</f>
+        <v>252.44251000000003</v>
+      </c>
       <c r="O26" s="13"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="10" t="str">
-        <f>"海外成熟"&amp;" , "&amp;TEXT(SUM(E27:E27),"0.00%")</f>
-        <v>海外成熟 , 2.59%</v>
+      <c r="A27" s="23" t="str">
+        <f>"海外新兴"&amp;" , "&amp;TEXT(SUM(E27:E28),"0.00%")</f>
+        <v>海外新兴 , 2.49%</v>
       </c>
       <c r="B27" s="20" t="str">
-        <f>"海外成熟"&amp;" , "&amp;TEXT(SUM(E27:E27),"0.00%")</f>
-        <v>海外成熟 , 2.59%</v>
+        <f>"香港"&amp;" , "&amp;TEXT(SUM(E27:E27),"0.00%")</f>
+        <v>香港 , 0.52%</v>
       </c>
       <c r="C27" s="20" t="str">
-        <f>"德国30"&amp;" , "&amp;TEXT(SUM(E27:E27),"0.00%")</f>
-        <v>德国30 , 2.59%</v>
+        <f>"恒生"&amp;" , "&amp;TEXT(SUM(E27:E27),"0.00%")</f>
+        <v>恒生 , 0.52%</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E27" s="11">
-        <f t="shared" si="3"/>
-        <v>2.5928753980250484E-2</v>
+        <f t="shared" ref="E27:E35" si="1">F27/$F$36</f>
+        <v>5.1645428103795831E-3</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="1"/>
-        <v>2095.83</v>
+        <f t="shared" si="0"/>
+        <v>405.41</v>
       </c>
       <c r="G27" s="2">
-        <v>2095.83</v>
+        <v>405.41</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="2"/>
@@ -5461,31 +4624,28 @@
       <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="23" t="str">
-        <f>"商品"&amp;" , "&amp;TEXT(SUM(E28:E29),"0.00%")</f>
-        <v>商品 , 2.02%</v>
-      </c>
+      <c r="A28" s="23"/>
       <c r="B28" s="20" t="str">
-        <f>"原油"&amp;" , "&amp;TEXT(SUM(E28:E28),"0.00%")</f>
-        <v>原油 , 1.54%</v>
+        <f>"海外互联"&amp;" , "&amp;TEXT(SUM(E28:E28),"0.00%")</f>
+        <v>海外互联 , 1.97%</v>
       </c>
       <c r="C28" s="20" t="str">
-        <f>"原油"&amp;" , "&amp;TEXT(SUM(E28:E28),"0.00%")</f>
-        <v>原油 , 1.54%</v>
+        <f>"海外互联网"&amp;" , "&amp;TEXT(SUM(E28:E28),"0.00%")</f>
+        <v>海外互联网 , 1.97%</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E28" s="11">
-        <f t="shared" si="3"/>
-        <v>1.5358960509135556E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.9738156239999839E-2</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="1"/>
-        <v>1241.47</v>
+        <f t="shared" si="0"/>
+        <v>1549.42</v>
       </c>
       <c r="G28" s="2">
-        <v>1241.47</v>
+        <v>1549.42</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="2"/>
@@ -5493,28 +4653,31 @@
       <c r="O28" s="13"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="23"/>
+      <c r="A29" s="10" t="str">
+        <f>"海外成熟"&amp;" , "&amp;TEXT(SUM(E29:E29),"0.00%")</f>
+        <v>海外成熟 , 2.65%</v>
+      </c>
       <c r="B29" s="20" t="str">
-        <f>"黄金"&amp;" , "&amp;TEXT(SUM(E29:E29),"0.00%")</f>
-        <v>黄金 , 0.48%</v>
+        <f>"海外成熟"&amp;" , "&amp;TEXT(SUM(E29:E29),"0.00%")</f>
+        <v>海外成熟 , 2.65%</v>
       </c>
       <c r="C29" s="20" t="str">
-        <f>"黄金"&amp;" , "&amp;TEXT(SUM(E29:E29),"0.00%")</f>
-        <v>黄金 , 0.48%</v>
+        <f>"德国30"&amp;" , "&amp;TEXT(SUM(E29:E29),"0.00%")</f>
+        <v>德国30 , 2.65%</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E29" s="11">
-        <f t="shared" si="3"/>
-        <v>4.8483032485079243E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.6482724813856839E-2</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="1"/>
-        <v>391.89</v>
+        <f t="shared" si="0"/>
+        <v>2078.86</v>
       </c>
       <c r="G29" s="2">
-        <v>391.89</v>
+        <v>2078.86</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="2"/>
@@ -5523,52 +4686,58 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="23" t="str">
-        <f>"债券"&amp;" , "&amp;TEXT(SUM(E30:E32),"0.00%")</f>
-        <v>债券 , 3.25%</v>
-      </c>
-      <c r="B30" s="23" t="str">
-        <f>"国内债券"&amp;" , "&amp;TEXT(SUM(E30:E32),"0.00%")</f>
-        <v>国内债券 , 3.25%</v>
-      </c>
-      <c r="C30" s="23" t="str">
-        <f>"可转债"&amp;" , "&amp;TEXT(SUM(E30:E32),"0.00%")</f>
-        <v>可转债 , 3.25%</v>
+        <f>"商品"&amp;" , "&amp;TEXT(SUM(E30:E31),"0.00%")</f>
+        <v>商品 , 1.85%</v>
+      </c>
+      <c r="B30" s="20" t="str">
+        <f>"原油"&amp;" , "&amp;TEXT(SUM(E30:E30),"0.00%")</f>
+        <v>原油 , 1.32%</v>
+      </c>
+      <c r="C30" s="20" t="str">
+        <f>"原油"&amp;" , "&amp;TEXT(SUM(E30:E30),"0.00%")</f>
+        <v>原油 , 1.32%</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="11">
-        <f t="shared" si="3"/>
-        <v>2.1951905682940344E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.3174354944895918E-2</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="1"/>
-        <v>1774.38</v>
+        <f t="shared" si="0"/>
+        <v>1034.17</v>
       </c>
       <c r="G30" s="2">
-        <v>1774.38</v>
-      </c>
-      <c r="H30" s="2"/>
+        <v>1034.17</v>
+      </c>
+      <c r="H30" s="14"/>
       <c r="I30" s="2"/>
       <c r="O30" s="13"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="20" t="str">
+        <f>"黄金"&amp;" , "&amp;TEXT(SUM(E31:E31),"0.00%")</f>
+        <v>黄金 , 0.53%</v>
+      </c>
+      <c r="C31" s="20" t="str">
+        <f>"黄金"&amp;" , "&amp;TEXT(SUM(E31:E31),"0.00%")</f>
+        <v>黄金 , 0.53%</v>
+      </c>
       <c r="D31" s="10" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E31" s="11">
-        <f t="shared" si="3"/>
-        <v>5.452284377376119E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.3175389356667222E-3</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="1"/>
-        <v>440.71</v>
+        <f t="shared" si="0"/>
+        <v>417.42</v>
       </c>
       <c r="G31" s="2">
-        <v>440.71</v>
+        <v>417.42</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -5576,129 +4745,162 @@
       <c r="O31" s="12"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="A32" s="23" t="str">
+        <f>"债券"&amp;" , "&amp;TEXT(SUM(E32:E34),"0.00%")</f>
+        <v>债券 , 4.70%</v>
+      </c>
+      <c r="B32" s="23" t="str">
+        <f>"国内债券"&amp;" , "&amp;TEXT(SUM(E32:E34),"0.00%")</f>
+        <v>国内债券 , 4.70%</v>
+      </c>
+      <c r="C32" s="23" t="str">
+        <f>"可转债"&amp;" , "&amp;TEXT(SUM(E32:E34),"0.00%")</f>
+        <v>可转债 , 4.70%</v>
+      </c>
       <c r="D32" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E32" s="11">
-        <f t="shared" si="3"/>
-        <v>5.1291383903618367E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.153461865365448E-2</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="1"/>
-        <v>414.59</v>
+        <f t="shared" si="0"/>
+        <v>1690.44</v>
       </c>
       <c r="G32" s="2">
-        <v>414.59</v>
+        <v>1690.44</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="O32" s="13"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="20" t="str">
-        <f>"现金"&amp;" , "&amp;TEXT(SUM(E33:E33),"0.00%")</f>
-        <v>现金 , 25.86%</v>
-      </c>
-      <c r="B33" s="10" t="str">
-        <f>"低风险理财"&amp;" , "&amp;TEXT(SUM(E33:E33),"0.00%")</f>
-        <v>低风险理财 , 25.86%</v>
-      </c>
-      <c r="C33" s="20" t="str">
-        <f>"货币基金"&amp;" , "&amp;TEXT(SUM(E33:E33),"0.00%")</f>
-        <v>货币基金 , 25.86%</v>
-      </c>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E33" s="11">
-        <f t="shared" si="3"/>
-        <v>0.25856627598003423</v>
+        <f t="shared" si="1"/>
+        <v>5.3320614654608382E-3</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="1"/>
-        <v>20900</v>
+        <f t="shared" si="0"/>
+        <v>418.56</v>
       </c>
       <c r="G33" s="2">
-        <v>20900</v>
-      </c>
-      <c r="H33" s="8"/>
+        <v>418.56</v>
+      </c>
+      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="D34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="13">
-        <f>SUM(E2:E33)</f>
-        <v>0.99999999999999989</v>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" si="1"/>
+        <v>2.0089117376690984E-2</v>
       </c>
       <c r="F34" s="2">
-        <f>SUM(F2:F33)</f>
-        <v>80830.34</v>
+        <f t="shared" si="0"/>
+        <v>1576.97</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1576.97</v>
       </c>
       <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="I34" s="2"/>
       <c r="O34" s="13"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="D35" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="15">
-        <f>F34/$K$2-1</f>
-        <v>9.9763041042227441E-2</v>
-      </c>
+      <c r="A35" s="20" t="str">
+        <f>"现金"&amp;" , "&amp;TEXT(SUM(E35:E35),"0.00%")</f>
+        <v>现金 , 22.04%</v>
+      </c>
+      <c r="B35" s="10" t="str">
+        <f>"低风险理财"&amp;" , "&amp;TEXT(SUM(E35:E35),"0.00%")</f>
+        <v>低风险理财 , 22.04%</v>
+      </c>
+      <c r="C35" s="20" t="str">
+        <f>"货币基金"&amp;" , "&amp;TEXT(SUM(E35:E35),"0.00%")</f>
+        <v>货币基金 , 22.04%</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="11">
+        <f t="shared" si="1"/>
+        <v>0.22038575915632763</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>17300</v>
+      </c>
+      <c r="G35" s="2">
+        <v>17300</v>
+      </c>
+      <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="C36" s="2"/>
+      <c r="D36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="13">
+        <f>SUM(E2:E35)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="F36" s="2">
+        <f>SUM(F2:F35)</f>
+        <v>78498.720000000001</v>
+      </c>
+      <c r="I36" s="8"/>
       <c r="P36" s="13"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="16"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="2"/>
+      <c r="D37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="15">
+        <f>F36/$K$2-1</f>
+        <v>2.6525860765777232E-2</v>
+      </c>
       <c r="O37" s="12"/>
     </row>
     <row r="38" spans="1:16">
       <c r="C38" s="2"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
       <c r="P38" s="13"/>
     </row>
     <row r="39" spans="1:16">
+      <c r="A39" s="16"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
       <c r="O39" s="12"/>
     </row>
     <row r="40" spans="1:16">
       <c r="C40" s="2"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
       <c r="P40" s="13"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="8"/>
-      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="8"/>
-      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5811,7 +5013,7 @@
     <row r="56" spans="1:6">
       <c r="A56" s="8"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="4"/>
+      <c r="C56" s="2"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -5819,6 +5021,7 @@
     <row r="57" spans="1:6">
       <c r="A57" s="8"/>
       <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5826,29 +5029,28 @@
     <row r="58" spans="1:6">
       <c r="A58" s="8"/>
       <c r="B58" s="2"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="8"/>
-      <c r="B59" s="7"/>
+      <c r="B59" s="2"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
+      <c r="B60" s="2"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="2"/>
+      <c r="B61" s="7"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -5856,125 +5058,129 @@
     <row r="62" spans="1:6">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
-      <c r="C62" s="2"/>
+      <c r="C62" s="8"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="8"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="8"/>
       <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="B66" s="8"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5">
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
+    <row r="67" spans="1:5">
       <c r="C67" s="2"/>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="8"/>
+    </row>
+    <row r="68" spans="1:5">
       <c r="B68" s="8"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4">
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="2"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="2"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="2"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:5">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="2"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="2"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="2"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
-      <c r="C76" s="5"/>
+      <c r="C76" s="2"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:5">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="2"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
-      <c r="C78" s="2"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="2"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:5">
       <c r="A80" s="8"/>
-      <c r="B80" s="17"/>
+      <c r="B80" s="8"/>
       <c r="C80" s="2"/>
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="17"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="2"/>
       <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
+      <c r="B82" s="17"/>
       <c r="C82" s="2"/>
       <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="8"/>
+      <c r="A83" s="17"/>
       <c r="B83" s="8"/>
       <c r="C83" s="2"/>
       <c r="D83" s="1"/>
@@ -6024,11 +5230,13 @@
     <row r="91" spans="1:4">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
+      <c r="C91" s="2"/>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
+      <c r="C92" s="2"/>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4">
@@ -6048,29 +5256,41 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4">
-      <c r="D97" s="6"/>
+    <row r="97" spans="1:4">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="8"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="D99" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B10:B16"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="A2:A24"/>
+  <mergeCells count="15">
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F39:F62">
+  <conditionalFormatting sqref="F41:F64">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6090,7 +5310,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39:E62">
+  <conditionalFormatting sqref="E41:E64">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/Portfolio/父母资产配置情况.xlsx
+++ b/Portfolio/父母资产配置情况.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC26CBE-82B3-46CA-8AEB-6D23059EAF64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549A795F-6841-43AB-975D-E9C9547E91D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,8 +26,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>C</author>
+  </authors>
+  <commentList>
+    <comment ref="G36" authorId="0" shapeId="0" xr:uid="{8772274C-E21A-48BF-A1A4-3076D8BD35AA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还剩多少本金，可以通过“计划收益”和天天基金APP里面的收益对比后，近似得出。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>大类目</t>
     <rPh sb="0" eb="1">
@@ -171,10 +196,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>广发中证500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>富国中证500</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -317,6 +338,14 @@
   </si>
   <si>
     <t>天弘中证医药100A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发中证500C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发中证500A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +356,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +441,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1932,7 +1969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2004,6 +2041,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="500">
@@ -2751,13 +2794,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.0176176487121752E-2</c:v>
+                  <c:v>7.6017199274085401E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4975641270194201E-3</c:v>
+                  <c:v>5.057454961659982E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9278013307993026</c:v>
+                  <c:v>0.92468919267269389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3748,12 +3791,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.25" defaultRowHeight="14.25"/>
@@ -3765,8 +3808,7 @@
     <col min="6" max="6" width="8.875" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="9" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.25" style="9"/>
-    <col min="11" max="11" width="15.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.125" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="21.25" style="9"/>
   </cols>
   <sheetData>
@@ -3793,588 +3835,581 @@
         <v>3</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="M1" s="17"/>
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="23" t="str">
-        <f>"A股"&amp;" , "&amp;TEXT(SUM(E2:E26),"0.00%")</f>
-        <v>A股 , 66.28%</v>
-      </c>
-      <c r="B2" s="23" t="str">
+      <c r="A2" s="24" t="str">
+        <f>"A股"&amp;" , "&amp;TEXT(SUM(E2:E27),"0.00%")</f>
+        <v>A股 , 69.58%</v>
+      </c>
+      <c r="B2" s="24" t="str">
         <f>"大盘股"&amp;" , "&amp;TEXT(SUM(E2:E4),"0.00%")</f>
-        <v>大盘股 , 7.15%</v>
+        <v>大盘股 , 7.36%</v>
       </c>
       <c r="C2" s="20" t="str">
         <f>"上证50"&amp;" , "&amp;TEXT(SUM(E2:E2),"0.00%")</f>
-        <v>上证50 , 1.57%</v>
+        <v>上证50 , 1.62%</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="11">
-        <f>F2/$F$36</f>
-        <v>1.5652484524588426E-2</v>
+        <f>F2/$F$37</f>
+        <v>1.6202666664073787E-2</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(G2:I2)</f>
-        <v>1228.7</v>
+        <v>1333.1</v>
       </c>
       <c r="G2" s="2">
-        <v>1228.7</v>
+        <v>1333.1</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="K2" s="18">
         <f>K4+K6+K8</f>
-        <v>76470.28</v>
+        <v>77500.789999999994</v>
       </c>
       <c r="L2" s="18">
         <f>$K$4+$K$6+$K$8+$K$10+$K$12</f>
-        <v>819548.07</v>
+        <v>828576.83000000007</v>
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23" t="str">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24" t="str">
         <f>"沪深300"&amp;" , "&amp;TEXT(SUM(E3:E4),"0.00%")</f>
-        <v>沪深300 , 5.58%</v>
+        <v>沪深300 , 5.74%</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="11">
-        <f>F3/$F$36</f>
-        <v>5.0924524629191406E-2</v>
+        <f>F3/$F$37</f>
+        <v>5.2358155868899768E-2</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F35" si="0">SUM(G3:I3)</f>
-        <v>3997.51</v>
+        <f t="shared" ref="F3:F36" si="0">SUM(G3:I3)</f>
+        <v>4307.8500000000004</v>
       </c>
       <c r="G3" s="2">
-        <v>3997.51</v>
+        <v>4307.8500000000004</v>
       </c>
       <c r="I3" s="2"/>
       <c r="K3" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="11">
-        <f>F4/$F$36</f>
-        <v>4.89867860265747E-3</v>
+        <f>F4/$F$37</f>
+        <v>5.025974584748176E-3</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>384.54</v>
+        <v>413.52</v>
       </c>
       <c r="G4" s="2">
-        <v>384.54</v>
+        <v>413.52</v>
       </c>
       <c r="K4" s="18">
         <v>72000</v>
       </c>
-      <c r="L4" s="5">
-        <f>F36-K4</f>
-        <v>6498.7200000000012</v>
+      <c r="L4" s="18">
+        <f>F37-SUM(F19:F27)-K4</f>
+        <v>4848.7199999999866</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23" t="str">
-        <f>"中小盘股"&amp;" , "&amp;TEXT(SUM(E5:E9),"0.00%")</f>
-        <v>中小盘股 , 19.82%</v>
-      </c>
-      <c r="C5" s="23" t="str">
-        <f>"中证500"&amp;" , "&amp;TEXT(SUM(E5:E6),"0.00%")</f>
-        <v>中证500 , 15.57%</v>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24" t="str">
+        <f>"中小盘股"&amp;" , "&amp;TEXT(SUM(E5:E10),"0.00%")</f>
+        <v>中小盘股 , 21.18%</v>
+      </c>
+      <c r="C5" s="24" t="str">
+        <f>"中证500"&amp;" , "&amp;TEXT(SUM(E5:E7),"0.00%")</f>
+        <v>中证500 , 16.83%</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E5" s="11">
-        <f>F5/$F$36</f>
-        <v>0.11742484463440933</v>
+        <f>F5/$F$37</f>
+        <v>0.12433331575036299</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>9217.7000000000007</v>
+        <v>10229.719999999999</v>
       </c>
       <c r="G5" s="2">
-        <v>9217.7000000000007</v>
+        <v>10229.719999999999</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="K5" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="10" t="s">
-        <v>26</v>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="E6" s="11">
-        <f>F6/$F$36</f>
-        <v>3.8309669253205662E-2</v>
+        <f>F6/$F$37</f>
+        <v>5.072160267235221E-3</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>3007.26</v>
+        <v>417.32</v>
       </c>
       <c r="G6" s="2">
-        <v>3007.26</v>
+        <v>417.32</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="K6" s="18">
-        <f>2331.65-L6</f>
-        <v>2463.7000000000003</v>
+        <f>2942.21-L6</f>
+        <v>2988.4</v>
       </c>
       <c r="L6" s="18">
-        <f>-132.05</f>
-        <v>-132.05000000000001</v>
+        <v>-46.19</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="20" t="str">
-        <f>"中证1000"&amp;" , "&amp;TEXT(SUM(E7:E7),"0.00%")</f>
-        <v>中证1000 , 1.45%</v>
-      </c>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="11">
-        <f>F7/$F$36</f>
-        <v>1.454482315125648E-2</v>
+        <f>F7/$F$37</f>
+        <v>3.8941093565143331E-2</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>1141.75</v>
+        <f>SUM(G7:I7)</f>
+        <v>3203.94</v>
       </c>
       <c r="G7" s="2">
-        <v>1141.75</v>
-      </c>
+        <v>3203.94</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="K7" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23" t="str">
-        <f>"创业板"&amp;" , "&amp;TEXT(SUM(E8:E9),"0.00%")</f>
-        <v>创业板 , 2.79%</v>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="20" t="str">
+        <f>"中证1000"&amp;" , "&amp;TEXT(SUM(E8:E8),"0.00%")</f>
+        <v>中证1000 , 1.49%</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="11">
-        <f>F8/$F$36</f>
-        <v>5.0674711638610164E-3</v>
+        <f>F8/$F$37</f>
+        <v>1.4876408329077365E-2</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>397.79</v>
+        <v>1223.98</v>
       </c>
       <c r="G8" s="2">
-        <v>397.79</v>
-      </c>
-      <c r="H8" s="14"/>
+        <v>1223.98</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="K8" s="18">
-        <f>1909.55-L8</f>
-        <v>2006.58</v>
+        <f>2485.65-L8</f>
+        <v>2512.39</v>
       </c>
       <c r="L8" s="18">
-        <f>-97.03</f>
-        <v>-97.03</v>
+        <v>-26.74</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="str">
+        <f>"创业板"&amp;" , "&amp;TEXT(SUM(E9:E10),"0.00%")</f>
+        <v>创业板 , 2.86%</v>
+      </c>
       <c r="D9" s="10" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E9" s="11">
-        <f>F9/$F$36</f>
-        <v>2.2817187337576969E-2</v>
+        <f>F9/$F$37</f>
+        <v>5.192850748050053E-3</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>1791.12</v>
+        <v>427.25</v>
       </c>
       <c r="G9" s="2">
-        <v>1791.12</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>427.25</v>
+      </c>
+      <c r="H9" s="14"/>
       <c r="I9" s="2"/>
       <c r="K9" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="20" t="str">
-        <f>"红利价值"&amp;" , "&amp;TEXT(SUM(E10:E10),"0.00%")</f>
-        <v>红利价值 , 11.38%</v>
-      </c>
-      <c r="C10" s="20" t="str">
-        <f>"中证红利"&amp;" , "&amp;TEXT(SUM(E10:E10),"0.00%")</f>
-        <v>中证红利 , 11.38%</v>
-      </c>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="11">
-        <f>F10/$F$36</f>
-        <v>0.11381064557485777</v>
+        <f>F10/$F$37</f>
+        <v>2.338551262096699E-2</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>8933.99</v>
+        <v>1924.08</v>
       </c>
       <c r="G10" s="2">
-        <v>8933.99</v>
+        <v>1924.08</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="K10" s="18">
-        <v>612405.84</v>
-      </c>
-      <c r="L10" s="18">
-        <v>19690.009999999998</v>
+        <v>614446.73</v>
+      </c>
+      <c r="L10" s="25">
+        <v>22433.58</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="23" t="str">
-        <f>"行业股"&amp;" , "&amp;TEXT(SUM(E11:E17),"0.00%")</f>
-        <v>行业股 , 22.53%</v>
+        <f>"红利价值"&amp;" , "&amp;TEXT(SUM(E11:E11),"0.00%")</f>
+        <v>红利价值 , 11.32%</v>
       </c>
       <c r="C11" s="20" t="str">
-        <f>"养老产业"&amp;" , "&amp;TEXT(SUM(E11:E11),"0.00%")</f>
-        <v>养老产业 , 6.74%</v>
+        <f>"中证红利"&amp;" , "&amp;TEXT(SUM(E11:E11),"0.00%")</f>
+        <v>中证红利 , 11.32%</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="11">
-        <f>F11/$F$36</f>
-        <v>6.735447406021397E-2</v>
+        <f>F11/$F$37</f>
+        <v>0.11323562549634417</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>5287.24</v>
+        <v>9316.64</v>
       </c>
       <c r="G11" s="2">
-        <v>5287.24</v>
-      </c>
+        <v>9316.64</v>
+      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="K11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="18" t="s">
-        <v>46</v>
-      </c>
       <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24" t="str">
+        <f>"行业股"&amp;" , "&amp;TEXT(SUM(E12:E18),"0.00%")</f>
+        <v>行业股 , 23.12%</v>
+      </c>
       <c r="C12" s="20" t="str">
-        <f>"全指医药"&amp;" , "&amp;TEXT(SUM(E12:E12),"0.00%")</f>
-        <v>全指医药 , 6.06%</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>7</v>
+        <f>"养老产业"&amp;" , "&amp;TEXT(SUM(E12:E12),"0.00%")</f>
+        <v>养老产业 , 6.89%</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="E12" s="11">
-        <f>F12/$F$36</f>
-        <v>6.063309057778267E-2</v>
+        <f>F12/$F$37</f>
+        <v>6.8944528321425141E-2</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>4759.62</v>
+        <v>5672.52</v>
       </c>
       <c r="G12" s="2">
-        <v>4759.62</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>5672.52</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="K12" s="18">
-        <v>130671.95</v>
-      </c>
-      <c r="L12" s="18">
-        <v>3248.45</v>
+        <v>136629.31</v>
+      </c>
+      <c r="L12" s="25">
+        <v>3406.66</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="20" t="str">
-        <f>"中证传媒"&amp;" , "&amp;TEXT(SUM(E13:E13),"0.00%")</f>
-        <v>中证传媒 , 3.95%</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>29</v>
+        <f>"全指医药"&amp;" , "&amp;TEXT(SUM(E13:E13),"0.00%")</f>
+        <v>全指医药 , 6.26%</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="E13" s="11">
-        <f>F13/$F$36</f>
-        <v>3.9535803895910659E-2</v>
+        <f>F13/$F$37</f>
+        <v>6.2648569009552915E-2</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>3103.51</v>
+        <v>5154.51</v>
       </c>
       <c r="G13" s="2">
-        <v>3103.51</v>
+        <v>5154.51</v>
       </c>
       <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="O13" s="13"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="20" t="str">
-        <f>"中证环保"&amp;" , "&amp;TEXT(SUM(E14:E14),"0.00%")</f>
-        <v>中证环保 , 4.01%</v>
+        <f>"中证传媒"&amp;" , "&amp;TEXT(SUM(E14:E14),"0.00%")</f>
+        <v>中证传媒 , 4.05%</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="11">
-        <f>F14/$F$36</f>
-        <v>4.0064857108498074E-2</v>
+        <f>F14/$F$37</f>
+        <v>4.0526842510955126E-2</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>3145.04</v>
+        <v>3334.41</v>
       </c>
       <c r="G14" s="2">
-        <v>3145.04</v>
-      </c>
-      <c r="I14" s="2"/>
+        <v>3334.41</v>
+      </c>
+      <c r="H14" s="2"/>
       <c r="K14" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="20" t="str">
-        <f>"全指消费"&amp;" , "&amp;TEXT(SUM(E15:E15),"0.00%")</f>
-        <v>全指消费 , 0.00%</v>
+        <f>"中证环保"&amp;" , "&amp;TEXT(SUM(E15:E15),"0.00%")</f>
+        <v>中证环保 , 4.08%</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E15" s="11">
-        <f>F15/$F$36</f>
-        <v>0</v>
+        <f>F15/$F$37</f>
+        <v>4.0756312428153925E-2</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
+        <v>3353.29</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3353.29</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="K15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="1">
+        <f>SUM($F$2:$F$32)/($K$2+$K$10+K$12)</f>
+        <v>7.6017199274085401E-2</v>
+      </c>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="20" t="str">
+        <f>"全指消费"&amp;" , "&amp;TEXT(SUM(E16:E16),"0.00%")</f>
+        <v>全指消费 , 0.00%</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="11">
+        <f>F16/$F$37</f>
         <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="K15" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="1">
-        <f>SUM($F$2:$F$31)/($K$2+$K$10+K$12)</f>
-        <v>7.0176176487121752E-2</v>
-      </c>
-      <c r="O15" s="13"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="20" t="str">
-        <f>"金融地产"&amp;" , "&amp;TEXT(SUM(E16:E16),"0.00%")</f>
-        <v>金融地产 , 1.17%</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="11">
-        <f>F16/$F$36</f>
-        <v>1.1669107470796976E-2</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>916.01</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>916.01</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="K16" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L16" s="1">
-        <f>SUM($F$32:$F$34)/($K$2+$K$10+K$12)</f>
-        <v>4.4975641270194201E-3</v>
+        <f>SUM($F$33:$F$35)/($K$2+$K$10+K$12)</f>
+        <v>5.057454961659982E-3</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" s="19" customFormat="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="20" t="str">
-        <f>"证券公司"&amp;" , "&amp;TEXT(SUM(E17:E17),"0.00%")</f>
-        <v>证券公司 , 0.60%</v>
+        <f>"金融地产"&amp;" , "&amp;TEXT(SUM(E17:E17),"0.00%")</f>
+        <v>金融地产 , 1.19%</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E17" s="11">
-        <f>F17/$F$36</f>
-        <v>6.0445571596581451E-3</v>
+        <f>F17/$F$37</f>
+        <v>1.1940943583216514E-2</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>474.49</v>
+        <v>982.46</v>
       </c>
       <c r="G17" s="2">
-        <v>474.49</v>
-      </c>
+        <v>982.46</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="2"/>
       <c r="K17" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17" s="1">
-        <f>(F35+SUM($K$10:$K$12))/($K$2+$K$10+K$12)</f>
-        <v>0.9278013307993026</v>
+        <f>(F36+SUM($K$10:$K$12))/($K$2+$K$10+K$12)</f>
+        <v>0.92468919267269389</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23" t="str">
-        <f>"螺丝钉定投"&amp;" , "&amp;TEXT(SUM(E18:E26),"0.00%")</f>
-        <v>螺丝钉定投 , 5.40%</v>
-      </c>
-      <c r="C18" s="21" t="str">
-        <f>"医药"&amp;" , "&amp;TEXT(SUM(E18:E18),"0.00%")</f>
-        <v>医药 , 0.09%</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>59</v>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="20" t="str">
+        <f>"证券公司"&amp;" , "&amp;TEXT(SUM(E18:E18),"0.00%")</f>
+        <v>证券公司 , 0.64%</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="E18" s="11">
-        <f>F18/$F$36</f>
-        <v>8.5639676672434931E-4</v>
+        <f>F18/$F$37</f>
+        <v>6.4134897196747847E-3</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>67.226050000000015</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <f>($K$6 + $L$6) * 0.0145</f>
-        <v>33.808925000000002</v>
-      </c>
-      <c r="I18" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0175</f>
-        <v>33.417125000000006</v>
-      </c>
+        <v>527.67999999999995</v>
+      </c>
+      <c r="G18" s="2">
+        <v>527.67999999999995</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
       <c r="N18" s="12"/>
       <c r="O18" s="13"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24" t="str">
+        <f>"螺丝钉定投"&amp;" , "&amp;TEXT(SUM(E19:E27),"0.00%")</f>
+        <v>螺丝钉定投 , 6.60%</v>
+      </c>
       <c r="C19" s="21" t="str">
-        <f>"香港中小"&amp;" , "&amp;TEXT(SUM(E19:E19),"0.00%")</f>
-        <v>香港中小 , 1.12%</v>
+        <f>"医药"&amp;" , "&amp;TEXT(SUM(E19:E19),"0.00%")</f>
+        <v>医药 , 0.27%</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E19" s="11">
-        <f>F19/$F$36</f>
-        <v>1.1235784481581355E-2</v>
+        <f>F19/$F$37</f>
+        <v>2.7249676153286882E-3</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>881.99469999999997</v>
+        <v>224.20101600000001</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2">
-        <f>($K$6 + $L$6) * 0.2103</f>
-        <v>490.34599500000002</v>
+        <f>($K$6 + $L$6) * 0.0381</f>
+        <v>112.098201</v>
       </c>
       <c r="I19" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.2051</f>
-        <v>391.64870500000001</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0451</f>
+        <v>112.10281500000001</v>
       </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -4382,31 +4417,31 @@
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="21" t="str">
-        <f>"上证50AH"&amp;" , "&amp;TEXT(SUM(E20:E20),"0.00%")</f>
-        <v>上证50AH , 0.31%</v>
+        <f>"香港中小"&amp;" , "&amp;TEXT(SUM(E20:E20),"0.00%")</f>
+        <v>香港中小 , 1.32%</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" s="11">
-        <f>F20/$F$36</f>
-        <v>3.1299870876875446E-3</v>
+        <f>F20/$F$37</f>
+        <v>1.3215944282078815E-2</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>245.69998000000001</v>
+        <v>1087.362697</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2">
-        <f>($K$6 + $L$6) * 0.0736</f>
-        <v>171.60944000000001</v>
+        <f>($K$6 + $L$6) * 0.2012</f>
+        <v>591.97265199999993</v>
       </c>
       <c r="I20" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0388</f>
-        <v>74.090540000000004</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1993</f>
+        <v>495.39004500000004</v>
       </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -4414,90 +4449,90 @@
       <c r="O20" s="13"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23" t="str">
-        <f>"中证红利"&amp;" , "&amp;TEXT(SUM(E21:E22),"0.00%")</f>
-        <v>中证红利 , 1.60%</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>58</v>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="21" t="str">
+        <f>"上证50AH"&amp;" , "&amp;TEXT(SUM(E21:E21),"0.00%")</f>
+        <v>上证50AH , 0.32%</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="E21" s="11">
-        <f>F21/$F$36</f>
-        <v>5.2928363672681547E-3</v>
+        <f>F21/$F$37</f>
+        <v>3.2072358744128652E-3</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>415.48088000000001</v>
+        <v>263.88039900000001</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2">
-        <f>($K$6 + $L$6) * 0.0922</f>
-        <v>214.97813000000002</v>
+        <f>($K$6 + $L$6) * 0.0624</f>
+        <v>183.59390399999998</v>
       </c>
       <c r="I21" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.105</f>
-        <v>200.50274999999999</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0323</f>
+        <v>80.286495000000002</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
       <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="20" t="s">
-        <v>37</v>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24" t="str">
+        <f>"中证红利"&amp;" , "&amp;TEXT(SUM(E22:E23),"0.00%")</f>
+        <v>中证红利 , 1.74%</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="E22" s="11">
-        <f>F22/$F$36</f>
-        <v>1.0661976908668064E-2</v>
+        <f>F22/$F$37</f>
+        <v>5.2430828918751853E-3</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>836.95154000000002</v>
+        <v>431.38292899999999</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2">
-        <f>($K$6 + $L$6) * 0.2004</f>
-        <v>467.26265999999998</v>
+        <f>($K$6 + $L$6) * 0.0754</f>
+        <v>221.84263399999998</v>
       </c>
       <c r="I22" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1936</f>
-        <v>369.68887999999998</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0843</f>
+        <v>209.54029500000001</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
       <c r="O22" s="13"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="21" t="str">
-        <f>"500低波动"&amp;" , "&amp;TEXT(SUM(E23:E23),"0.00%")</f>
-        <v>500低波动 , 0.62%</v>
-      </c>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23" s="11">
-        <f>F23/$F$36</f>
-        <v>6.1912006972852556E-3</v>
+        <f>F23/$F$37</f>
+        <v>1.2192471685138106E-2</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>486.00133000000005</v>
+        <v>1003.1548720000001</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2">
-        <f>($K$6 + $L$6) * 0.1136</f>
-        <v>264.87544000000003</v>
+        <f>($K$6 + $L$6) * 0.1937</f>
+        <v>569.9060770000001</v>
       </c>
       <c r="I23" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1158</f>
-        <v>221.12589</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1743</f>
+        <v>433.24879500000003</v>
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="2"/>
@@ -4506,146 +4541,147 @@
       <c r="O23" s="12"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23" t="str">
-        <f>"300价值"&amp;" , "&amp;TEXT(SUM(E24:E25),"0.00%")</f>
-        <v>300价值 , 0.96%</v>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="21" t="str">
+        <f>"500低波动"&amp;" , "&amp;TEXT(SUM(E24:E24),"0.00%")</f>
+        <v>500低波动 , 0.82%</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E24" s="11">
-        <f>F24/$F$36</f>
-        <v>8.7383961165226638E-3</v>
+        <f>F24/$F$37</f>
+        <v>8.212143552879813E-3</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>685.95290999999997</v>
+        <v>675.66708600000004</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2">
-        <f>($K$6 + $L$6) * 0.1512</f>
-        <v>352.54548</v>
+        <f>($K$6 + $L$6) * 0.1221</f>
+        <v>359.24384100000003</v>
       </c>
       <c r="I24" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1746</f>
-        <v>333.40742999999998</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1273</f>
+        <v>316.42324500000001</v>
       </c>
       <c r="O24" s="13"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24" t="str">
+        <f>"300价值"&amp;" , "&amp;TEXT(SUM(E25:E26),"0.00%")</f>
+        <v>300价值 , 1.20%</v>
+      </c>
       <c r="D25" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="11">
-        <f>F25/$F$36</f>
-        <v>8.5099387607848892E-4</v>
+        <f>F25/$F$37</f>
+        <v>1.109599551901647E-2</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>66.801929999999999</v>
+        <v>912.940563</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2">
-        <f>($K$6 + $L$6) * 0.0144</f>
-        <v>33.575760000000002</v>
+        <f>($K$6 + $L$6) * 0.1578</f>
+        <v>464.28073799999999</v>
       </c>
       <c r="I25" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0174</f>
-        <v>33.226169999999996</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1805</f>
+        <v>448.65982500000001</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="21" t="str">
-        <f>"基本面120"&amp;" , "&amp;TEXT(SUM(E26:E26),"0.00%")</f>
-        <v>基本面120 , 0.71%</v>
-      </c>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E26" s="11">
-        <f>F26/$F$36</f>
-        <v>7.0713341567862509E-3</v>
+        <f>F26/$F$37</f>
+        <v>8.5811478795059311E-4</v>
       </c>
       <c r="F26" s="2">
-        <f>SUM(G26:I26)</f>
-        <v>555.09068000000002</v>
+        <f t="shared" si="0"/>
+        <v>70.60275</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2">
-        <f>($K$6 + $L$6) * 0.1298</f>
-        <v>302.64816999999999</v>
+        <f>($K$6 + $L$6) * 0.012</f>
+        <v>35.306519999999999</v>
       </c>
       <c r="I26" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1322</f>
-        <v>252.44251000000003</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0142</f>
+        <v>35.296230000000001</v>
       </c>
       <c r="O26" s="13"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="23" t="str">
-        <f>"海外新兴"&amp;" , "&amp;TEXT(SUM(E27:E28),"0.00%")</f>
-        <v>海外新兴 , 2.49%</v>
-      </c>
-      <c r="B27" s="20" t="str">
-        <f>"香港"&amp;" , "&amp;TEXT(SUM(E27:E27),"0.00%")</f>
-        <v>香港 , 0.52%</v>
-      </c>
-      <c r="C27" s="20" t="str">
-        <f>"恒生"&amp;" , "&amp;TEXT(SUM(E27:E27),"0.00%")</f>
-        <v>恒生 , 0.52%</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>14</v>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="21" t="str">
+        <f>"基本面120"&amp;" , "&amp;TEXT(SUM(E27:E27),"0.00%")</f>
+        <v>基本面120 , 0.92%</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="E27" s="11">
-        <f t="shared" ref="E27:E35" si="1">F27/$F$36</f>
-        <v>5.1645428103795831E-3</v>
+        <f>F27/$F$37</f>
+        <v>9.2209434081970843E-3</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="0"/>
-        <v>405.41</v>
-      </c>
-      <c r="G27" s="2">
-        <v>405.41</v>
-      </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="2"/>
+        <f>SUM(G27:I27)</f>
+        <v>758.667688</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
+        <f>($K$6 + $L$6) * 0.1373</f>
+        <v>403.96543300000002</v>
+      </c>
+      <c r="I27" s="2">
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1427</f>
+        <v>354.70225499999998</v>
+      </c>
       <c r="J27" s="11"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24" t="str">
+        <f>"海外新兴"&amp;" , "&amp;TEXT(SUM(E28:E29),"0.00%")</f>
+        <v>海外新兴 , 2.55%</v>
+      </c>
       <c r="B28" s="20" t="str">
-        <f>"海外互联"&amp;" , "&amp;TEXT(SUM(E28:E28),"0.00%")</f>
-        <v>海外互联 , 1.97%</v>
+        <f>"香港"&amp;" , "&amp;TEXT(SUM(E28:E28),"0.00%")</f>
+        <v>香港 , 0.52%</v>
       </c>
       <c r="C28" s="20" t="str">
-        <f>"海外互联网"&amp;" , "&amp;TEXT(SUM(E28:E28),"0.00%")</f>
-        <v>海外互联网 , 1.97%</v>
+        <f>"恒生"&amp;" , "&amp;TEXT(SUM(E28:E28),"0.00%")</f>
+        <v>恒生 , 0.52%</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="11">
-        <f t="shared" si="1"/>
-        <v>1.9738156239999839E-2</v>
+        <f t="shared" ref="E28:E36" si="1">F28/$F$37</f>
+        <v>5.1821551163162118E-3</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>1549.42</v>
+        <v>426.37</v>
       </c>
       <c r="G28" s="2">
-        <v>1549.42</v>
+        <v>426.37</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="2"/>
@@ -4653,31 +4689,28 @@
       <c r="O28" s="13"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="10" t="str">
-        <f>"海外成熟"&amp;" , "&amp;TEXT(SUM(E29:E29),"0.00%")</f>
-        <v>海外成熟 , 2.65%</v>
-      </c>
+      <c r="A29" s="24"/>
       <c r="B29" s="20" t="str">
-        <f>"海外成熟"&amp;" , "&amp;TEXT(SUM(E29:E29),"0.00%")</f>
-        <v>海外成熟 , 2.65%</v>
+        <f>"海外互联"&amp;" , "&amp;TEXT(SUM(E29:E29),"0.00%")</f>
+        <v>海外互联 , 2.03%</v>
       </c>
       <c r="C29" s="20" t="str">
-        <f>"德国30"&amp;" , "&amp;TEXT(SUM(E29:E29),"0.00%")</f>
-        <v>德国30 , 2.65%</v>
+        <f>"海外互联网"&amp;" , "&amp;TEXT(SUM(E29:E29),"0.00%")</f>
+        <v>海外互联网 , 2.03%</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="1"/>
-        <v>2.6482724813856839E-2</v>
+        <v>2.0268586759439933E-2</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>2078.86</v>
+        <v>1667.63</v>
       </c>
       <c r="G29" s="2">
-        <v>2078.86</v>
+        <v>1667.63</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="2"/>
@@ -4686,112 +4719,121 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="23" t="str">
-        <f>"商品"&amp;" , "&amp;TEXT(SUM(E30:E31),"0.00%")</f>
-        <v>商品 , 1.85%</v>
+        <f>"海外成熟"&amp;" , "&amp;TEXT(SUM(E30:E30),"0.00%")</f>
+        <v>海外成熟 , 2.59%</v>
       </c>
       <c r="B30" s="20" t="str">
-        <f>"原油"&amp;" , "&amp;TEXT(SUM(E30:E30),"0.00%")</f>
-        <v>原油 , 1.32%</v>
+        <f>"海外成熟"&amp;" , "&amp;TEXT(SUM(E30:E30),"0.00%")</f>
+        <v>海外成熟 , 2.59%</v>
       </c>
       <c r="C30" s="20" t="str">
-        <f>"原油"&amp;" , "&amp;TEXT(SUM(E30:E30),"0.00%")</f>
-        <v>原油 , 1.32%</v>
+        <f>"德国30"&amp;" , "&amp;TEXT(SUM(E30:E30),"0.00%")</f>
+        <v>德国30 , 2.59%</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="1"/>
-        <v>1.3174354944895918E-2</v>
+        <v>2.588525191494348E-2</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>1034.17</v>
+        <v>2129.75</v>
       </c>
       <c r="G30" s="2">
-        <v>1034.17</v>
+        <v>2129.75</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="2"/>
       <c r="O30" s="13"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24" t="str">
+        <f>"商品"&amp;" , "&amp;TEXT(SUM(E31:E32),"0.00%")</f>
+        <v>商品 , 1.84%</v>
+      </c>
       <c r="B31" s="20" t="str">
-        <f>"黄金"&amp;" , "&amp;TEXT(SUM(E31:E31),"0.00%")</f>
-        <v>黄金 , 0.53%</v>
+        <f>"原油"&amp;" , "&amp;TEXT(SUM(E31:E31),"0.00%")</f>
+        <v>原油 , 1.31%</v>
       </c>
       <c r="C31" s="20" t="str">
-        <f>"黄金"&amp;" , "&amp;TEXT(SUM(E31:E31),"0.00%")</f>
-        <v>黄金 , 0.53%</v>
+        <f>"原油"&amp;" , "&amp;TEXT(SUM(E31:E31),"0.00%")</f>
+        <v>原油 , 1.31%</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="1"/>
-        <v>5.3175389356667222E-3</v>
+        <v>1.3107253607284116E-2</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>417.42</v>
+        <v>1078.42</v>
       </c>
       <c r="G31" s="2">
-        <v>417.42</v>
-      </c>
-      <c r="H31" s="2"/>
+        <v>1078.42</v>
+      </c>
+      <c r="H31" s="14"/>
       <c r="I31" s="2"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="23" t="str">
-        <f>"债券"&amp;" , "&amp;TEXT(SUM(E32:E34),"0.00%")</f>
-        <v>债券 , 4.70%</v>
-      </c>
-      <c r="B32" s="23" t="str">
-        <f>"国内债券"&amp;" , "&amp;TEXT(SUM(E32:E34),"0.00%")</f>
-        <v>国内债券 , 4.70%</v>
-      </c>
-      <c r="C32" s="23" t="str">
-        <f>"可转债"&amp;" , "&amp;TEXT(SUM(E32:E34),"0.00%")</f>
-        <v>可转债 , 4.70%</v>
+      <c r="A32" s="24"/>
+      <c r="B32" s="20" t="str">
+        <f>"黄金"&amp;" , "&amp;TEXT(SUM(E32:E32),"0.00%")</f>
+        <v>黄金 , 0.53%</v>
+      </c>
+      <c r="C32" s="20" t="str">
+        <f>"黄金"&amp;" , "&amp;TEXT(SUM(E32:E32),"0.00%")</f>
+        <v>黄金 , 0.53%</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E32" s="11">
         <f t="shared" si="1"/>
-        <v>2.153461865365448E-2</v>
+        <v>5.2723387384356534E-3</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>1690.44</v>
+        <v>433.79</v>
       </c>
       <c r="G32" s="2">
-        <v>1690.44</v>
+        <v>433.79</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="O32" s="13"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="A33" s="24" t="str">
+        <f>"债券"&amp;" , "&amp;TEXT(SUM(E33:E35),"0.00%")</f>
+        <v>债券 , 5.09%</v>
+      </c>
+      <c r="B33" s="24" t="str">
+        <f>"国内债券"&amp;" , "&amp;TEXT(SUM(E33:E35),"0.00%")</f>
+        <v>国内债券 , 5.09%</v>
+      </c>
+      <c r="C33" s="24" t="str">
+        <f>"可转债"&amp;" , "&amp;TEXT(SUM(E33:E35),"0.00%")</f>
+        <v>可转债 , 5.09%</v>
+      </c>
       <c r="D33" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" si="1"/>
-        <v>5.3320614654608382E-3</v>
+        <v>2.0977172361806972E-2</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
-        <v>418.56</v>
+        <v>1725.93</v>
       </c>
       <c r="G33" s="2">
-        <v>418.56</v>
+        <v>1725.93</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -4799,86 +4841,104 @@
       <c r="O33" s="12"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="1"/>
-        <v>2.0089117376690984E-2</v>
+        <v>5.2669909225687324E-3</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>1576.97</v>
+        <v>433.35</v>
       </c>
       <c r="G34" s="2">
-        <v>1576.97</v>
-      </c>
-      <c r="H34" s="8"/>
+        <v>433.35</v>
+      </c>
+      <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="O34" s="13"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="20" t="str">
-        <f>"现金"&amp;" , "&amp;TEXT(SUM(E35:E35),"0.00%")</f>
-        <v>现金 , 22.04%</v>
-      </c>
-      <c r="B35" s="10" t="str">
-        <f>"低风险理财"&amp;" , "&amp;TEXT(SUM(E35:E35),"0.00%")</f>
-        <v>低风险理财 , 22.04%</v>
-      </c>
-      <c r="C35" s="20" t="str">
-        <f>"货币基金"&amp;" , "&amp;TEXT(SUM(E35:E35),"0.00%")</f>
-        <v>货币基金 , 22.04%</v>
-      </c>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="1"/>
-        <v>0.22038575915632763</v>
+        <v>2.4687584243292569E-2</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>17300</v>
+        <v>2031.21</v>
       </c>
       <c r="G35" s="2">
-        <v>17300</v>
+        <v>2031.21</v>
       </c>
       <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="I35" s="2"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="D36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="13">
-        <f>SUM(E2:E35)</f>
-        <v>1.0000000000000002</v>
+      <c r="A36" s="23" t="str">
+        <f>"现金"&amp;" , "&amp;TEXT(SUM(E36:E36),"0.00%")</f>
+        <v>现金 , 18.35%</v>
+      </c>
+      <c r="B36" s="10" t="str">
+        <f>"低风险理财"&amp;" , "&amp;TEXT(SUM(E36:E36),"0.00%")</f>
+        <v>低风险理财 , 18.35%</v>
+      </c>
+      <c r="C36" s="20" t="str">
+        <f>"货币基金"&amp;" , "&amp;TEXT(SUM(E36:E36),"0.00%")</f>
+        <v>货币基金 , 18.35%</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" si="1"/>
+        <v>0.18352731725115462</v>
       </c>
       <c r="F36" s="2">
-        <f>SUM(F2:F35)</f>
-        <v>78498.720000000001</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>15100</v>
+      </c>
+      <c r="G36" s="2">
+        <v>15100</v>
+      </c>
+      <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="P36" s="13"/>
     </row>
     <row r="37" spans="1:16">
       <c r="D37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="13">
+        <f>SUM(E2:E36)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="F37" s="2">
+        <f>SUM(F2:F36)</f>
+        <v>82276.579999999987</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="D38" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="15">
-        <f>F36/$K$2-1</f>
-        <v>2.6525860765777232E-2</v>
-      </c>
-      <c r="O37" s="12"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="C38" s="2"/>
+      <c r="E38" s="15">
+        <f>F37/$K$2-1</f>
+        <v>6.1622468622577919E-2</v>
+      </c>
       <c r="P38" s="13"/>
     </row>
     <row r="39" spans="1:16">
@@ -4889,16 +4949,13 @@
     </row>
     <row r="40" spans="1:16">
       <c r="C40" s="2"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
       <c r="P40" s="13"/>
     </row>
     <row r="41" spans="1:16">
       <c r="C41" s="2"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:16">
       <c r="C42" s="2"/>
@@ -4911,8 +4968,6 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="8"/>
@@ -5029,7 +5084,7 @@
     <row r="58" spans="1:6">
       <c r="A58" s="8"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="4"/>
+      <c r="C58" s="2"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -5037,6 +5092,7 @@
     <row r="59" spans="1:6">
       <c r="A59" s="8"/>
       <c r="B59" s="2"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -5058,7 +5114,6 @@
     <row r="62" spans="1:6">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -5066,7 +5121,7 @@
     <row r="63" spans="1:6">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="2"/>
+      <c r="C63" s="8"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -5079,89 +5134,91 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" s="8"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6">
       <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="D66" s="3"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:6">
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="B68" s="8"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="1:5">
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="2"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="2"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="2"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="2"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="2"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="2"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="2"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
-      <c r="C78" s="5"/>
+      <c r="C78" s="2"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
-      <c r="C79" s="2"/>
+      <c r="C79" s="5"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="2"/>
@@ -5242,6 +5299,7 @@
     <row r="93" spans="1:4">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
+      <c r="C93" s="2"/>
       <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4">
@@ -5269,28 +5327,31 @@
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="D99" s="6"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="D100" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F41:F64">
+  <conditionalFormatting sqref="F44:F65 F42">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5310,7 +5371,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41:E64">
+  <conditionalFormatting sqref="E44:E65 E42">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5325,5 +5386,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Portfolio/父母资产配置情况.xlsx
+++ b/Portfolio/父母资产配置情况.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klq26/github/finance-data/Portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549A795F-6841-43AB-975D-E9C9547E91D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1D6794-DA32-0C4B-860B-29E7556FFF4C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-8860" windowWidth="21600" windowHeight="37940" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资产配置情况" sheetId="11" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -32,7 +25,7 @@
     <author>C</author>
   </authors>
   <commentList>
-    <comment ref="G36" authorId="0" shapeId="0" xr:uid="{8772274C-E21A-48BF-A1A4-3076D8BD35AA}">
+    <comment ref="G37" authorId="0" shapeId="0" xr:uid="{8772274C-E21A-48BF-A1A4-3076D8BD35AA}">
       <text>
         <r>
           <rPr>
@@ -52,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>大类目</t>
     <rPh sb="0" eb="1">
@@ -346,6 +339,10 @@
   </si>
   <si>
     <t>广发中证500A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信深证基本面60ETF联接A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1969,7 +1966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2047,6 +2044,9 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="500">
@@ -2794,13 +2794,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.6017199274085401E-2</c:v>
+                  <c:v>7.8995008948898063E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.057454961659982E-3</c:v>
+                  <c:v>5.1693580025106833E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92468919267269389</c:v>
+                  <c:v>0.92330973220628765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3792,24 +3792,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.25" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="9" customWidth="1"/>
     <col min="5" max="5" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.25" style="9"/>
-    <col min="11" max="12" width="15.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="21.25" style="9"/>
+    <col min="6" max="6" width="8.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" style="9"/>
+    <col min="11" max="12" width="15.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="21.1640625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3849,50 +3850,50 @@
       <c r="M1" s="17"/>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="24" t="str">
-        <f>"A股"&amp;" , "&amp;TEXT(SUM(E2:E27),"0.00%")</f>
-        <v>A股 , 69.58%</v>
-      </c>
-      <c r="B2" s="24" t="str">
+    <row r="2" spans="1:15" ht="16">
+      <c r="A2" s="26" t="str">
+        <f>"A股"&amp;" , "&amp;TEXT(SUM(E2:E28),"0.00%")</f>
+        <v>A股 , 70.14%</v>
+      </c>
+      <c r="B2" s="26" t="str">
         <f>"大盘股"&amp;" , "&amp;TEXT(SUM(E2:E4),"0.00%")</f>
-        <v>大盘股 , 7.36%</v>
+        <v>大盘股 , 7.35%</v>
       </c>
       <c r="C2" s="20" t="str">
         <f>"上证50"&amp;" , "&amp;TEXT(SUM(E2:E2),"0.00%")</f>
-        <v>上证50 , 1.62%</v>
+        <v>上证50 , 1.61%</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="11">
-        <f>F2/$F$37</f>
-        <v>1.6202666664073787E-2</v>
+        <f t="shared" ref="E2:E28" si="0">F2/$F$38</f>
+        <v>1.6113617673926089E-2</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(G2:I2)</f>
-        <v>1333.1</v>
+        <v>1362.55</v>
       </c>
       <c r="G2" s="2">
-        <v>1333.1</v>
+        <v>1362.55</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="K2" s="18">
         <f>K4+K6+K8</f>
-        <v>77500.789999999994</v>
+        <v>78355.189999999988</v>
       </c>
       <c r="L2" s="18">
         <f>$K$4+$K$6+$K$8+$K$10+$K$12</f>
-        <v>828576.83000000007</v>
+        <v>830029.56999999983</v>
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24" t="str">
+    <row r="3" spans="1:15" ht="16">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26" t="str">
         <f>"沪深300"&amp;" , "&amp;TEXT(SUM(E3:E4),"0.00%")</f>
         <v>沪深300 , 5.74%</v>
       </c>
@@ -3900,15 +3901,15 @@
         <v>24</v>
       </c>
       <c r="E3" s="11">
-        <f>F3/$F$37</f>
-        <v>5.2358155868899768E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.2343151381021462E-2</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F36" si="0">SUM(G3:I3)</f>
-        <v>4307.8500000000004</v>
+        <f t="shared" ref="F3:F37" si="1">SUM(G3:I3)</f>
+        <v>4426.08</v>
       </c>
       <c r="G3" s="2">
-        <v>4307.8500000000004</v>
+        <v>4426.08</v>
       </c>
       <c r="I3" s="2"/>
       <c r="K3" s="18" t="s">
@@ -3920,57 +3921,57 @@
       <c r="M3" s="8"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+    <row r="4" spans="1:15" ht="16">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="22" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="11">
-        <f>F4/$F$37</f>
-        <v>5.025974584748176E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.0251355341122709E-3</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>413.52</v>
+        <f t="shared" si="1"/>
+        <v>424.92</v>
       </c>
       <c r="G4" s="2">
-        <v>413.52</v>
+        <v>424.92</v>
       </c>
       <c r="K4" s="18">
         <v>72000</v>
       </c>
       <c r="L4" s="18">
-        <f>F37-SUM(F19:F27)-K4</f>
-        <v>4848.7199999999866</v>
+        <f>F38-SUM(F19:F28)-K4</f>
+        <v>6050.7099999999919</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24" t="str">
+    <row r="5" spans="1:15" ht="16">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="str">
         <f>"中小盘股"&amp;" , "&amp;TEXT(SUM(E5:E10),"0.00%")</f>
-        <v>中小盘股 , 21.18%</v>
-      </c>
-      <c r="C5" s="24" t="str">
+        <v>中小盘股 , 20.94%</v>
+      </c>
+      <c r="C5" s="26" t="str">
         <f>"中证500"&amp;" , "&amp;TEXT(SUM(E5:E7),"0.00%")</f>
-        <v>中证500 , 16.83%</v>
+        <v>中证500 , 16.61%</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="11">
-        <f>F5/$F$37</f>
-        <v>0.12433331575036299</v>
+        <f t="shared" si="0"/>
+        <v>0.12259961243818403</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>10229.719999999999</v>
+        <f t="shared" si="1"/>
+        <v>10366.89</v>
       </c>
       <c r="G5" s="2">
-        <v>10229.719999999999</v>
+        <v>10366.89</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -3981,53 +3982,53 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+    <row r="6" spans="1:15" ht="16">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="11">
-        <f>F6/$F$37</f>
-        <v>5.072160267235221E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.0005372993599563E-3</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>417.32</v>
+        <f t="shared" si="1"/>
+        <v>422.84</v>
       </c>
       <c r="G6" s="2">
-        <v>417.32</v>
+        <v>422.84</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="K6" s="18">
-        <f>2942.21-L6</f>
-        <v>2988.4</v>
+        <f>3484.3-L6</f>
+        <v>3411.51</v>
       </c>
       <c r="L6" s="18">
-        <v>-46.19</v>
+        <v>72.790000000000006</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+    <row r="7" spans="1:15" ht="16">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="11">
-        <f>F7/$F$37</f>
-        <v>3.8941093565143331E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.8542240816788954E-2</v>
       </c>
       <c r="F7" s="2">
         <f>SUM(G7:I7)</f>
-        <v>3203.94</v>
+        <v>3259.09</v>
       </c>
       <c r="G7" s="2">
-        <v>3203.94</v>
+        <v>3259.09</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -4039,42 +4040,42 @@
       </c>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+    <row r="8" spans="1:15" ht="16">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="20" t="str">
         <f>"中证1000"&amp;" , "&amp;TEXT(SUM(E8:E8),"0.00%")</f>
-        <v>中证1000 , 1.49%</v>
+        <v>中证1000 , 1.47%</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="11">
-        <f>F8/$F$37</f>
-        <v>1.4876408329077365E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4681716585555777E-2</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>1223.98</v>
+        <f t="shared" si="1"/>
+        <v>1241.47</v>
       </c>
       <c r="G8" s="2">
-        <v>1223.98</v>
+        <v>1241.47</v>
       </c>
       <c r="I8" s="2"/>
       <c r="K8" s="18">
-        <f>2485.65-L8</f>
-        <v>2512.39</v>
+        <f>3017.98-L8</f>
+        <v>2943.68</v>
       </c>
       <c r="L8" s="18">
-        <v>-26.74</v>
+        <v>74.3</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24" t="str">
+    <row r="9" spans="1:15" ht="16">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26" t="str">
         <f>"创业板"&amp;" , "&amp;TEXT(SUM(E9:E10),"0.00%")</f>
         <v>创业板 , 2.86%</v>
       </c>
@@ -4082,15 +4083,15 @@
         <v>27</v>
       </c>
       <c r="E9" s="11">
-        <f>F9/$F$37</f>
-        <v>5.192850748050053E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.1901092719943811E-3</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>427.25</v>
+        <f t="shared" si="1"/>
+        <v>438.87</v>
       </c>
       <c r="G9" s="2">
-        <v>427.25</v>
+        <v>438.87</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="2"/>
@@ -4102,58 +4103,58 @@
       </c>
       <c r="O9" s="13"/>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+    <row r="10" spans="1:15" ht="16">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="11">
-        <f>F10/$F$37</f>
-        <v>2.338551262096699E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.3418465570155519E-2</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>1924.08</v>
+        <f t="shared" si="1"/>
+        <v>1980.24</v>
       </c>
       <c r="G10" s="2">
-        <v>1924.08</v>
+        <v>1980.24</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="K10" s="18">
-        <v>614446.73</v>
+        <v>615045.06999999995</v>
       </c>
       <c r="L10" s="25">
-        <v>22433.58</v>
+        <v>22981.68</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="24"/>
+    <row r="11" spans="1:15" ht="16">
+      <c r="A11" s="26"/>
       <c r="B11" s="23" t="str">
         <f>"红利价值"&amp;" , "&amp;TEXT(SUM(E11:E11),"0.00%")</f>
-        <v>红利价值 , 11.32%</v>
+        <v>红利价值 , 11.19%</v>
       </c>
       <c r="C11" s="20" t="str">
         <f>"中证红利"&amp;" , "&amp;TEXT(SUM(E11:E11),"0.00%")</f>
-        <v>中证红利 , 11.32%</v>
+        <v>中证红利 , 11.19%</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="11">
-        <f>F11/$F$37</f>
-        <v>0.11323562549634417</v>
+        <f t="shared" si="0"/>
+        <v>0.11185160298035056</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>9316.64</v>
+        <f t="shared" si="1"/>
+        <v>9458.0499999999993</v>
       </c>
       <c r="G11" s="2">
-        <v>9316.64</v>
+        <v>9458.0499999999993</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -4165,11 +4166,11 @@
       </c>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24" t="str">
+    <row r="12" spans="1:15" ht="16">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26" t="str">
         <f>"行业股"&amp;" , "&amp;TEXT(SUM(E12:E18),"0.00%")</f>
-        <v>行业股 , 23.12%</v>
+        <v>行业股 , 22.97%</v>
       </c>
       <c r="C12" s="20" t="str">
         <f>"养老产业"&amp;" , "&amp;TEXT(SUM(E12:E12),"0.00%")</f>
@@ -4179,15 +4180,15 @@
         <v>11</v>
       </c>
       <c r="E12" s="11">
-        <f>F12/$F$37</f>
-        <v>6.8944528321425141E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.8885937294929048E-2</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>5672.52</v>
+        <f t="shared" si="1"/>
+        <v>5824.92</v>
       </c>
       <c r="G12" s="2">
-        <v>5672.52</v>
+        <v>5824.92</v>
       </c>
       <c r="I12" s="2"/>
       <c r="K12" s="18">
@@ -4199,51 +4200,51 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+    <row r="13" spans="1:15" ht="16">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="20" t="str">
         <f>"全指医药"&amp;" , "&amp;TEXT(SUM(E13:E13),"0.00%")</f>
-        <v>全指医药 , 6.26%</v>
+        <v>全指医药 , 6.38%</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="11">
-        <f>F13/$F$37</f>
-        <v>6.2648569009552915E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.3775535764391683E-2</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>5154.51</v>
+        <f t="shared" si="1"/>
+        <v>5392.79</v>
       </c>
       <c r="G13" s="2">
-        <v>5154.51</v>
+        <v>5392.79</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="O13" s="13"/>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+    <row r="14" spans="1:15" ht="16">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="20" t="str">
         <f>"中证传媒"&amp;" , "&amp;TEXT(SUM(E14:E14),"0.00%")</f>
-        <v>中证传媒 , 4.05%</v>
+        <v>中证传媒 , 3.91%</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="11">
-        <f>F14/$F$37</f>
-        <v>4.0526842510955126E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.9140048877716598E-2</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>3334.41</v>
+        <f t="shared" si="1"/>
+        <v>3309.64</v>
       </c>
       <c r="G14" s="2">
-        <v>3334.41</v>
+        <v>3309.64</v>
       </c>
       <c r="H14" s="2"/>
       <c r="K14" s="18" t="s">
@@ -4255,40 +4256,40 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+    <row r="15" spans="1:15" ht="16">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="20" t="str">
         <f>"中证环保"&amp;" , "&amp;TEXT(SUM(E15:E15),"0.00%")</f>
-        <v>中证环保 , 4.08%</v>
+        <v>中证环保 , 3.99%</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="11">
-        <f>F15/$F$37</f>
-        <v>4.0756312428153925E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.991654892283053E-2</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>3353.29</v>
+        <f t="shared" si="1"/>
+        <v>3375.3</v>
       </c>
       <c r="G15" s="2">
-        <v>3353.29</v>
+        <v>3375.3</v>
       </c>
       <c r="I15" s="2"/>
       <c r="K15" s="18" t="s">
         <v>48</v>
       </c>
       <c r="L15" s="1">
-        <f>SUM($F$2:$F$32)/($K$2+$K$10+K$12)</f>
-        <v>7.6017199274085401E-2</v>
+        <f>SUM($F$2:$F$33)/($K$2+$K$10+K$12)</f>
+        <v>7.8995008948898063E-2</v>
       </c>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+    <row r="16" spans="1:15" ht="16">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="20" t="str">
         <f>"全指消费"&amp;" , "&amp;TEXT(SUM(E16:E16),"0.00%")</f>
         <v>全指消费 , 0.00%</v>
@@ -4297,11 +4298,11 @@
         <v>12</v>
       </c>
       <c r="E16" s="11">
-        <f>F16/$F$37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="2">
@@ -4312,33 +4313,33 @@
         <v>50</v>
       </c>
       <c r="L16" s="1">
-        <f>SUM($F$33:$F$35)/($K$2+$K$10+K$12)</f>
-        <v>5.057454961659982E-3</v>
+        <f>SUM($F$34:$F$36)/($K$2+$K$10+K$12)</f>
+        <v>5.1693580025106833E-3</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" s="19" customFormat="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+    <row r="17" spans="1:15" s="19" customFormat="1" ht="16">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="20" t="str">
         <f>"金融地产"&amp;" , "&amp;TEXT(SUM(E17:E17),"0.00%")</f>
-        <v>金融地产 , 1.19%</v>
+        <v>金融地产 , 1.17%</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="11">
-        <f>F17/$F$37</f>
-        <v>1.1940943583216514E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.1686763243717473E-2</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>982.46</v>
+        <f t="shared" si="1"/>
+        <v>988.22</v>
       </c>
       <c r="G17" s="2">
-        <v>982.46</v>
+        <v>988.22</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="2"/>
@@ -4346,33 +4347,33 @@
         <v>49</v>
       </c>
       <c r="L17" s="1">
-        <f>(F36+SUM($K$10:$K$12))/($K$2+$K$10+K$12)</f>
-        <v>0.92468919267269389</v>
+        <f>(F37+SUM($K$10:$K$12))/($K$2+$K$10+K$12)</f>
+        <v>0.92330973220628765</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+    <row r="18" spans="1:15" ht="16">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="20" t="str">
         <f>"证券公司"&amp;" , "&amp;TEXT(SUM(E18:E18),"0.00%")</f>
-        <v>证券公司 , 0.64%</v>
+        <v>证券公司 , 0.62%</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="11">
-        <f>F18/$F$37</f>
-        <v>6.4134897196747847E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.2490159737839234E-3</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>527.67999999999995</v>
+        <f t="shared" si="1"/>
+        <v>528.41</v>
       </c>
       <c r="G18" s="2">
-        <v>527.67999999999995</v>
+        <v>528.41</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -4381,76 +4382,76 @@
       <c r="N18" s="12"/>
       <c r="O18" s="13"/>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24" t="str">
-        <f>"螺丝钉定投"&amp;" , "&amp;TEXT(SUM(E19:E27),"0.00%")</f>
-        <v>螺丝钉定投 , 6.60%</v>
+    <row r="19" spans="1:15" ht="16">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26" t="str">
+        <f>"螺丝钉定投"&amp;" , "&amp;TEXT(SUM(E19:E28),"0.00%")</f>
+        <v>螺丝钉定投 , 7.70%</v>
       </c>
       <c r="C19" s="21" t="str">
         <f>"医药"&amp;" , "&amp;TEXT(SUM(E19:E19),"0.00%")</f>
-        <v>医药 , 0.27%</v>
+        <v>医药 , 0.28%</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>58</v>
       </c>
       <c r="E19" s="11">
-        <f>F19/$F$37</f>
-        <v>2.7249676153286882E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.7805718025020357E-3</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>224.20101600000001</v>
+        <f t="shared" si="1"/>
+        <v>235.12213000000003</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2">
-        <f>($K$6 + $L$6) * 0.0381</f>
-        <v>112.098201</v>
+        <f>($K$6 + $L$6) * 0.0337</f>
+        <v>117.42091000000001</v>
       </c>
       <c r="I19" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0451</f>
-        <v>112.10281500000001</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.039</f>
+        <v>117.70122000000001</v>
       </c>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="12"/>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+    <row r="20" spans="1:15" ht="16">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="21" t="str">
         <f>"香港中小"&amp;" , "&amp;TEXT(SUM(E20:E20),"0.00%")</f>
-        <v>香港中小 , 1.32%</v>
+        <v>香港中小 , 1.52%</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="11">
-        <f>F20/$F$37</f>
-        <v>1.3215944282078815E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.5162907395693448E-2</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>1087.362697</v>
+        <f t="shared" si="1"/>
+        <v>1282.1589719999999</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2">
-        <f>($K$6 + $L$6) * 0.2012</f>
-        <v>591.97265199999993</v>
+        <f>($K$6+$L$6)*0.1983</f>
+        <v>690.93669</v>
       </c>
       <c r="I20" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1993</f>
-        <v>495.39004500000004</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1959</f>
+        <v>591.22228199999995</v>
       </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
       <c r="N20" s="12"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+    <row r="21" spans="1:15" ht="16">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="21" t="str">
         <f>"上证50AH"&amp;" , "&amp;TEXT(SUM(E21:E21),"0.00%")</f>
         <v>上证50AH , 0.32%</v>
@@ -4459,80 +4460,80 @@
         <v>35</v>
       </c>
       <c r="E21" s="11">
-        <f>F21/$F$37</f>
-        <v>3.2072358744128652E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.1799624365347703E-3</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>263.88039900000001</v>
+        <f t="shared" si="1"/>
+        <v>268.89416799999998</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2">
-        <f>($K$6 + $L$6) * 0.0624</f>
-        <v>183.59390399999998</v>
+        <f>($K$6 + $L$6) * 0.0537</f>
+        <v>187.10691</v>
       </c>
       <c r="I21" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0323</f>
-        <v>80.286495000000002</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0271</f>
+        <v>81.787257999999994</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
       <c r="N21" s="12"/>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24" t="str">
+    <row r="22" spans="1:15" ht="16">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26" t="str">
         <f>"中证红利"&amp;" , "&amp;TEXT(SUM(E22:E23),"0.00%")</f>
-        <v>中证红利 , 1.74%</v>
+        <v>中证红利 , 1.92%</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="11">
-        <f>F22/$F$37</f>
-        <v>5.2430828918751853E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.1591381549650154E-3</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>431.38292899999999</v>
+        <f t="shared" si="1"/>
+        <v>436.25111600000002</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2">
-        <f>($K$6 + $L$6) * 0.0754</f>
-        <v>221.84263399999998</v>
+        <f>($K$6 + $L$6) * 0.0644</f>
+        <v>224.38892000000001</v>
       </c>
       <c r="I22" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0843</f>
-        <v>209.54029500000001</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0702</f>
+        <v>211.86219599999998</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
       <c r="O22" s="13"/>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+    <row r="23" spans="1:15" ht="16">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="11">
-        <f>F23/$F$37</f>
-        <v>1.2192471685138106E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4056304953240657E-2</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>1003.1548720000001</v>
+        <f t="shared" si="1"/>
+        <v>1188.5858720000001</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2">
-        <f>($K$6 + $L$6) * 0.1937</f>
-        <v>569.9060770000001</v>
+        <f>($K$6 + $L$6) * 0.1905</f>
+        <v>663.75915000000009</v>
       </c>
       <c r="I23" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1743</f>
-        <v>433.24879500000003</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1739</f>
+        <v>524.82672200000002</v>
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="2"/>
@@ -4540,442 +4541,462 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+    <row r="24" spans="1:15" ht="16">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="21" t="str">
         <f>"500低波动"&amp;" , "&amp;TEXT(SUM(E24:E24),"0.00%")</f>
-        <v>500低波动 , 0.82%</v>
+        <v>500低波动 , 0.99%</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="11">
-        <f>F24/$F$37</f>
-        <v>8.212143552879813E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.8668551349669689E-3</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
-        <v>675.66708600000004</v>
+        <f t="shared" si="1"/>
+        <v>834.33054800000014</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2">
-        <f>($K$6 + $L$6) * 0.1221</f>
-        <v>359.24384100000003</v>
+        <f>($K$6 + $L$6) * 0.1259</f>
+        <v>438.67337000000009</v>
       </c>
       <c r="I24" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1273</f>
-        <v>316.42324500000001</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1311</f>
+        <v>395.65717799999999</v>
       </c>
       <c r="O24" s="13"/>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24" t="str">
+    <row r="25" spans="1:15" ht="16">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26" t="str">
         <f>"300价值"&amp;" , "&amp;TEXT(SUM(E25:E26),"0.00%")</f>
-        <v>300价值 , 1.20%</v>
+        <v>300价值 , 1.38%</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="11">
-        <f>F25/$F$37</f>
-        <v>1.109599551901647E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.2934316977210456E-2</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="0"/>
-        <v>912.940563</v>
+        <f t="shared" si="1"/>
+        <v>1093.7117880000001</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2">
-        <f>($K$6 + $L$6) * 0.1578</f>
-        <v>464.28073799999999</v>
+        <f>($K$6 + $L$6) * 0.1592</f>
+        <v>554.70056000000011</v>
       </c>
       <c r="I25" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1805</f>
-        <v>448.65982500000001</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1786</f>
+        <v>539.01122800000007</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+    <row r="26" spans="1:15" ht="16">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="11">
-        <f>F26/$F$37</f>
-        <v>8.5811478795059311E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.1561919340375233E-4</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="0"/>
-        <v>70.60275</v>
+        <f t="shared" si="1"/>
+        <v>77.423764000000006</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2">
         <f>($K$6 + $L$6) * 0.012</f>
-        <v>35.306519999999999</v>
+        <v>41.811600000000006</v>
       </c>
       <c r="I26" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0142</f>
-        <v>35.296230000000001</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0118</f>
+        <v>35.612164</v>
       </c>
       <c r="O26" s="13"/>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="21" t="str">
-        <f>"基本面120"&amp;" , "&amp;TEXT(SUM(E27:E27),"0.00%")</f>
-        <v>基本面120 , 0.92%</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>40</v>
+    <row r="27" spans="1:15" ht="16">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="24" t="str">
+        <f>"基本面60"&amp;" , "&amp;TEXT(SUM(E27:E27),"0.00%")</f>
+        <v>基本面60 , 0.18%</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="E27" s="11">
-        <f>F27/$F$37</f>
-        <v>9.2209434081970843E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.7976914561651904E-3</v>
       </c>
       <c r="F27" s="2">
-        <f>SUM(G27:I27)</f>
-        <v>758.667688</v>
+        <f t="shared" si="1"/>
+        <v>152.01083599999998</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2">
-        <f>($K$6 + $L$6) * 0.1373</f>
-        <v>403.96543300000002</v>
+        <f>($K$6 + $L$6) * 0.0218</f>
+        <v>75.957740000000001</v>
       </c>
       <c r="I27" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1427</f>
-        <v>354.70225499999998</v>
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0252</f>
+        <v>76.053095999999996</v>
       </c>
       <c r="J27" s="11"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="24" t="str">
-        <f>"海外新兴"&amp;" , "&amp;TEXT(SUM(E28:E29),"0.00%")</f>
-        <v>海外新兴 , 2.55%</v>
-      </c>
-      <c r="B28" s="20" t="str">
-        <f>"香港"&amp;" , "&amp;TEXT(SUM(E28:E28),"0.00%")</f>
-        <v>香港 , 0.52%</v>
-      </c>
-      <c r="C28" s="20" t="str">
-        <f>"恒生"&amp;" , "&amp;TEXT(SUM(E28:E28),"0.00%")</f>
-        <v>恒生 , 0.52%</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>14</v>
+    <row r="28" spans="1:15" ht="16">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="21" t="str">
+        <f>"基本面120"&amp;" , "&amp;TEXT(SUM(E28:E28),"0.00%")</f>
+        <v>基本面120 , 1.11%</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="E28" s="11">
-        <f t="shared" ref="E28:E36" si="1">F28/$F$37</f>
-        <v>5.1821551163162118E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.1113129050688366E-2</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="0"/>
-        <v>426.37</v>
-      </c>
-      <c r="G28" s="2">
-        <v>426.37</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="2"/>
+        <f>SUM(G28:I28)</f>
+        <v>939.71411599999999</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2">
+        <f>($K$6 + $L$6) * 0.1422</f>
+        <v>495.46746000000002</v>
+      </c>
+      <c r="I28" s="2">
+        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1472</f>
+        <v>444.24665599999997</v>
+      </c>
       <c r="J28" s="11"/>
       <c r="O28" s="13"/>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="24"/>
+    <row r="29" spans="1:15" ht="16">
+      <c r="A29" s="26" t="str">
+        <f>"海外新兴"&amp;" , "&amp;TEXT(SUM(E29:E30),"0.00%")</f>
+        <v>海外新兴 , 2.54%</v>
+      </c>
       <c r="B29" s="20" t="str">
-        <f>"海外互联"&amp;" , "&amp;TEXT(SUM(E29:E29),"0.00%")</f>
-        <v>海外互联 , 2.03%</v>
+        <f>"香港"&amp;" , "&amp;TEXT(SUM(E29:E29),"0.00%")</f>
+        <v>香港 , 0.51%</v>
       </c>
       <c r="C29" s="20" t="str">
-        <f>"海外互联网"&amp;" , "&amp;TEXT(SUM(E29:E29),"0.00%")</f>
-        <v>海外互联网 , 2.03%</v>
+        <f>"恒生"&amp;" , "&amp;TEXT(SUM(E29:E29),"0.00%")</f>
+        <v>恒生 , 0.51%</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="11">
+        <f t="shared" ref="E29:E37" si="2">F29/$F$38</f>
+        <v>5.135118026033678E-3</v>
+      </c>
+      <c r="F29" s="2">
         <f t="shared" si="1"/>
-        <v>2.0268586759439933E-2</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="0"/>
-        <v>1667.63</v>
+        <v>434.22</v>
       </c>
       <c r="G29" s="2">
-        <v>1667.63</v>
+        <v>434.22</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="2"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="23" t="str">
-        <f>"海外成熟"&amp;" , "&amp;TEXT(SUM(E30:E30),"0.00%")</f>
-        <v>海外成熟 , 2.59%</v>
-      </c>
+    <row r="30" spans="1:15" ht="16">
+      <c r="A30" s="26"/>
       <c r="B30" s="20" t="str">
-        <f>"海外成熟"&amp;" , "&amp;TEXT(SUM(E30:E30),"0.00%")</f>
-        <v>海外成熟 , 2.59%</v>
+        <f>"海外互联"&amp;" , "&amp;TEXT(SUM(E30:E30),"0.00%")</f>
+        <v>海外互联 , 2.02%</v>
       </c>
       <c r="C30" s="20" t="str">
-        <f>"德国30"&amp;" , "&amp;TEXT(SUM(E30:E30),"0.00%")</f>
-        <v>德国30 , 2.59%</v>
+        <f>"海外互联网"&amp;" , "&amp;TEXT(SUM(E30:E30),"0.00%")</f>
+        <v>海外互联网 , 2.02%</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="11">
+        <f t="shared" si="2"/>
+        <v>2.0220813313098621E-2</v>
+      </c>
+      <c r="F30" s="2">
         <f t="shared" si="1"/>
-        <v>2.588525191494348E-2</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="0"/>
-        <v>2129.75</v>
+        <v>1709.85</v>
       </c>
       <c r="G30" s="2">
-        <v>2129.75</v>
+        <v>1709.85</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="2"/>
       <c r="O30" s="13"/>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="24" t="str">
-        <f>"商品"&amp;" , "&amp;TEXT(SUM(E31:E32),"0.00%")</f>
-        <v>商品 , 1.84%</v>
+    <row r="31" spans="1:15" ht="16">
+      <c r="A31" s="23" t="str">
+        <f>"海外成熟"&amp;" , "&amp;TEXT(SUM(E31:E31),"0.00%")</f>
+        <v>海外成熟 , 2.58%</v>
       </c>
       <c r="B31" s="20" t="str">
-        <f>"原油"&amp;" , "&amp;TEXT(SUM(E31:E31),"0.00%")</f>
-        <v>原油 , 1.31%</v>
+        <f>"海外成熟"&amp;" , "&amp;TEXT(SUM(E31:E31),"0.00%")</f>
+        <v>海外成熟 , 2.58%</v>
       </c>
       <c r="C31" s="20" t="str">
-        <f>"原油"&amp;" , "&amp;TEXT(SUM(E31:E31),"0.00%")</f>
-        <v>原油 , 1.31%</v>
+        <f>"德国30"&amp;" , "&amp;TEXT(SUM(E31:E31),"0.00%")</f>
+        <v>德国30 , 2.58%</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" s="11">
+        <f t="shared" si="2"/>
+        <v>2.5832995180434398E-2</v>
+      </c>
+      <c r="F31" s="2">
         <f t="shared" si="1"/>
-        <v>1.3107253607284116E-2</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="0"/>
-        <v>1078.42</v>
+        <v>2184.41</v>
       </c>
       <c r="G31" s="2">
-        <v>1078.42</v>
+        <v>2184.41</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="2"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="24"/>
+    <row r="32" spans="1:15" ht="16">
+      <c r="A32" s="26" t="str">
+        <f>"商品"&amp;" , "&amp;TEXT(SUM(E32:E33),"0.00%")</f>
+        <v>商品 , 2.28%</v>
+      </c>
       <c r="B32" s="20" t="str">
-        <f>"黄金"&amp;" , "&amp;TEXT(SUM(E32:E32),"0.00%")</f>
-        <v>黄金 , 0.53%</v>
+        <f>"原油"&amp;" , "&amp;TEXT(SUM(E32:E32),"0.00%")</f>
+        <v>原油 , 1.30%</v>
       </c>
       <c r="C32" s="20" t="str">
-        <f>"黄金"&amp;" , "&amp;TEXT(SUM(E32:E32),"0.00%")</f>
-        <v>黄金 , 0.53%</v>
+        <f>"原油"&amp;" , "&amp;TEXT(SUM(E32:E32),"0.00%")</f>
+        <v>原油 , 1.30%</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E32" s="11">
+        <f t="shared" si="2"/>
+        <v>1.2973913181429934E-2</v>
+      </c>
+      <c r="F32" s="2">
         <f t="shared" si="1"/>
-        <v>5.2723387384356534E-3</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" si="0"/>
-        <v>433.79</v>
+        <v>1097.06</v>
       </c>
       <c r="G32" s="2">
-        <v>433.79</v>
-      </c>
-      <c r="H32" s="2"/>
+        <v>1097.06</v>
+      </c>
+      <c r="H32" s="14"/>
       <c r="I32" s="2"/>
       <c r="O32" s="13"/>
     </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="24" t="str">
-        <f>"债券"&amp;" , "&amp;TEXT(SUM(E33:E35),"0.00%")</f>
-        <v>债券 , 5.09%</v>
-      </c>
-      <c r="B33" s="24" t="str">
-        <f>"国内债券"&amp;" , "&amp;TEXT(SUM(E33:E35),"0.00%")</f>
-        <v>国内债券 , 5.09%</v>
-      </c>
-      <c r="C33" s="24" t="str">
-        <f>"可转债"&amp;" , "&amp;TEXT(SUM(E33:E35),"0.00%")</f>
-        <v>可转债 , 5.09%</v>
+    <row r="33" spans="1:16" ht="16">
+      <c r="A33" s="26"/>
+      <c r="B33" s="20" t="str">
+        <f>"黄金"&amp;" , "&amp;TEXT(SUM(E33:E33),"0.00%")</f>
+        <v>黄金 , 0.99%</v>
+      </c>
+      <c r="C33" s="20" t="str">
+        <f>"黄金"&amp;" , "&amp;TEXT(SUM(E33:E33),"0.00%")</f>
+        <v>黄金 , 0.99%</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E33" s="11">
+        <f t="shared" si="2"/>
+        <v>9.8649564823741712E-3</v>
+      </c>
+      <c r="F33" s="2">
         <f t="shared" si="1"/>
-        <v>2.0977172361806972E-2</v>
-      </c>
-      <c r="F33" s="2">
-        <f t="shared" si="0"/>
-        <v>1725.93</v>
+        <v>834.17</v>
       </c>
       <c r="G33" s="2">
-        <v>1725.93</v>
+        <v>834.17</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
     </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
+    <row r="34" spans="1:16" ht="16">
+      <c r="A34" s="26" t="str">
+        <f>"债券"&amp;" , "&amp;TEXT(SUM(E34:E36),"0.00%")</f>
+        <v>债券 , 5.07%</v>
+      </c>
+      <c r="B34" s="26" t="str">
+        <f>"国内债券"&amp;" , "&amp;TEXT(SUM(E34:E36),"0.00%")</f>
+        <v>国内债券 , 5.07%</v>
+      </c>
+      <c r="C34" s="26" t="str">
+        <f>"可转债"&amp;" , "&amp;TEXT(SUM(E34:E36),"0.00%")</f>
+        <v>可转债 , 5.07%</v>
+      </c>
       <c r="D34" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="11">
+        <f t="shared" si="2"/>
+        <v>2.1170447087430769E-2</v>
+      </c>
+      <c r="F34" s="2">
         <f t="shared" si="1"/>
-        <v>5.2669909225687324E-3</v>
-      </c>
-      <c r="F34" s="2">
-        <f t="shared" si="0"/>
-        <v>433.35</v>
+        <v>1790.15</v>
       </c>
       <c r="G34" s="2">
-        <v>433.35</v>
+        <v>1790.15</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="O34" s="13"/>
     </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+    <row r="35" spans="1:16" ht="16">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" s="11">
+        <f t="shared" si="2"/>
+        <v>5.193657094314426E-3</v>
+      </c>
+      <c r="F35" s="2">
         <f t="shared" si="1"/>
-        <v>2.4687584243292569E-2</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" si="0"/>
-        <v>2031.21</v>
+        <v>439.17</v>
       </c>
       <c r="G35" s="2">
-        <v>2031.21</v>
-      </c>
-      <c r="H35" s="8"/>
+        <v>439.17</v>
+      </c>
+      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
     </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="23" t="str">
-        <f>"现金"&amp;" , "&amp;TEXT(SUM(E36:E36),"0.00%")</f>
-        <v>现金 , 18.35%</v>
-      </c>
-      <c r="B36" s="10" t="str">
-        <f>"低风险理财"&amp;" , "&amp;TEXT(SUM(E36:E36),"0.00%")</f>
-        <v>低风险理财 , 18.35%</v>
-      </c>
-      <c r="C36" s="20" t="str">
-        <f>"货币基金"&amp;" , "&amp;TEXT(SUM(E36:E36),"0.00%")</f>
-        <v>货币基金 , 18.35%</v>
-      </c>
+    <row r="36" spans="1:16" ht="16">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" si="2"/>
+        <v>2.4378269768471794E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="1"/>
+        <v>2061.4</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2061.4</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="2"/>
+      <c r="P36" s="13"/>
+    </row>
+    <row r="37" spans="1:16" ht="16">
+      <c r="A37" s="23" t="str">
+        <f>"现金"&amp;" , "&amp;TEXT(SUM(E37:E37),"0.00%")</f>
+        <v>现金 , 17.38%</v>
+      </c>
+      <c r="B37" s="10" t="str">
+        <f>"低风险理财"&amp;" , "&amp;TEXT(SUM(E37:E37),"0.00%")</f>
+        <v>低风险理财 , 17.38%</v>
+      </c>
+      <c r="C37" s="20" t="str">
+        <f>"货币基金"&amp;" , "&amp;TEXT(SUM(E37:E37),"0.00%")</f>
+        <v>货币基金 , 17.38%</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="11">
+        <f t="shared" si="2"/>
+        <v>0.17384329368222343</v>
+      </c>
+      <c r="F37" s="2">
         <f t="shared" si="1"/>
-        <v>0.18352731725115462</v>
-      </c>
-      <c r="F36" s="2">
-        <f t="shared" si="0"/>
-        <v>15100</v>
-      </c>
-      <c r="G36" s="2">
-        <v>15100</v>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="P36" s="13"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="D37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="13">
-        <f>SUM(E2:E36)</f>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="F37" s="2">
-        <f>SUM(F2:F36)</f>
-        <v>82276.579999999987</v>
-      </c>
+        <v>14700</v>
+      </c>
+      <c r="G37" s="2">
+        <v>14700</v>
+      </c>
+      <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="O37" s="12"/>
     </row>
     <row r="38" spans="1:16">
       <c r="D38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="13">
+        <f>SUM(E2:E37)</f>
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <f>SUM(F2:F37)</f>
+        <v>84558.913309999989</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="P38" s="13"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="D39" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="15">
-        <f>F37/$K$2-1</f>
-        <v>6.1622468622577919E-2</v>
-      </c>
-      <c r="P38" s="13"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="16"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="2"/>
+      <c r="E39" s="15">
+        <f>F38/$K$2-1</f>
+        <v>7.9174376451642825E-2</v>
+      </c>
       <c r="O39" s="12"/>
     </row>
     <row r="40" spans="1:16">
+      <c r="A40" s="16"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="2"/>
       <c r="P40" s="13"/>
     </row>
     <row r="41" spans="1:16">
       <c r="C41" s="2"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:16">
       <c r="C42" s="2"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="8"/>
-      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="8"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="8"/>
@@ -5092,7 +5113,7 @@
     <row r="59" spans="1:6">
       <c r="A59" s="8"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="4"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -5100,20 +5121,21 @@
     <row r="60" spans="1:6">
       <c r="A60" s="8"/>
       <c r="B60" s="2"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="8"/>
-      <c r="B61" s="7"/>
+      <c r="B61" s="2"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+      <c r="B62" s="7"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -5121,7 +5143,6 @@
     <row r="63" spans="1:6">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -5129,32 +5150,35 @@
     <row r="64" spans="1:6">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
-      <c r="C64" s="2"/>
+      <c r="C64" s="8"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
       <c r="C65" s="2"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6">
+      <c r="A66" s="8"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="8"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6">
       <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="B68" s="8"/>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="2"/>
     </row>
@@ -5162,13 +5186,12 @@
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="8"/>
@@ -5215,13 +5238,13 @@
     <row r="79" spans="1:6">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
-      <c r="C79" s="5"/>
+      <c r="C79" s="2"/>
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
-      <c r="C80" s="2"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4">
@@ -5232,18 +5255,18 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="8"/>
-      <c r="B82" s="17"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="2"/>
       <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="17"/>
-      <c r="B83" s="8"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="17"/>
       <c r="C83" s="2"/>
       <c r="D83" s="1"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="8"/>
+      <c r="A84" s="17"/>
       <c r="B84" s="8"/>
       <c r="C84" s="2"/>
       <c r="D84" s="1"/>
@@ -5305,6 +5328,7 @@
     <row r="94" spans="1:4">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
+      <c r="C94" s="2"/>
       <c r="D94" s="1"/>
     </row>
     <row r="95" spans="1:4">
@@ -5324,34 +5348,39 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4">
+      <c r="A99" s="8"/>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="D100" s="6"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="D101" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C34:C36"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A2:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F44:F65 F42">
+  <conditionalFormatting sqref="F45:F66 F43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5371,7 +5400,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E65 E42">
+  <conditionalFormatting sqref="E45:E66 E43">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/Portfolio/父母资产配置情况.xlsx
+++ b/Portfolio/父母资产配置情况.xlsx
@@ -1,51 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klq26/github/finance-data/Portfolio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1D6794-DA32-0C4B-860B-29E7556FFF4C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2E40DB-6679-49F0-BC8E-93CCF2B70CA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-8860" windowWidth="21600" windowHeight="37940" tabRatio="711" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="711" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="资产配置情况" sheetId="11" r:id="rId1"/>
+    <sheet name="养老金计划" sheetId="13" r:id="rId1"/>
+    <sheet name="螺丝钉计划" sheetId="12" r:id="rId2"/>
+    <sheet name="资产配置情况" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>C</author>
-  </authors>
-  <commentList>
-    <comment ref="G37" authorId="0" shapeId="0" xr:uid="{8772274C-E21A-48BF-A1A4-3076D8BD35AA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>还剩多少本金，可以通过“计划收益”和天天基金APP里面的收益对比后，近似得出。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>大类目</t>
     <rPh sb="0" eb="1">
@@ -228,42 +212,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>华宝香港中小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏上证50AH优选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大成中证红利指数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>景顺长城中证500低波动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申万菱信沪深300价值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>银河沪深300价值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉实深证基本面120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老妈蛋卷投入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老爸蛋卷投入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>老妈货币基金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -310,30 +258,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>老妈蛋卷收益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老爸蛋卷收益益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划收益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>华夏沪深300</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>华宝红利基金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天弘中证医药100A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>广发中证500C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -342,7 +270,169 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证红利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老产业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全指医药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证传媒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证环保</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融地产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全指消费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德国30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海外互联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金剩余</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝香港中小</t>
+  </si>
+  <si>
+    <t>景顺长城中证500低波动</t>
+  </si>
+  <si>
+    <t>大成中证红利指数</t>
+  </si>
+  <si>
+    <t>银河沪深300价值指数</t>
+  </si>
+  <si>
+    <t>嘉实深证基本面120联接</t>
+  </si>
+  <si>
+    <t>华宝红利基金</t>
+  </si>
+  <si>
+    <t>天弘中证医药100A</t>
+  </si>
+  <si>
+    <t>华夏上证50AH优选指数</t>
+  </si>
+  <si>
     <t>建信深证基本面60ETF联接A</t>
+  </si>
+  <si>
+    <t>申万菱信沪深300价值指数</t>
+  </si>
+  <si>
+    <t>持有收益(元)</t>
+  </si>
+  <si>
+    <t>持有收益率</t>
+  </si>
+  <si>
+    <t>持仓份额(份)</t>
+  </si>
+  <si>
+    <t>持仓配比</t>
+  </si>
+  <si>
+    <t>老妈总金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老妈持有收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老爸总金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老爸持有收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：再蛋卷网页版，把组合文案复制，拷贝到记事本去除格式。然后粘贴到下面对应的列。按总金额和持仓配比算出每个品种的额度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>★有时候两个蛋卷组合的品种顺序还是稍微有点差别，这个需要粘贴之和自行对比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额总和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有收益总额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝钉计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺丝钉收益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>养老金收益</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -350,10 +440,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="186" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,24 +529,70 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -463,6 +600,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="500">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1966,7 +2131,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2039,14 +2204,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="500">
@@ -2625,7 +2892,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>资产配置情况!$L$14</c:f>
+              <c:f>资产配置情况!$L$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2772,7 +3039,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>资产配置情况!$K$15:$K$17</c:f>
+              <c:f>资产配置情况!$K$12:$K$14</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2789,18 +3056,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>资产配置情况!$L$15:$L$17</c:f>
+              <c:f>资产配置情况!$L$12:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.8995008948898063E-2</c:v>
+                  <c:v>7.8961334060227775E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1693580025106833E-3</c:v>
+                  <c:v>5.1676211833254181E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92330973220628765</c:v>
+                  <c:v>0.92303791070244801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3470,13 +3737,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3791,26 +4058,2207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07846E9C-3B94-4D0A-A08C-6223D188A932}">
+  <dimension ref="A1:W35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="38">
+        <v>43245</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31">
+        <v>400</v>
+      </c>
+      <c r="E2" s="31">
+        <v>400</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33">
+        <v>400</v>
+      </c>
+      <c r="K2" s="33">
+        <v>800</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="47"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="38">
+        <v>43250</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="47"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="38">
+        <v>43270</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31">
+        <v>1200</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33">
+        <v>400</v>
+      </c>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="36">
+        <v>400</v>
+      </c>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="47"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="38">
+        <v>43286</v>
+      </c>
+      <c r="B5" s="30">
+        <v>400</v>
+      </c>
+      <c r="C5" s="30">
+        <v>400</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32">
+        <v>800</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33">
+        <v>400</v>
+      </c>
+      <c r="N5" s="33"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="47"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="38">
+        <v>43318</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30">
+        <v>400</v>
+      </c>
+      <c r="D6" s="31">
+        <v>800</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32">
+        <v>800</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33">
+        <v>400</v>
+      </c>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="47"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="38">
+        <v>43329</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33">
+        <v>800</v>
+      </c>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="47"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="38">
+        <v>43332</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33">
+        <v>800</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="47"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="38">
+        <v>43346</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30">
+        <v>400</v>
+      </c>
+      <c r="D9" s="31">
+        <v>400</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="47"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="38">
+        <v>43353</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31">
+        <v>800</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33">
+        <v>400</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="47"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="38">
+        <v>43371</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30">
+        <v>400</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31">
+        <v>400</v>
+      </c>
+      <c r="G11" s="32">
+        <v>400</v>
+      </c>
+      <c r="H11" s="33">
+        <v>400</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33">
+        <v>400</v>
+      </c>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="36">
+        <v>400</v>
+      </c>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="47"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="38">
+        <v>43384</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31">
+        <v>800</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32">
+        <v>800</v>
+      </c>
+      <c r="H12" s="33">
+        <v>400</v>
+      </c>
+      <c r="I12" s="33">
+        <v>400</v>
+      </c>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="47"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="38">
+        <v>43403</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30">
+        <v>800</v>
+      </c>
+      <c r="D13" s="31">
+        <v>800</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31">
+        <v>400</v>
+      </c>
+      <c r="G13" s="32">
+        <v>800</v>
+      </c>
+      <c r="H13" s="33">
+        <v>400</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33">
+        <v>400</v>
+      </c>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="36">
+        <v>400</v>
+      </c>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="47"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="38">
+        <v>43419</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32">
+        <v>400</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34">
+        <v>800</v>
+      </c>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="47"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="38">
+        <v>43434</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32">
+        <v>800</v>
+      </c>
+      <c r="H15" s="33">
+        <v>800</v>
+      </c>
+      <c r="I15" s="33">
+        <v>800</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34">
+        <v>400</v>
+      </c>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34">
+        <v>400</v>
+      </c>
+      <c r="R15" s="35">
+        <v>400</v>
+      </c>
+      <c r="S15" s="35"/>
+      <c r="T15" s="36">
+        <v>400</v>
+      </c>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="47"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="38">
+        <v>43448</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30">
+        <v>400</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32">
+        <v>1200</v>
+      </c>
+      <c r="H16" s="33">
+        <v>2000</v>
+      </c>
+      <c r="I16" s="33">
+        <v>2400</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="47"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="38">
+        <v>43461</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32">
+        <v>400</v>
+      </c>
+      <c r="H17" s="33">
+        <v>400</v>
+      </c>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33">
+        <v>400</v>
+      </c>
+      <c r="K17" s="33">
+        <v>400</v>
+      </c>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="35">
+        <v>400</v>
+      </c>
+      <c r="S17" s="35"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="47"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="38">
+        <v>43480</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31">
+        <v>400</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31">
+        <v>400</v>
+      </c>
+      <c r="G18" s="32">
+        <v>400</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33">
+        <v>400</v>
+      </c>
+      <c r="K18" s="33">
+        <v>1200</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="37">
+        <v>400</v>
+      </c>
+      <c r="V18" s="37"/>
+      <c r="W18" s="47"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="38">
+        <v>43496</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30">
+        <v>800</v>
+      </c>
+      <c r="D19" s="31">
+        <v>1600</v>
+      </c>
+      <c r="E19" s="31">
+        <v>400</v>
+      </c>
+      <c r="F19" s="31">
+        <v>800</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33">
+        <v>800</v>
+      </c>
+      <c r="K19" s="33">
+        <v>800</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34">
+        <v>800</v>
+      </c>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37">
+        <v>400</v>
+      </c>
+      <c r="W19" s="47"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="38">
+        <v>43524</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34">
+        <v>400</v>
+      </c>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="47"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="38">
+        <v>43552</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34">
+        <v>400</v>
+      </c>
+      <c r="R21" s="35">
+        <v>400</v>
+      </c>
+      <c r="S21" s="35">
+        <v>400</v>
+      </c>
+      <c r="T21" s="36"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="47"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="38">
+        <v>43581</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33">
+        <v>800</v>
+      </c>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="47"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="38">
+        <v>43584</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31">
+        <v>400</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="47"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="38">
+        <v>43600</v>
+      </c>
+      <c r="B24" s="30">
+        <v>400</v>
+      </c>
+      <c r="C24" s="30">
+        <v>400</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33">
+        <v>-400</v>
+      </c>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37">
+        <v>400</v>
+      </c>
+      <c r="W24" s="47"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="38">
+        <v>43601</v>
+      </c>
+      <c r="B25" s="30">
+        <v>400</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32">
+        <v>1600</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="47"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="38">
+        <v>43615</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34">
+        <v>800</v>
+      </c>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37">
+        <v>800</v>
+      </c>
+      <c r="W26" s="47"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="38">
+        <v>43634</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31">
+        <v>800</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37">
+        <v>400</v>
+      </c>
+      <c r="W27" s="47"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="38">
+        <v>43647</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35">
+        <v>400</v>
+      </c>
+      <c r="T28" s="36"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="47"/>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="30">
+        <f>SUM(B2:B33)</f>
+        <v>1200</v>
+      </c>
+      <c r="C34" s="30">
+        <f t="shared" ref="C34:V34" si="0">SUM(C2:C33)</f>
+        <v>4000</v>
+      </c>
+      <c r="D34" s="31">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+      <c r="E34" s="31">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="F34" s="31">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="G34" s="32">
+        <f t="shared" si="0"/>
+        <v>8400</v>
+      </c>
+      <c r="H34" s="33">
+        <f t="shared" si="0"/>
+        <v>5200</v>
+      </c>
+      <c r="I34" s="33">
+        <f t="shared" si="0"/>
+        <v>4800</v>
+      </c>
+      <c r="J34" s="33">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="K34" s="33">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="L34" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="33">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="N34" s="33">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="O34" s="34">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="P34" s="34">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="Q34" s="34">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="R34" s="35">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="S34" s="35">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="T34" s="36">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="U34" s="37">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="V34" s="37">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="W34">
+        <f>72000-SUM(B34:V34)</f>
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="B35" s="49">
+        <f>B34/400*0.0055</f>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="C35" s="49">
+        <f t="shared" ref="C35:V35" si="1">C34/400*0.0055</f>
+        <v>5.4999999999999993E-2</v>
+      </c>
+      <c r="D35" s="50">
+        <f t="shared" si="1"/>
+        <v>0.17874999999999999</v>
+      </c>
+      <c r="E35" s="50">
+        <f t="shared" si="1"/>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="F35" s="50">
+        <f t="shared" si="1"/>
+        <v>2.7499999999999997E-2</v>
+      </c>
+      <c r="G35" s="51">
+        <f t="shared" si="1"/>
+        <v>0.11549999999999999</v>
+      </c>
+      <c r="H35" s="52">
+        <f t="shared" si="1"/>
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="I35" s="52">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J35" s="52">
+        <f t="shared" si="1"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K35" s="52">
+        <f t="shared" si="1"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L35" s="52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="52">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N35" s="52">
+        <f t="shared" si="1"/>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="O35" s="53">
+        <f t="shared" si="1"/>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="P35" s="53">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q35" s="53">
+        <f t="shared" si="1"/>
+        <v>2.7499999999999997E-2</v>
+      </c>
+      <c r="R35" s="54">
+        <f t="shared" si="1"/>
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="S35" s="54">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T35" s="55">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="U35" s="56">
+        <f t="shared" si="1"/>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="V35" s="56">
+        <f t="shared" si="1"/>
+        <v>2.7499999999999997E-2</v>
+      </c>
+      <c r="W35" s="28">
+        <f>1-SUM(B35:V35)</f>
+        <v>0.2107500000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CC7746-1CE3-4988-9372-456F36636C1E}">
+  <dimension ref="A1:AB133"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="59">
+        <v>3484.3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="59">
+        <v>3017.98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5">
+        <f>A5+E5</f>
+        <v>6502.2800000000007</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="60">
+        <f>C16+G16</f>
+        <v>1282.1589719999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="60">
+        <f>C29+G29</f>
+        <v>834.33054800000014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="59">
+        <v>72.790000000000006</v>
+      </c>
+      <c r="B7">
+        <v>13.09</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="E7" s="59">
+        <v>74.3</v>
+      </c>
+      <c r="F7">
+        <v>14.49</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="I7">
+        <f>A7+E7</f>
+        <v>147.09</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="60">
+        <f>C42+G42</f>
+        <v>1188.5858720000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="60">
+        <f>C55+G55</f>
+        <v>1093.7117880000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="60">
+        <f>C68+G68</f>
+        <v>939.71411599999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="B10" s="29">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="F10" s="29">
+        <v>2.69E-2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="60">
+        <f>C81+G81</f>
+        <v>436.25111600000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="B11" s="29"/>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="60">
+        <f>C94+G94</f>
+        <v>235.12213000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="60">
+        <f>C107+G107</f>
+        <v>268.89416799999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="B13">
+        <v>501.65</v>
+      </c>
+      <c r="F13">
+        <v>429.2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="60">
+        <f>C120+G120</f>
+        <v>152.01083599999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="60">
+        <f>C133+G133</f>
+        <v>71.500454000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="B16" s="29">
+        <v>0.1983</v>
+      </c>
+      <c r="C16" s="58">
+        <f>$A$5*B16</f>
+        <v>690.93669</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.19589999999999999</v>
+      </c>
+      <c r="G16" s="58">
+        <f>$E$5*F16</f>
+        <v>591.22228199999995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20">
+        <v>2.41</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="F20">
+        <v>4.75</v>
+      </c>
+      <c r="G20" s="57"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F23" s="29">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26">
+        <v>462.44</v>
+      </c>
+      <c r="F26">
+        <v>417.04</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="29">
+        <v>0.12590000000000001</v>
+      </c>
+      <c r="C29" s="58">
+        <f>$A$5*B29</f>
+        <v>438.67337000000009</v>
+      </c>
+      <c r="F29" s="29">
+        <v>0.13109999999999999</v>
+      </c>
+      <c r="G29" s="58">
+        <f>$E$5*F29</f>
+        <v>395.65717799999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33">
+        <v>-3.05</v>
+      </c>
+      <c r="C33" s="57"/>
+      <c r="F33">
+        <v>0.34</v>
+      </c>
+      <c r="G33" s="57"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="29">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="F36" s="29">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39">
+        <v>393.87</v>
+      </c>
+      <c r="F39">
+        <v>311.54000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="29">
+        <v>0.1905</v>
+      </c>
+      <c r="C42" s="58">
+        <f>$A$5*B42</f>
+        <v>663.75915000000009</v>
+      </c>
+      <c r="F42" s="29">
+        <v>0.1739</v>
+      </c>
+      <c r="G42" s="58">
+        <f>$E$5*F42</f>
+        <v>524.82672200000002</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46">
+        <v>22.83</v>
+      </c>
+      <c r="C46" s="57"/>
+      <c r="F46">
+        <v>21.78</v>
+      </c>
+      <c r="G46" s="57"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="29">
+        <v>4.65E-2</v>
+      </c>
+      <c r="F49" s="29">
+        <v>4.58E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52">
+        <v>327.74</v>
+      </c>
+      <c r="F52">
+        <v>318.33</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="29">
+        <v>0.15920000000000001</v>
+      </c>
+      <c r="C55" s="58">
+        <f>$A$5*B55</f>
+        <v>554.70056000000011</v>
+      </c>
+      <c r="F55" s="29">
+        <v>0.17860000000000001</v>
+      </c>
+      <c r="G55" s="58">
+        <f>$E$5*F55</f>
+        <v>539.01122800000007</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59">
+        <v>21.9</v>
+      </c>
+      <c r="C59" s="57"/>
+      <c r="F59">
+        <v>20.66</v>
+      </c>
+      <c r="G59" s="57"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="29">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="F62" s="29">
+        <v>5.33E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="F64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65">
+        <v>267.23</v>
+      </c>
+      <c r="F65">
+        <v>239.72</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="29">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="C68" s="58">
+        <f>$A$5*B68</f>
+        <v>495.46746000000002</v>
+      </c>
+      <c r="F68" s="29">
+        <v>0.1472</v>
+      </c>
+      <c r="G68" s="58">
+        <f>$E$5*F68</f>
+        <v>444.24665599999997</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="F70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72">
+        <v>0.77</v>
+      </c>
+      <c r="C72" s="57"/>
+      <c r="F72">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G72" s="57"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="29">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="F75" s="29">
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78">
+        <v>227.52</v>
+      </c>
+      <c r="F78">
+        <v>214.89</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="F80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="29">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="C81" s="58">
+        <f>$A$5*B81</f>
+        <v>224.38892000000001</v>
+      </c>
+      <c r="F81" s="29">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="G81" s="58">
+        <f>$E$5*F81</f>
+        <v>211.86219599999998</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" t="s">
+        <v>73</v>
+      </c>
+      <c r="F83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" t="s">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85">
+        <v>9.36</v>
+      </c>
+      <c r="C85" s="57"/>
+      <c r="F85">
+        <v>9.36</v>
+      </c>
+      <c r="G85" s="57"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" t="s">
+        <v>78</v>
+      </c>
+      <c r="F87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="29">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="F88" s="29">
+        <v>8.6499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91">
+        <v>162.5</v>
+      </c>
+      <c r="F91">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" t="s">
+        <v>80</v>
+      </c>
+      <c r="F93" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="29">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="C94" s="58">
+        <f>$A$5*B94</f>
+        <v>117.42091000000001</v>
+      </c>
+      <c r="F94" s="29">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G94" s="58">
+        <f>$E$5*F94</f>
+        <v>117.70122000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" t="s">
+        <v>74</v>
+      </c>
+      <c r="F96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" t="s">
+        <v>77</v>
+      </c>
+      <c r="F97" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98">
+        <v>4.71</v>
+      </c>
+      <c r="C98" s="57"/>
+      <c r="F98">
+        <v>1.74</v>
+      </c>
+      <c r="G98" s="57"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" t="s">
+        <v>78</v>
+      </c>
+      <c r="F100" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="29">
+        <v>2.58E-2</v>
+      </c>
+      <c r="F101" s="29">
+        <v>2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" t="s">
+        <v>79</v>
+      </c>
+      <c r="F103" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104">
+        <v>142.1</v>
+      </c>
+      <c r="F104">
+        <v>62.09</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" t="s">
+        <v>80</v>
+      </c>
+      <c r="F106" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="29">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="C107" s="58">
+        <f>$A$5*B107</f>
+        <v>187.10691</v>
+      </c>
+      <c r="F107" s="29">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="G107" s="58">
+        <f>$E$5*F107</f>
+        <v>81.787257999999994</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" t="s">
+        <v>75</v>
+      </c>
+      <c r="F109" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" t="s">
+        <v>77</v>
+      </c>
+      <c r="F110" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111">
+        <v>1.69</v>
+      </c>
+      <c r="C111" s="57"/>
+      <c r="F111">
+        <v>1.69</v>
+      </c>
+      <c r="G111" s="57"/>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" t="s">
+        <v>78</v>
+      </c>
+      <c r="F113" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="29">
+        <v>4.36E-2</v>
+      </c>
+      <c r="F114" s="29">
+        <v>4.36E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" t="s">
+        <v>79</v>
+      </c>
+      <c r="F116" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117">
+        <v>35.32</v>
+      </c>
+      <c r="F117">
+        <v>35.32</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" t="s">
+        <v>80</v>
+      </c>
+      <c r="F119" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="29">
+        <v>2.18E-2</v>
+      </c>
+      <c r="C120" s="58">
+        <f>$A$5*B120</f>
+        <v>75.957740000000001</v>
+      </c>
+      <c r="F120" s="29">
+        <v>2.52E-2</v>
+      </c>
+      <c r="G120" s="58">
+        <f>$E$5*F120</f>
+        <v>76.053095999999996</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" t="s">
+        <v>76</v>
+      </c>
+      <c r="F122" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" t="s">
+        <v>77</v>
+      </c>
+      <c r="F123" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124">
+        <v>-1.36</v>
+      </c>
+      <c r="C124" s="57"/>
+      <c r="F124">
+        <v>-1.36</v>
+      </c>
+      <c r="G124" s="57"/>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" t="s">
+        <v>78</v>
+      </c>
+      <c r="F126" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="29">
+        <v>-3.4200000000000001E-2</v>
+      </c>
+      <c r="F127" s="29">
+        <v>-3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" t="s">
+        <v>79</v>
+      </c>
+      <c r="F129" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130">
+        <v>22.5</v>
+      </c>
+      <c r="F130">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" t="s">
+        <v>80</v>
+      </c>
+      <c r="F132" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" s="29">
+        <v>1.03E-2</v>
+      </c>
+      <c r="C133" s="58">
+        <f>$A$5*B133</f>
+        <v>35.888290000000005</v>
+      </c>
+      <c r="F133" s="29">
+        <v>1.18E-2</v>
+      </c>
+      <c r="G133" s="58">
+        <f>$E$5*F133</f>
+        <v>35.612164</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="21.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.375" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="9" customWidth="1"/>
     <col min="5" max="5" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" style="9"/>
-    <col min="11" max="12" width="15.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="21.1640625" style="9"/>
+    <col min="10" max="10" width="21.125" style="9"/>
+    <col min="11" max="12" width="15.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="21.125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3842,22 +6290,22 @@
         <v>32</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M1" s="17"/>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:15" ht="16">
+    <row r="2" spans="1:15">
       <c r="A2" s="26" t="str">
         <f>"A股"&amp;" , "&amp;TEXT(SUM(E2:E28),"0.00%")</f>
-        <v>A股 , 70.14%</v>
+        <v>A股 , 70.22%</v>
       </c>
       <c r="B2" s="26" t="str">
         <f>"大盘股"&amp;" , "&amp;TEXT(SUM(E2:E4),"0.00%")</f>
-        <v>大盘股 , 7.35%</v>
+        <v>大盘股 , 7.36%</v>
       </c>
       <c r="C2" s="20" t="str">
         <f>"上证50"&amp;" , "&amp;TEXT(SUM(E2:E2),"0.00%")</f>
@@ -3868,7 +6316,7 @@
       </c>
       <c r="E2" s="11">
         <f t="shared" ref="E2:E28" si="0">F2/$F$38</f>
-        <v>1.6113617673926089E-2</v>
+        <v>1.6133827825397302E-2</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(G2:I2)</f>
@@ -3880,17 +6328,17 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="K2" s="18">
-        <f>K4+K6+K8</f>
-        <v>78355.189999999988</v>
+        <f>K4+K6</f>
+        <v>78502.28</v>
       </c>
       <c r="L2" s="18">
-        <f>$K$4+$K$6+$K$8+$K$10+$K$12</f>
-        <v>830029.56999999983</v>
+        <f>$K$4+$K$6+$K$8+$K$10</f>
+        <v>830308.54</v>
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:15" ht="16">
+    <row r="3" spans="1:15">
       <c r="A3" s="26"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26" t="str">
@@ -3902,7 +6350,7 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" si="0"/>
-        <v>5.2343151381021462E-2</v>
+        <v>5.2408801630350804E-2</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F37" si="1">SUM(G3:I3)</f>
@@ -3916,21 +6364,21 @@
         <v>23</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="16">
+    <row r="4" spans="1:15">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
-      <c r="D4" s="22" t="s">
-        <v>56</v>
+      <c r="D4" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>5.0251355341122709E-3</v>
+        <v>5.0314382001158285E-3</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="1"/>
@@ -3944,27 +6392,27 @@
       </c>
       <c r="L4" s="18">
         <f>F38-SUM(F19:F28)-K4</f>
-        <v>6050.7099999999919</v>
+        <v>5950.7099999999919</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="16">
+    <row r="5" spans="1:15">
       <c r="A5" s="26"/>
       <c r="B5" s="26" t="str">
         <f>"中小盘股"&amp;" , "&amp;TEXT(SUM(E5:E10),"0.00%")</f>
-        <v>中小盘股 , 20.94%</v>
+        <v>中小盘股 , 20.97%</v>
       </c>
       <c r="C5" s="26" t="str">
         <f>"中证500"&amp;" , "&amp;TEXT(SUM(E5:E7),"0.00%")</f>
-        <v>中证500 , 16.61%</v>
+        <v>中证500 , 16.64%</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>0.12259961243818403</v>
+        <v>0.12275338031252654</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
@@ -3976,22 +6424,22 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="K5" s="18" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
-      <c r="D6" s="23" t="s">
-        <v>59</v>
+      <c r="D6" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>5.0005372993599563E-3</v>
+        <v>5.0068091135672052E-3</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
@@ -4003,16 +6451,17 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="K6" s="18">
-        <f>3484.3-L6</f>
-        <v>3411.51</v>
+        <f>螺丝钉计划!I5</f>
+        <v>6502.2800000000007</v>
       </c>
       <c r="L6" s="18">
-        <v>72.790000000000006</v>
+        <f>螺丝钉计划!I7</f>
+        <v>147.09</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" ht="16">
+    <row r="7" spans="1:15">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -4021,7 +6470,7 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>3.8542240816788954E-2</v>
+        <v>3.859058157680386E-2</v>
       </c>
       <c r="F7" s="2">
         <f>SUM(G7:I7)</f>
@@ -4033,14 +6482,14 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="K7" s="18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" ht="16">
+    <row r="8" spans="1:15">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="20" t="str">
@@ -4052,7 +6501,7 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>1.4681716585555777E-2</v>
+        <v>1.4700130806499571E-2</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
@@ -4063,16 +6512,15 @@
       </c>
       <c r="I8" s="2"/>
       <c r="K8" s="18">
-        <f>3017.98-L8</f>
-        <v>2943.68</v>
-      </c>
-      <c r="L8" s="18">
-        <v>74.3</v>
+        <v>615045.06999999995</v>
+      </c>
+      <c r="L8" s="24">
+        <v>22981.68</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:15" ht="16">
+    <row r="9" spans="1:15">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26" t="str">
@@ -4084,7 +6532,7 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>5.1901092719943811E-3</v>
+        <v>5.1966188526895267E-3</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
@@ -4096,14 +6544,14 @@
       <c r="H9" s="14"/>
       <c r="I9" s="2"/>
       <c r="K9" s="18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O9" s="13"/>
     </row>
-    <row r="10" spans="1:15" ht="16">
+    <row r="10" spans="1:15">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -4112,7 +6560,7 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>2.3418465570155519E-2</v>
+        <v>2.3447837666848742E-2</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
@@ -4124,30 +6572,30 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="K10" s="18">
-        <v>615045.06999999995</v>
-      </c>
-      <c r="L10" s="25">
-        <v>22981.68</v>
+        <v>136761.19</v>
+      </c>
+      <c r="L10" s="24">
+        <v>3527.49</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:15" ht="16">
+    <row r="11" spans="1:15">
       <c r="A11" s="26"/>
-      <c r="B11" s="23" t="str">
+      <c r="B11" s="22" t="str">
         <f>"红利价值"&amp;" , "&amp;TEXT(SUM(E11:E11),"0.00%")</f>
-        <v>红利价值 , 11.19%</v>
+        <v>红利价值 , 11.20%</v>
       </c>
       <c r="C11" s="20" t="str">
         <f>"中证红利"&amp;" , "&amp;TEXT(SUM(E11:E11),"0.00%")</f>
-        <v>中证红利 , 11.19%</v>
+        <v>中证红利 , 11.20%</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>0.11185160298035056</v>
+        <v>0.11199189039961759</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
@@ -4159,29 +6607,29 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="K11" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:15" ht="16">
+    <row r="12" spans="1:15">
       <c r="A12" s="26"/>
       <c r="B12" s="26" t="str">
         <f>"行业股"&amp;" , "&amp;TEXT(SUM(E12:E18),"0.00%")</f>
-        <v>行业股 , 22.97%</v>
+        <v>行业股 , 22.99%</v>
       </c>
       <c r="C12" s="20" t="str">
         <f>"养老产业"&amp;" , "&amp;TEXT(SUM(E12:E12),"0.00%")</f>
-        <v>养老产业 , 6.89%</v>
+        <v>养老产业 , 6.90%</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>6.8885937294929048E-2</v>
+        <v>6.8972335970579612E-2</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
@@ -4191,28 +6639,29 @@
         <v>5824.92</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="K12" s="18">
-        <v>136629.31</v>
-      </c>
-      <c r="L12" s="25">
-        <v>3406.66</v>
+      <c r="K12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="1">
+        <f>SUM($F$2:$F$33)/($K$2+$K$8+K$10)</f>
+        <v>7.8961334060227775E-2</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:15" ht="16">
+    <row r="13" spans="1:15">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="20" t="str">
         <f>"全指医药"&amp;" , "&amp;TEXT(SUM(E13:E13),"0.00%")</f>
-        <v>全指医药 , 6.38%</v>
+        <v>全指医药 , 6.39%</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>6.3775535764391683E-2</v>
+        <v>6.3855524831033225E-2</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
@@ -4223,21 +6672,28 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
+      <c r="K13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="1">
+        <f>SUM($F$34:$F$36)/($K$2+$K$8+K$10)</f>
+        <v>5.1676211833254181E-3</v>
+      </c>
       <c r="O13" s="13"/>
     </row>
-    <row r="14" spans="1:15" ht="16">
+    <row r="14" spans="1:15">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="20" t="str">
         <f>"中证传媒"&amp;" , "&amp;TEXT(SUM(E14:E14),"0.00%")</f>
-        <v>中证传媒 , 3.91%</v>
+        <v>中证传媒 , 3.92%</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>3.9140048877716598E-2</v>
+        <v>3.9189139425377363E-2</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
@@ -4248,27 +6704,28 @@
       </c>
       <c r="H14" s="2"/>
       <c r="K14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="L14" s="1">
+        <f>(F37+SUM($K$8:$K$10))/($K$2+$K$8+K$10)</f>
+        <v>0.92303791070244801</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:15" ht="16">
+    <row r="15" spans="1:15">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="20" t="str">
         <f>"中证环保"&amp;" , "&amp;TEXT(SUM(E15:E15),"0.00%")</f>
-        <v>中证环保 , 3.99%</v>
+        <v>中证环保 , 4.00%</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>3.991654892283053E-2</v>
+        <v>3.996661337863823E-2</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
@@ -4278,16 +6735,11 @@
         <v>3375.3</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="K15" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="1">
-        <f>SUM($F$2:$F$33)/($K$2+$K$10+K$12)</f>
-        <v>7.8995008948898063E-2</v>
-      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:15" ht="16">
+    <row r="16" spans="1:15">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="20" t="str">
@@ -4309,18 +6761,13 @@
         <v>0</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="K16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" s="1">
-        <f>SUM($F$34:$F$36)/($K$2+$K$10+K$12)</f>
-        <v>5.1693580025106833E-3</v>
-      </c>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="2"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" s="19" customFormat="1" ht="16">
+    <row r="17" spans="1:15" s="19" customFormat="1">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="20" t="str">
@@ -4332,7 +6779,7 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>1.1686763243717473E-2</v>
+        <v>1.1701421110134764E-2</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
@@ -4343,30 +6790,23 @@
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="2"/>
-      <c r="K17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="1">
-        <f>(F37+SUM($K$10:$K$12))/($K$2+$K$10+K$12)</f>
-        <v>0.92330973220628765</v>
-      </c>
       <c r="M17" s="9"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15" ht="16">
+    <row r="18" spans="1:15">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="20" t="str">
         <f>"证券公司"&amp;" , "&amp;TEXT(SUM(E18:E18),"0.00%")</f>
-        <v>证券公司 , 0.62%</v>
+        <v>证券公司 , 0.63%</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>6.2490159737839234E-3</v>
+        <v>6.2568536649797715E-3</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
@@ -4382,263 +6822,219 @@
       <c r="N18" s="12"/>
       <c r="O18" s="13"/>
     </row>
-    <row r="19" spans="1:15" ht="16">
+    <row r="19" spans="1:15">
       <c r="A19" s="26"/>
       <c r="B19" s="26" t="str">
         <f>"螺丝钉定投"&amp;" , "&amp;TEXT(SUM(E19:E28),"0.00%")</f>
         <v>螺丝钉定投 , 7.70%</v>
       </c>
-      <c r="C19" s="21" t="str">
-        <f>"医药"&amp;" , "&amp;TEXT(SUM(E19:E19),"0.00%")</f>
-        <v>医药 , 0.28%</v>
+      <c r="C19" s="26" t="str">
+        <f>"大盘股"&amp;" , "&amp;TEXT(E26+E27+E28+E22,"0.00%")</f>
+        <v>大盘股 , 1.88%</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>2.7805718025020357E-3</v>
+        <v>1.5181925139654618E-2</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>235.12213000000003</v>
+        <v>1282.1589719999999</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2">
-        <f>($K$6 + $L$6) * 0.0337</f>
-        <v>117.42091000000001</v>
-      </c>
-      <c r="I19" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.039</f>
-        <v>117.70122000000001</v>
-      </c>
+        <v>1282.1589719999999</v>
+      </c>
+      <c r="I19" s="2"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="12"/>
     </row>
-    <row r="20" spans="1:15" ht="16">
+    <row r="20" spans="1:15">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="21" t="str">
-        <f>"香港中小"&amp;" , "&amp;TEXT(SUM(E20:E20),"0.00%")</f>
-        <v>香港中小 , 1.52%</v>
-      </c>
+      <c r="C20" s="26"/>
       <c r="D20" s="20" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>1.5162907395693448E-2</v>
+        <v>9.8792304215635264E-3</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>1282.1589719999999</v>
+        <v>834.33054800000014</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2">
-        <f>($K$6+$L$6)*0.1983</f>
-        <v>690.93669</v>
-      </c>
-      <c r="I20" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1959</f>
-        <v>591.22228199999995</v>
-      </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+        <v>834.33054800000014</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="2"/>
       <c r="N20" s="12"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15" ht="16">
+    <row r="21" spans="1:15">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="21" t="str">
-        <f>"上证50AH"&amp;" , "&amp;TEXT(SUM(E21:E21),"0.00%")</f>
-        <v>上证50AH , 0.32%</v>
+      <c r="C21" s="26" t="str">
+        <f>"中盘股"&amp;" , "&amp;TEXT(E20+E23,"0.00%")</f>
+        <v>中盘股 , 2.10%</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="0"/>
-        <v>3.1799624365347703E-3</v>
+        <v>1.4073934765364735E-2</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>268.89416799999998</v>
+        <v>1188.5858720000001</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2">
-        <f>($K$6 + $L$6) * 0.0537</f>
-        <v>187.10691</v>
-      </c>
-      <c r="I21" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0271</f>
-        <v>81.787257999999994</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+        <v>1188.5858720000001</v>
+      </c>
+      <c r="I21" s="2"/>
       <c r="N21" s="12"/>
     </row>
-    <row r="22" spans="1:15" ht="16">
+    <row r="22" spans="1:15">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="26" t="str">
-        <f>"中证红利"&amp;" , "&amp;TEXT(SUM(E22:E23),"0.00%")</f>
-        <v>中证红利 , 1.92%</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>57</v>
+      <c r="C22" s="26"/>
+      <c r="D22" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>5.1591381549650154E-3</v>
+        <v>1.2950539560529476E-2</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>436.25111600000002</v>
+        <v>1093.7117880000001</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2">
-        <f>($K$6 + $L$6) * 0.0644</f>
-        <v>224.38892000000001</v>
-      </c>
-      <c r="I22" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0702</f>
-        <v>211.86219599999998</v>
-      </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+        <v>1093.7117880000001</v>
+      </c>
+      <c r="I22" s="2"/>
       <c r="O22" s="13"/>
     </row>
-    <row r="23" spans="1:15" ht="16">
+    <row r="23" spans="1:15">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="C23" s="26" t="str">
+        <f>"中证红利"&amp;" , "&amp;TEXT(E21+E24,"0.00%")</f>
+        <v>中证红利 , 1.92%</v>
+      </c>
       <c r="D23" s="20" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>1.4056304953240657E-2</v>
+        <v>1.1127067449003287E-2</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="1"/>
-        <v>1188.5858720000001</v>
+        <v>939.71411599999999</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2">
-        <f>($K$6 + $L$6) * 0.1905</f>
-        <v>663.75915000000009</v>
-      </c>
-      <c r="I23" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1739</f>
-        <v>524.82672200000002</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="2"/>
+        <v>939.71411599999999</v>
+      </c>
+      <c r="I23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="1:15" ht="16">
+    <row r="24" spans="1:15">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="21" t="str">
-        <f>"500低波动"&amp;" , "&amp;TEXT(SUM(E24:E24),"0.00%")</f>
-        <v>500低波动 , 0.99%</v>
-      </c>
+      <c r="C24" s="26"/>
       <c r="D24" s="20" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>9.8668551349669689E-3</v>
+        <v>5.1656088908160628E-3</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="1"/>
-        <v>834.33054800000014</v>
+        <v>436.25111600000002</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2">
-        <f>($K$6 + $L$6) * 0.1259</f>
-        <v>438.67337000000009</v>
-      </c>
-      <c r="I24" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1311</f>
-        <v>395.65717799999999</v>
-      </c>
+        <v>436.25111600000002</v>
+      </c>
+      <c r="I24" s="2"/>
       <c r="O24" s="13"/>
     </row>
-    <row r="25" spans="1:15" ht="16">
+    <row r="25" spans="1:15">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26" t="str">
-        <f>"300价值"&amp;" , "&amp;TEXT(SUM(E25:E26),"0.00%")</f>
-        <v>300价值 , 1.38%</v>
+        <f>"医药"&amp;" , "&amp;TEXT(E25,"0.00%")</f>
+        <v>医药 , 0.28%</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>1.2934316977210456E-2</v>
+        <v>2.7840592736858702E-3</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="1"/>
-        <v>1093.7117880000001</v>
+        <v>235.12213000000003</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2">
-        <f>($K$6 + $L$6) * 0.1592</f>
-        <v>554.70056000000011</v>
-      </c>
-      <c r="I25" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1786</f>
-        <v>539.01122800000007</v>
-      </c>
+        <v>235.12213000000003</v>
+      </c>
+      <c r="I25" s="2"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" ht="16">
+    <row r="26" spans="1:15">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="20" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>9.1561919340375233E-4</v>
+        <v>3.1839508346596136E-3</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="1"/>
-        <v>77.423764000000006</v>
+        <v>268.89416799999998</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2">
-        <f>($K$6 + $L$6) * 0.012</f>
-        <v>41.811600000000006</v>
-      </c>
-      <c r="I26" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0118</f>
-        <v>35.612164</v>
-      </c>
+        <v>268.89416799999998</v>
+      </c>
+      <c r="I26" s="2"/>
       <c r="O26" s="13"/>
     </row>
-    <row r="27" spans="1:15" ht="16">
+    <row r="27" spans="1:15">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="24" t="str">
-        <f>"基本面60"&amp;" , "&amp;TEXT(SUM(E27:E27),"0.00%")</f>
-        <v>基本面60 , 0.18%</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>61</v>
+      <c r="C27" s="26" t="str">
+        <f>"海外新兴"&amp;" , "&amp;TEXT(E19,"0.00%")</f>
+        <v>海外新兴 , 1.52%</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>1.7976914561651904E-3</v>
+        <v>1.7999461712368029E-3</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="1"/>
@@ -4646,48 +7042,37 @@
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2">
-        <f>($K$6 + $L$6) * 0.0218</f>
-        <v>75.957740000000001</v>
-      </c>
-      <c r="I27" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.0252</f>
-        <v>76.053095999999996</v>
-      </c>
+        <v>152.01083599999998</v>
+      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="11"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" spans="1:15" ht="16">
+    <row r="28" spans="1:15">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="21" t="str">
-        <f>"基本面120"&amp;" , "&amp;TEXT(SUM(E28:E28),"0.00%")</f>
-        <v>基本面120 , 1.11%</v>
-      </c>
+      <c r="C28" s="26"/>
       <c r="D28" s="20" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>1.1113129050688366E-2</v>
+        <v>8.4663022588069427E-4</v>
       </c>
       <c r="F28" s="2">
         <f>SUM(G28:I28)</f>
-        <v>939.71411599999999</v>
+        <v>71.500454000000005</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2">
-        <f>($K$6 + $L$6) * 0.1422</f>
-        <v>495.46746000000002</v>
-      </c>
-      <c r="I28" s="2">
-        <f xml:space="preserve"> ($K$8 + $L$8) * 0.1472</f>
-        <v>444.24665599999997</v>
-      </c>
+        <v>71.500454000000005</v>
+      </c>
+      <c r="I28" s="2"/>
       <c r="J28" s="11"/>
       <c r="O28" s="13"/>
     </row>
-    <row r="29" spans="1:15" ht="16">
+    <row r="29" spans="1:15">
       <c r="A29" s="26" t="str">
         <f>"海外新兴"&amp;" , "&amp;TEXT(SUM(E29:E30),"0.00%")</f>
         <v>海外新兴 , 2.54%</v>
@@ -4705,7 +7090,7 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" ref="E29:E37" si="2">F29/$F$38</f>
-        <v>5.135118026033678E-3</v>
+        <v>5.1415586351649606E-3</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="1"/>
@@ -4719,7 +7104,7 @@
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" spans="1:15" ht="16">
+    <row r="30" spans="1:15">
       <c r="A30" s="26"/>
       <c r="B30" s="20" t="str">
         <f>"海外互联"&amp;" , "&amp;TEXT(SUM(E30:E30),"0.00%")</f>
@@ -4734,7 +7119,7 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="2"/>
-        <v>2.0220813313098621E-2</v>
+        <v>2.0246174824597684E-2</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="1"/>
@@ -4747,25 +7132,25 @@
       <c r="I30" s="2"/>
       <c r="O30" s="13"/>
     </row>
-    <row r="31" spans="1:15" ht="16">
-      <c r="A31" s="23" t="str">
+    <row r="31" spans="1:15">
+      <c r="A31" s="22" t="str">
         <f>"海外成熟"&amp;" , "&amp;TEXT(SUM(E31:E31),"0.00%")</f>
-        <v>海外成熟 , 2.58%</v>
+        <v>海外成熟 , 2.59%</v>
       </c>
       <c r="B31" s="20" t="str">
         <f>"海外成熟"&amp;" , "&amp;TEXT(SUM(E31:E31),"0.00%")</f>
-        <v>海外成熟 , 2.58%</v>
+        <v>海外成熟 , 2.59%</v>
       </c>
       <c r="C31" s="20" t="str">
         <f>"德国30"&amp;" , "&amp;TEXT(SUM(E31:E31),"0.00%")</f>
-        <v>德国30 , 2.58%</v>
+        <v>德国30 , 2.59%</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="2"/>
-        <v>2.5832995180434398E-2</v>
+        <v>2.5865395647922E-2</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="1"/>
@@ -4779,10 +7164,10 @@
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:15" ht="16">
+    <row r="32" spans="1:15">
       <c r="A32" s="26" t="str">
         <f>"商品"&amp;" , "&amp;TEXT(SUM(E32:E33),"0.00%")</f>
-        <v>商品 , 2.28%</v>
+        <v>商品 , 2.29%</v>
       </c>
       <c r="B32" s="20" t="str">
         <f>"原油"&amp;" , "&amp;TEXT(SUM(E32:E32),"0.00%")</f>
@@ -4797,7 +7182,7 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="2"/>
-        <v>1.2973913181429934E-2</v>
+        <v>1.2990185427419445E-2</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="1"/>
@@ -4810,7 +7195,7 @@
       <c r="I32" s="2"/>
       <c r="O32" s="13"/>
     </row>
-    <row r="33" spans="1:16" ht="16">
+    <row r="33" spans="1:16">
       <c r="A33" s="26"/>
       <c r="B33" s="20" t="str">
         <f>"黄金"&amp;" , "&amp;TEXT(SUM(E33:E33),"0.00%")</f>
@@ -4825,7 +7210,7 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="2"/>
-        <v>9.8649564823741712E-3</v>
+        <v>9.8773293876273666E-3</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="1"/>
@@ -4839,25 +7224,25 @@
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
     </row>
-    <row r="34" spans="1:16" ht="16">
+    <row r="34" spans="1:16">
       <c r="A34" s="26" t="str">
         <f>"债券"&amp;" , "&amp;TEXT(SUM(E34:E36),"0.00%")</f>
-        <v>债券 , 5.07%</v>
+        <v>债券 , 5.08%</v>
       </c>
       <c r="B34" s="26" t="str">
         <f>"国内债券"&amp;" , "&amp;TEXT(SUM(E34:E36),"0.00%")</f>
-        <v>国内债券 , 5.07%</v>
+        <v>国内债券 , 5.08%</v>
       </c>
       <c r="C34" s="26" t="str">
         <f>"可转债"&amp;" , "&amp;TEXT(SUM(E34:E36),"0.00%")</f>
-        <v>可转债 , 5.07%</v>
+        <v>可转债 , 5.08%</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="2"/>
-        <v>2.1170447087430769E-2</v>
+        <v>2.1196999656258472E-2</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="1"/>
@@ -4870,7 +7255,7 @@
       <c r="I34" s="2"/>
       <c r="O34" s="13"/>
     </row>
-    <row r="35" spans="1:16" ht="16">
+    <row r="35" spans="1:16">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
@@ -4879,7 +7264,7 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" si="2"/>
-        <v>5.193657094314426E-3</v>
+        <v>5.2001711247878857E-3</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="1"/>
@@ -4893,7 +7278,7 @@
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
     </row>
-    <row r="36" spans="1:16" ht="16">
+    <row r="36" spans="1:16">
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -4902,7 +7287,7 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="2"/>
-        <v>2.4378269768471794E-2</v>
+        <v>2.4408845678524825E-2</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="1"/>
@@ -4915,32 +7300,33 @@
       <c r="I36" s="2"/>
       <c r="P36" s="13"/>
     </row>
-    <row r="37" spans="1:16" ht="16">
-      <c r="A37" s="23" t="str">
+    <row r="37" spans="1:16">
+      <c r="A37" s="22" t="str">
         <f>"现金"&amp;" , "&amp;TEXT(SUM(E37:E37),"0.00%")</f>
-        <v>现金 , 17.38%</v>
+        <v>现金 , 17.29%</v>
       </c>
       <c r="B37" s="10" t="str">
         <f>"低风险理财"&amp;" , "&amp;TEXT(SUM(E37:E37),"0.00%")</f>
-        <v>低风险理财 , 17.38%</v>
+        <v>低风险理财 , 17.29%</v>
       </c>
       <c r="C37" s="20" t="str">
         <f>"货币基金"&amp;" , "&amp;TEXT(SUM(E37:E37),"0.00%")</f>
-        <v>货币基金 , 17.38%</v>
+        <v>货币基金 , 17.29%</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="2"/>
-        <v>0.17384329368222343</v>
+        <v>0.17287724212014283</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="1"/>
-        <v>14700</v>
+        <v>14600</v>
       </c>
       <c r="G37" s="2">
-        <v>14700</v>
+        <f>养老金计划!W34</f>
+        <v>14600</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -4952,11 +7338,11 @@
       </c>
       <c r="E38" s="13">
         <f>SUM(E2:E37)</f>
-        <v>1</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="F38" s="2">
         <f>SUM(F2:F37)</f>
-        <v>84558.913309999989</v>
+        <v>84452.989999999991</v>
       </c>
       <c r="I38" s="8"/>
       <c r="P38" s="13"/>
@@ -4967,7 +7353,7 @@
       </c>
       <c r="E39" s="15">
         <f>F38/$K$2-1</f>
-        <v>7.9174376451642825E-2</v>
+        <v>7.5803021262567105E-2</v>
       </c>
       <c r="O39" s="12"/>
     </row>
@@ -5011,7 +7397,7 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="25"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:16">
@@ -5019,7 +7405,7 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:16">
@@ -5362,16 +7748,19 @@
       <c r="D101" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B19:B28"/>
     <mergeCell ref="A2:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C22:C23"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B12:B18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C25:C26"/>
@@ -5400,7 +7789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E66 E43">
+  <conditionalFormatting sqref="E45 E43 E48:E66">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5415,6 +7804,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Portfolio/父母资产配置情况.xlsx
+++ b/Portfolio/父母资产配置情况.xlsx
@@ -2,20 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2E40DB-6679-49F0-BC8E-93CCF2B70CA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F81AB2E-5A7A-4EAF-AF59-CE5543E478E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="711" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="711" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="养老金计划" sheetId="13" r:id="rId1"/>
     <sheet name="螺丝钉计划" sheetId="12" r:id="rId2"/>
-    <sheet name="资产配置情况" sheetId="11" r:id="rId3"/>
+    <sheet name="天天基金网" sheetId="14" r:id="rId3"/>
+    <sheet name="持仓市值汇总" sheetId="15" r:id="rId4"/>
+    <sheet name="资产配置情况" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="138">
   <si>
     <t>大类目</t>
     <rPh sb="0" eb="1">
@@ -201,17 +203,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>老爸蛋卷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老妈蛋卷</t>
-    <rPh sb="0" eb="1">
-      <t>tian't'j'j</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>老妈货币基金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -435,14 +426,165 @@
     <t>养老金收益</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>父母蛋卷</t>
+    <rPh sb="0" eb="1">
+      <t>tian't'j'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金代码</t>
+  </si>
+  <si>
+    <t>基金简称</t>
+  </si>
+  <si>
+    <t>基金类型</t>
+  </si>
+  <si>
+    <t>净值日期</t>
+  </si>
+  <si>
+    <t>单位净值</t>
+  </si>
+  <si>
+    <t>持有份额</t>
+  </si>
+  <si>
+    <t>参考市值</t>
+  </si>
+  <si>
+    <t>关联银行卡</t>
+  </si>
+  <si>
+    <t>工银货币</t>
+  </si>
+  <si>
+    <t>货币型</t>
+  </si>
+  <si>
+    <t>活期宝</t>
+  </si>
+  <si>
+    <t>光大货币</t>
+  </si>
+  <si>
+    <t>南方天天利货币Ｂ</t>
+  </si>
+  <si>
+    <t>汇添富和聚宝货币</t>
+  </si>
+  <si>
+    <t>富国富钱包货币</t>
+  </si>
+  <si>
+    <t>华夏沪深300ETF联接A</t>
+  </si>
+  <si>
+    <t>指数型</t>
+  </si>
+  <si>
+    <t>指数宝</t>
+  </si>
+  <si>
+    <t>广发养老指数A</t>
+  </si>
+  <si>
+    <t>易方达创业板ETF联接A</t>
+  </si>
+  <si>
+    <t>交银中证海外中国互联网指数</t>
+  </si>
+  <si>
+    <t>QDII</t>
+  </si>
+  <si>
+    <t>华夏恒生ETF联接A</t>
+  </si>
+  <si>
+    <t>中国工商银行 | 0930</t>
+  </si>
+  <si>
+    <t>华安黄金易ETF联接A</t>
+  </si>
+  <si>
+    <t>华安德国30(DAX)联接</t>
+  </si>
+  <si>
+    <t>华夏上证50ETF联接A</t>
+  </si>
+  <si>
+    <t>广发中证环保ETF联接A</t>
+  </si>
+  <si>
+    <t>广发医药卫生联接A</t>
+  </si>
+  <si>
+    <t>广发中证全指金融地产联接A</t>
+  </si>
+  <si>
+    <t>广发中证500ETF联接C</t>
+  </si>
+  <si>
+    <t>广发创业板ETF联接A</t>
+  </si>
+  <si>
+    <t>广发中证传媒ETF联接A</t>
+  </si>
+  <si>
+    <t>富国中证红利指数增强</t>
+  </si>
+  <si>
+    <t>富国沪深300指数增强</t>
+  </si>
+  <si>
+    <t>易方达安心回报债券A</t>
+  </si>
+  <si>
+    <t>债券型</t>
+  </si>
+  <si>
+    <t>富国中证500指数(LOF)</t>
+  </si>
+  <si>
+    <t>华宝标普油气上游股票</t>
+  </si>
+  <si>
+    <t>华宝中证1000指数分级</t>
+  </si>
+  <si>
+    <t>广发中证500ETF联接A</t>
+  </si>
+  <si>
+    <t>兴全可转债混合</t>
+  </si>
+  <si>
+    <t>混合型</t>
+  </si>
+  <si>
+    <t>易方达证券公司分级</t>
+  </si>
+  <si>
+    <t>长信可转债债券A</t>
+  </si>
+  <si>
+    <t>工银货币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="186" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="#000000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -530,7 +672,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +733,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2131,7 +2279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2210,109 +2358,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4059,11 +4225,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07846E9C-3B94-4D0A-A08C-6223D188A932}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="14.25"/>
@@ -4072,1070 +4239,1070 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="H1" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="40" t="s">
+      <c r="N1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="42" t="s">
+      <c r="O1" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="V1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="48" t="s">
-        <v>66</v>
+      <c r="W1" s="47" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="38">
+      <c r="A2" s="37">
         <v>43245</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30">
         <v>400</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <v>400</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32">
         <v>400</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="32">
         <v>800</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="47"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="46"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="38">
+      <c r="A3" s="37">
         <v>43250</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30">
         <v>2000</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="47"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="46"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="38">
+      <c r="A4" s="37">
         <v>43270</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30">
         <v>1200</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33">
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32">
         <v>400</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="36">
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="35">
         <v>400</v>
       </c>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="47"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="38">
+      <c r="A5" s="37">
         <v>43286</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="29">
         <v>400</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>400</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31">
         <v>800</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33">
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32">
         <v>400</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="47"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="38">
+      <c r="A6" s="37">
         <v>43318</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29">
         <v>400</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>800</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32">
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31">
         <v>800</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33">
+      <c r="H6" s="32"/>
+      <c r="I6" s="32">
         <v>400</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="47"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="46"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="38">
+      <c r="A7" s="37">
         <v>43329</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32">
         <v>800</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="47"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="46"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="38">
+      <c r="A8" s="37">
         <v>43332</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32">
         <v>800</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="47"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="46"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="38">
+      <c r="A9" s="37">
         <v>43346</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29">
         <v>400</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="30">
         <v>400</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="47"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="46"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="38">
+      <c r="A10" s="37">
         <v>43353</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30">
         <v>800</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33">
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32">
         <v>400</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="47"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="46"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="38">
+      <c r="A11" s="37">
         <v>43371</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29">
         <v>400</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30">
         <v>400</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="31">
         <v>400</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="32">
         <v>400</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33">
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32">
         <v>400</v>
       </c>
-      <c r="N11" s="33"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="36">
+      <c r="N11" s="32"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="35">
         <v>400</v>
       </c>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="47"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="46"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="38">
+      <c r="A12" s="37">
         <v>43384</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30">
         <v>800</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32">
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31">
         <v>800</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="32">
         <v>400</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="32">
         <v>400</v>
       </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="47"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="46"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="38">
+      <c r="A13" s="37">
         <v>43403</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29">
         <v>800</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <v>800</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31">
+      <c r="E13" s="30"/>
+      <c r="F13" s="30">
         <v>400</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="31">
         <v>800</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="32">
         <v>400</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33">
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32">
         <v>400</v>
       </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="36">
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="35">
         <v>400</v>
       </c>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="47"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="46"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="38">
+      <c r="A14" s="37">
         <v>43419</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31">
         <v>400</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34">
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33">
         <v>800</v>
       </c>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="47"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="46"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <v>43434</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30">
         <v>2000</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31">
         <v>800</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="32">
         <v>800</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="32">
         <v>800</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34">
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="33">
         <v>400</v>
       </c>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34">
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33">
         <v>400</v>
       </c>
-      <c r="R15" s="35">
+      <c r="R15" s="34">
         <v>400</v>
       </c>
-      <c r="S15" s="35"/>
-      <c r="T15" s="36">
+      <c r="S15" s="34"/>
+      <c r="T15" s="35">
         <v>400</v>
       </c>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="47"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="46"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="38">
+      <c r="A16" s="37">
         <v>43448</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29">
         <v>400</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31">
         <v>1200</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="32">
         <v>2000</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="32">
         <v>2400</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="47"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="46"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="38">
+      <c r="A17" s="37">
         <v>43461</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30">
         <v>1000</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32">
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31">
         <v>400</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="32">
         <v>400</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33">
+      <c r="I17" s="32"/>
+      <c r="J17" s="32">
         <v>400</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="32">
         <v>400</v>
       </c>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="35">
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="34">
         <v>400</v>
       </c>
-      <c r="S17" s="35"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="47"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="46"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="38">
+      <c r="A18" s="37">
         <v>43480</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30">
         <v>400</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31">
+      <c r="E18" s="30"/>
+      <c r="F18" s="30">
         <v>400</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="31">
         <v>400</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33">
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32">
         <v>400</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="32">
         <v>1200</v>
       </c>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="37">
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="36">
         <v>400</v>
       </c>
-      <c r="V18" s="37"/>
-      <c r="W18" s="47"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="46"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="38">
+      <c r="A19" s="37">
         <v>43496</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29">
         <v>800</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="30">
         <v>1600</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <v>400</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="30">
         <v>800</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33">
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32">
         <v>800</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="32">
         <v>800</v>
       </c>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34">
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33">
         <v>800</v>
       </c>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37">
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36">
         <v>400</v>
       </c>
-      <c r="W19" s="47"/>
+      <c r="W19" s="46"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="38">
+      <c r="A20" s="37">
         <v>43524</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33">
         <v>400</v>
       </c>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="47"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="46"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="38">
+      <c r="A21" s="37">
         <v>43552</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33">
         <v>400</v>
       </c>
-      <c r="R21" s="35">
+      <c r="R21" s="34">
         <v>400</v>
       </c>
-      <c r="S21" s="35">
+      <c r="S21" s="34">
         <v>400</v>
       </c>
-      <c r="T21" s="36"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="47"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="46"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="38">
+      <c r="A22" s="37">
         <v>43581</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32">
         <v>800</v>
       </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="47"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="46"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="38">
+      <c r="A23" s="37">
         <v>43584</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30">
         <v>400</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="47"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="46"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="38">
+      <c r="A24" s="37">
         <v>43600</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="29">
         <v>400</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="29">
         <v>400</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32">
         <v>-400</v>
       </c>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37">
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36">
         <v>400</v>
       </c>
-      <c r="W24" s="47"/>
+      <c r="W24" s="46"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="38">
+      <c r="A25" s="37">
         <v>43601</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="29">
         <v>400</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32">
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31">
         <v>1600</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="47"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="46"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="38">
+      <c r="A26" s="37">
         <v>43615</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33">
         <v>800</v>
       </c>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37">
+      <c r="Q26" s="33"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36">
         <v>800</v>
       </c>
-      <c r="W26" s="47"/>
+      <c r="W26" s="46"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="38">
+      <c r="A27" s="37">
         <v>43634</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30">
         <v>800</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37">
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36">
         <v>400</v>
       </c>
-      <c r="W27" s="47"/>
+      <c r="W27" s="46"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="38">
+      <c r="A28" s="37">
         <v>43647</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34">
         <v>400</v>
       </c>
-      <c r="T28" s="36"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="47"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="46"/>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="30">
+        <v>62</v>
+      </c>
+      <c r="B34" s="29">
         <f>SUM(B2:B33)</f>
         <v>1200</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="29">
         <f t="shared" ref="C34:V34" si="0">SUM(C2:C33)</f>
         <v>4000</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="30">
         <f t="shared" si="0"/>
         <v>13000</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="30">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="30">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="31">
         <f t="shared" si="0"/>
         <v>8400</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H34" s="32">
         <f t="shared" si="0"/>
         <v>5200</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="32">
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="J34" s="33">
+      <c r="J34" s="32">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="K34" s="33">
+      <c r="K34" s="32">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="L34" s="33">
+      <c r="L34" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M34" s="33">
+      <c r="M34" s="32">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="N34" s="33">
+      <c r="N34" s="32">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="O34" s="34">
+      <c r="O34" s="33">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="P34" s="34">
+      <c r="P34" s="33">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="Q34" s="34">
+      <c r="Q34" s="33">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="R34" s="35">
+      <c r="R34" s="34">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="S34" s="35">
+      <c r="S34" s="34">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="T34" s="36">
+      <c r="T34" s="35">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="U34" s="37">
+      <c r="U34" s="36">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="V34" s="37">
+      <c r="V34" s="36">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -5145,91 +5312,91 @@
       </c>
     </row>
     <row r="35" spans="1:23">
-      <c r="B35" s="49">
+      <c r="B35" s="48">
         <f>B34/400*0.0055</f>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="48">
         <f t="shared" ref="C35:V35" si="1">C34/400*0.0055</f>
         <v>5.4999999999999993E-2</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35" s="49">
         <f t="shared" si="1"/>
         <v>0.17874999999999999</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="49">
         <f t="shared" si="1"/>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35" s="49">
         <f t="shared" si="1"/>
         <v>2.7499999999999997E-2</v>
       </c>
-      <c r="G35" s="51">
+      <c r="G35" s="50">
         <f t="shared" si="1"/>
         <v>0.11549999999999999</v>
       </c>
-      <c r="H35" s="52">
+      <c r="H35" s="51">
         <f t="shared" si="1"/>
         <v>7.1499999999999994E-2</v>
       </c>
-      <c r="I35" s="52">
+      <c r="I35" s="51">
         <f t="shared" si="1"/>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="J35" s="52">
+      <c r="J35" s="51">
         <f t="shared" si="1"/>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="K35" s="52">
+      <c r="K35" s="51">
         <f t="shared" si="1"/>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="L35" s="52">
+      <c r="L35" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M35" s="52">
+      <c r="M35" s="51">
         <f t="shared" si="1"/>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N35" s="52">
+      <c r="N35" s="51">
         <f t="shared" si="1"/>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="O35" s="53">
+      <c r="O35" s="52">
         <f t="shared" si="1"/>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="P35" s="53">
+      <c r="P35" s="52">
         <f t="shared" si="1"/>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q35" s="53">
+      <c r="Q35" s="52">
         <f t="shared" si="1"/>
         <v>2.7499999999999997E-2</v>
       </c>
-      <c r="R35" s="54">
+      <c r="R35" s="53">
         <f t="shared" si="1"/>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="S35" s="54">
+      <c r="S35" s="53">
         <f t="shared" si="1"/>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="T35" s="55">
+      <c r="T35" s="54">
         <f t="shared" si="1"/>
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="U35" s="56">
+      <c r="U35" s="55">
         <f t="shared" si="1"/>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="V35" s="56">
+      <c r="V35" s="55">
         <f t="shared" si="1"/>
         <v>2.7499999999999997E-2</v>
       </c>
-      <c r="W35" s="28">
+      <c r="W35" s="27">
         <f>1-SUM(B35:V35)</f>
         <v>0.2107500000000001</v>
       </c>
@@ -5242,10 +5409,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CC7746-1CE3-4988-9372-456F36636C1E}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB133"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K14"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5267,181 +5435,181 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="B1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:28">
       <c r="B2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
         <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J4" s="18"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="59">
+      <c r="A5" s="58">
         <v>3484.3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="59">
+        <v>65</v>
+      </c>
+      <c r="E5" s="58">
         <v>3017.98</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I5">
         <f>A5+E5</f>
         <v>6502.2800000000007</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="60">
+        <v>65</v>
+      </c>
+      <c r="K5" s="59">
         <f>C16+G16</f>
         <v>1282.1589719999999</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
         <v>82</v>
       </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="60">
+        <v>66</v>
+      </c>
+      <c r="K6" s="59">
         <f>C29+G29</f>
         <v>834.33054800000014</v>
       </c>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="59">
+      <c r="A7" s="58">
         <v>72.790000000000006</v>
       </c>
       <c r="B7">
         <v>13.09</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="E7" s="59">
+      <c r="C7" s="56"/>
+      <c r="E7" s="58">
         <v>74.3</v>
       </c>
       <c r="F7">
         <v>14.49</v>
       </c>
-      <c r="G7" s="57"/>
+      <c r="G7" s="56"/>
       <c r="I7">
         <f>A7+E7</f>
         <v>147.09</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="60">
+        <v>67</v>
+      </c>
+      <c r="K7" s="59">
         <f>C42+G42</f>
         <v>1188.5858720000001</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="J8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="60">
+        <v>68</v>
+      </c>
+      <c r="K8" s="59">
         <f>C55+G55</f>
         <v>1093.7117880000001</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="B9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="60">
+        <v>69</v>
+      </c>
+      <c r="K9" s="59">
         <f>C68+G68</f>
         <v>939.71411599999999</v>
       </c>
     </row>
     <row r="10" spans="1:28">
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <v>2.69E-2</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="60">
+        <v>70</v>
+      </c>
+      <c r="K10" s="59">
         <f>C81+G81</f>
         <v>436.25111600000002</v>
       </c>
     </row>
     <row r="11" spans="1:28">
-      <c r="B11" s="29"/>
+      <c r="B11" s="28"/>
       <c r="J11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="60">
+        <v>71</v>
+      </c>
+      <c r="K11" s="59">
         <f>C94+G94</f>
         <v>235.12213000000003</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="B12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="60">
+        <v>72</v>
+      </c>
+      <c r="K12" s="59">
         <f>C107+G107</f>
         <v>268.89416799999998</v>
       </c>
@@ -5454,94 +5622,94 @@
         <v>429.2</v>
       </c>
       <c r="J13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="60">
+        <v>73</v>
+      </c>
+      <c r="K13" s="59">
         <f>C120+G120</f>
         <v>152.01083599999998</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="J14" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="60">
+        <v>74</v>
+      </c>
+      <c r="K14" s="59">
         <f>C133+G133</f>
         <v>71.500454000000005</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="B15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:28">
-      <c r="B16" s="29">
+      <c r="B16" s="28">
         <v>0.1983</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="57">
         <f>$A$5*B16</f>
         <v>690.93669</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="28">
         <v>0.19589999999999999</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="57">
         <f>$E$5*F16</f>
         <v>591.22228199999995</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20">
         <v>2.41</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="56"/>
       <c r="F20">
         <v>4.75</v>
       </c>
-      <c r="G20" s="57"/>
+      <c r="G20" s="56"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="29">
+      <c r="B23" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="28">
         <v>1.35E-2</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -5554,76 +5722,76 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="29">
+      <c r="B29" s="28">
         <v>0.12590000000000001</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="57">
         <f>$A$5*B29</f>
         <v>438.67337000000009</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="28">
         <v>0.13109999999999999</v>
       </c>
-      <c r="G29" s="58">
+      <c r="G29" s="57">
         <f>$E$5*F29</f>
         <v>395.65717799999999</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33">
         <v>-3.05</v>
       </c>
-      <c r="C33" s="57"/>
+      <c r="C33" s="56"/>
       <c r="F33">
         <v>0.34</v>
       </c>
-      <c r="G33" s="57"/>
+      <c r="G33" s="56"/>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="29">
+      <c r="B36" s="28">
         <v>-4.8999999999999998E-3</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="28">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -5636,76 +5804,76 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="29">
+      <c r="B42" s="28">
         <v>0.1905</v>
       </c>
-      <c r="C42" s="58">
+      <c r="C42" s="57">
         <f>$A$5*B42</f>
         <v>663.75915000000009</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="28">
         <v>0.1739</v>
       </c>
-      <c r="G42" s="58">
+      <c r="G42" s="57">
         <f>$E$5*F42</f>
         <v>524.82672200000002</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="2:7">
       <c r="B45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46">
         <v>22.83</v>
       </c>
-      <c r="C46" s="57"/>
+      <c r="C46" s="56"/>
       <c r="F46">
         <v>21.78</v>
       </c>
-      <c r="G46" s="57"/>
+      <c r="G46" s="56"/>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="29">
+      <c r="B49" s="28">
         <v>4.65E-2</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="28">
         <v>4.58E-2</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -5718,76 +5886,76 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="29">
+      <c r="B55" s="28">
         <v>0.15920000000000001</v>
       </c>
-      <c r="C55" s="58">
+      <c r="C55" s="57">
         <f>$A$5*B55</f>
         <v>554.70056000000011</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F55" s="28">
         <v>0.17860000000000001</v>
       </c>
-      <c r="G55" s="58">
+      <c r="G55" s="57">
         <f>$E$5*F55</f>
         <v>539.01122800000007</v>
       </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59">
         <v>21.9</v>
       </c>
-      <c r="C59" s="57"/>
+      <c r="C59" s="56"/>
       <c r="F59">
         <v>20.66</v>
       </c>
-      <c r="G59" s="57"/>
+      <c r="G59" s="56"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="29">
+      <c r="B62" s="28">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="F62" s="29">
+      <c r="F62" s="28">
         <v>5.33E-2</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="2:7">
@@ -5800,76 +5968,76 @@
     </row>
     <row r="67" spans="2:7">
       <c r="B67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="29">
+      <c r="B68" s="28">
         <v>0.14219999999999999</v>
       </c>
-      <c r="C68" s="58">
+      <c r="C68" s="57">
         <f>$A$5*B68</f>
         <v>495.46746000000002</v>
       </c>
-      <c r="F68" s="29">
+      <c r="F68" s="28">
         <v>0.1472</v>
       </c>
-      <c r="G68" s="58">
+      <c r="G68" s="57">
         <f>$E$5*F68</f>
         <v>444.24665599999997</v>
       </c>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="2:7">
       <c r="B71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72">
         <v>0.77</v>
       </c>
-      <c r="C72" s="57"/>
+      <c r="C72" s="56"/>
       <c r="F72">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G72" s="57"/>
+      <c r="G72" s="56"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="29">
+      <c r="B75" s="28">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="F75" s="29">
+      <c r="F75" s="28">
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="77" spans="2:7">
       <c r="B77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="2:7">
@@ -5882,76 +6050,76 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="29">
+      <c r="B81" s="28">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="C81" s="58">
+      <c r="C81" s="57">
         <f>$A$5*B81</f>
         <v>224.38892000000001</v>
       </c>
-      <c r="F81" s="29">
+      <c r="F81" s="28">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="G81" s="58">
+      <c r="G81" s="57">
         <f>$E$5*F81</f>
         <v>211.86219599999998</v>
       </c>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F83" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F84" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85">
         <v>9.36</v>
       </c>
-      <c r="C85" s="57"/>
+      <c r="C85" s="56"/>
       <c r="F85">
         <v>9.36</v>
       </c>
-      <c r="G85" s="57"/>
+      <c r="G85" s="56"/>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F87" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="29">
+      <c r="B88" s="28">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="F88" s="29">
+      <c r="F88" s="28">
         <v>8.6499999999999994E-2</v>
       </c>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F90" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="2:7">
@@ -5964,76 +6132,76 @@
     </row>
     <row r="93" spans="2:7">
       <c r="B93" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F93" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="29">
+      <c r="B94" s="28">
         <v>3.3700000000000001E-2</v>
       </c>
-      <c r="C94" s="58">
+      <c r="C94" s="57">
         <f>$A$5*B94</f>
         <v>117.42091000000001</v>
       </c>
-      <c r="F94" s="29">
+      <c r="F94" s="28">
         <v>3.9E-2</v>
       </c>
-      <c r="G94" s="58">
+      <c r="G94" s="57">
         <f>$E$5*F94</f>
         <v>117.70122000000001</v>
       </c>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F96" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F97" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="2:7">
       <c r="B98">
         <v>4.71</v>
       </c>
-      <c r="C98" s="57"/>
+      <c r="C98" s="56"/>
       <c r="F98">
         <v>1.74</v>
       </c>
-      <c r="G98" s="57"/>
+      <c r="G98" s="56"/>
     </row>
     <row r="100" spans="2:7">
       <c r="B100" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F100" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="29">
+      <c r="B101" s="28">
         <v>2.58E-2</v>
       </c>
-      <c r="F101" s="29">
+      <c r="F101" s="28">
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
     <row r="103" spans="2:7">
       <c r="B103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="2:7">
@@ -6046,76 +6214,76 @@
     </row>
     <row r="106" spans="2:7">
       <c r="B106" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F106" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="29">
+      <c r="B107" s="28">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="C107" s="58">
+      <c r="C107" s="57">
         <f>$A$5*B107</f>
         <v>187.10691</v>
       </c>
-      <c r="F107" s="29">
+      <c r="F107" s="28">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="G107" s="58">
+      <c r="G107" s="57">
         <f>$E$5*F107</f>
         <v>81.787257999999994</v>
       </c>
     </row>
     <row r="109" spans="2:7">
       <c r="B109" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F109" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="2:7">
       <c r="B110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F110" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="2:7">
       <c r="B111">
         <v>1.69</v>
       </c>
-      <c r="C111" s="57"/>
+      <c r="C111" s="56"/>
       <c r="F111">
         <v>1.69</v>
       </c>
-      <c r="G111" s="57"/>
+      <c r="G111" s="56"/>
     </row>
     <row r="113" spans="2:7">
       <c r="B113" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F113" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="29">
+      <c r="B114" s="28">
         <v>4.36E-2</v>
       </c>
-      <c r="F114" s="29">
+      <c r="F114" s="28">
         <v>4.36E-2</v>
       </c>
     </row>
     <row r="116" spans="2:7">
       <c r="B116" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F116" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" spans="2:7">
@@ -6128,76 +6296,76 @@
     </row>
     <row r="119" spans="2:7">
       <c r="B119" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F119" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="29">
+      <c r="B120" s="28">
         <v>2.18E-2</v>
       </c>
-      <c r="C120" s="58">
+      <c r="C120" s="57">
         <f>$A$5*B120</f>
         <v>75.957740000000001</v>
       </c>
-      <c r="F120" s="29">
+      <c r="F120" s="28">
         <v>2.52E-2</v>
       </c>
-      <c r="G120" s="58">
+      <c r="G120" s="57">
         <f>$E$5*F120</f>
         <v>76.053095999999996</v>
       </c>
     </row>
     <row r="122" spans="2:7">
       <c r="B122" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F122" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="2:7">
       <c r="B123" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F123" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="2:7">
       <c r="B124">
         <v>-1.36</v>
       </c>
-      <c r="C124" s="57"/>
+      <c r="C124" s="56"/>
       <c r="F124">
         <v>-1.36</v>
       </c>
-      <c r="G124" s="57"/>
+      <c r="G124" s="56"/>
     </row>
     <row r="126" spans="2:7">
       <c r="B126" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F126" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="29">
+      <c r="B127" s="28">
         <v>-3.4200000000000001E-2</v>
       </c>
-      <c r="F127" s="29">
+      <c r="F127" s="28">
         <v>-3.4200000000000001E-2</v>
       </c>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F129" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130" spans="2:7">
@@ -6210,24 +6378,24 @@
     </row>
     <row r="132" spans="2:7">
       <c r="B132" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F132" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="29">
+      <c r="B133" s="28">
         <v>1.03E-2</v>
       </c>
-      <c r="C133" s="58">
+      <c r="C133" s="57">
         <f>$A$5*B133</f>
         <v>35.888290000000005</v>
       </c>
-      <c r="F133" s="29">
+      <c r="F133" s="28">
         <v>1.18E-2</v>
       </c>
-      <c r="G133" s="58">
+      <c r="G133" s="57">
         <f>$E$5*F133</f>
         <v>35.612164</v>
       </c>
@@ -6239,12 +6407,1155 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED39DECB-F06F-40A7-BDC5-792900BEB875}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>482002</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1815.03</v>
+      </c>
+      <c r="G2">
+        <v>1815.03</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>360003</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2306.5100000000002</v>
+      </c>
+      <c r="G3">
+        <v>2306.5100000000002</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3474</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>610620.16000000003</v>
+      </c>
+      <c r="G4">
+        <v>610620.16000000003</v>
+      </c>
+      <c r="H4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>600</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>400.29</v>
+      </c>
+      <c r="G5">
+        <v>400.29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>638</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E7">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="F7">
+        <v>325.61</v>
+      </c>
+      <c r="G7">
+        <v>421.01</v>
+      </c>
+      <c r="H7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>968</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E8">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="F8">
+        <v>6096.21</v>
+      </c>
+      <c r="G8">
+        <v>5731.65</v>
+      </c>
+      <c r="H8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>110026</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E9">
+        <v>1.6105</v>
+      </c>
+      <c r="F9">
+        <v>1213.0899999999999</v>
+      </c>
+      <c r="G9">
+        <v>1953.68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>164906</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="61">
+        <v>43650</v>
+      </c>
+      <c r="E10">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="F10">
+        <v>1407.29</v>
+      </c>
+      <c r="G10">
+        <v>1712.67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E11">
+        <v>1.5793999999999999</v>
+      </c>
+      <c r="F11">
+        <v>275.49</v>
+      </c>
+      <c r="G11">
+        <v>435.1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>216</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E12">
+        <v>1.1592</v>
+      </c>
+      <c r="F12">
+        <v>733.79</v>
+      </c>
+      <c r="G12">
+        <v>850.6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>614</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="61">
+        <v>43649</v>
+      </c>
+      <c r="E13">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="F13">
+        <v>1884.74</v>
+      </c>
+      <c r="G13">
+        <v>2182.52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>1051</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E14">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="F14">
+        <v>1338.46</v>
+      </c>
+      <c r="G14">
+        <v>1350.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>1064</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E15">
+        <v>0.56530000000000002</v>
+      </c>
+      <c r="F15">
+        <v>5949.77</v>
+      </c>
+      <c r="G15">
+        <v>3363.4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>1180</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E16">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="F16">
+        <v>6750.28</v>
+      </c>
+      <c r="G16">
+        <v>5334.07</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>1469</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E17">
+        <v>1.0913999999999999</v>
+      </c>
+      <c r="F17">
+        <v>900.35</v>
+      </c>
+      <c r="G17">
+        <v>982.64</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>2903</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E18">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="F18">
+        <v>475.96</v>
+      </c>
+      <c r="G18">
+        <v>419.89</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>3765</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E19">
+        <v>0.87970000000000004</v>
+      </c>
+      <c r="F19">
+        <v>492.57</v>
+      </c>
+      <c r="G19">
+        <v>433.31</v>
+      </c>
+      <c r="H19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>4752</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E20">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="F20">
+        <v>4423.4799999999996</v>
+      </c>
+      <c r="G20">
+        <v>3265.41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>100032</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E21">
+        <v>1.137</v>
+      </c>
+      <c r="F21">
+        <v>8318.43</v>
+      </c>
+      <c r="G21">
+        <v>9458.0499999999993</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>100038</v>
+      </c>
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E22">
+        <v>1.786</v>
+      </c>
+      <c r="F22">
+        <v>2463.04</v>
+      </c>
+      <c r="G22">
+        <v>4398.9799999999996</v>
+      </c>
+      <c r="H22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>110027</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E23">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="F23">
+        <v>1257.72</v>
+      </c>
+      <c r="G23">
+        <v>2057.62</v>
+      </c>
+      <c r="H23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>161017</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E24">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="F24">
+        <v>1838.18</v>
+      </c>
+      <c r="G24">
+        <v>3251.74</v>
+      </c>
+      <c r="H24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>162411</v>
+      </c>
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="61">
+        <v>43650</v>
+      </c>
+      <c r="E25">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="F25">
+        <v>2329.2199999999998</v>
+      </c>
+      <c r="G25">
+        <v>1055.1300000000001</v>
+      </c>
+      <c r="H25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>162413</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E26">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="F26">
+        <v>1495.03</v>
+      </c>
+      <c r="G26">
+        <v>1230.1099999999999</v>
+      </c>
+      <c r="H26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>162711</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E27">
+        <v>1.1032</v>
+      </c>
+      <c r="F27">
+        <v>9331.14</v>
+      </c>
+      <c r="G27">
+        <v>10294.11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>340001</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E28">
+        <v>1.0942000000000001</v>
+      </c>
+      <c r="F28">
+        <v>1630.08</v>
+      </c>
+      <c r="G28">
+        <v>1783.63</v>
+      </c>
+      <c r="H28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>502010</v>
+      </c>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E29">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="F29">
+        <v>485.72</v>
+      </c>
+      <c r="G29">
+        <v>508.54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>519977</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="61">
+        <v>43651</v>
+      </c>
+      <c r="E30">
+        <v>1.3106</v>
+      </c>
+      <c r="F30">
+        <v>333.04</v>
+      </c>
+      <c r="G30">
+        <v>436.48</v>
+      </c>
+      <c r="H30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64031D4C-62FA-4C34-9719-B8D4E616594B}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="63">
+        <v>482002</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="64">
+        <v>1815.03</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="63">
+        <v>360003</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="64">
+        <v>2306.5100000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="63">
+        <v>3474</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="64">
+        <v>610620.16000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="63">
+        <v>600</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="64">
+        <v>400.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="63">
+        <v>638</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="64">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="63">
+        <v>51</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="64">
+        <v>421.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="63">
+        <v>968</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="64">
+        <v>5731.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="63">
+        <v>110026</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="64">
+        <v>1953.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="63">
+        <v>164906</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="64">
+        <v>1712.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="63">
+        <v>71</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="64">
+        <v>435.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="63">
+        <v>216</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="64">
+        <v>850.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="63">
+        <v>614</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="64">
+        <v>2182.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="63">
+        <v>1051</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="64">
+        <v>1350.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="63">
+        <v>1064</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="64">
+        <v>3363.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="63">
+        <v>1180</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="64">
+        <v>5334.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="63">
+        <v>1469</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="64">
+        <v>982.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="63">
+        <v>2903</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="64">
+        <v>419.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="63">
+        <v>3765</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="64">
+        <v>433.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="63">
+        <v>4752</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="64">
+        <v>3265.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="63">
+        <v>100032</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="64">
+        <v>9458.0499999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="63">
+        <v>100038</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="64">
+        <v>4398.9799999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="63">
+        <v>110027</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="64">
+        <v>2057.62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="63">
+        <v>161017</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="64">
+        <v>3251.74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="63">
+        <v>162411</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="64">
+        <v>1055.1300000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="63">
+        <v>162413</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="64">
+        <v>1230.1099999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="63">
+        <v>162711</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="64">
+        <v>10294.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="63">
+        <v>340001</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="64">
+        <v>1783.63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="63">
+        <v>502010</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="64">
+        <v>508.54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="63">
+        <v>519977</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="64">
+        <v>436.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.125" defaultRowHeight="14.25"/>
@@ -6284,26 +7595,26 @@
         <v>3</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M1" s="17"/>
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="26" t="str">
+      <c r="A2" s="60" t="str">
         <f>"A股"&amp;" , "&amp;TEXT(SUM(E2:E28),"0.00%")</f>
         <v>A股 , 70.22%</v>
       </c>
-      <c r="B2" s="26" t="str">
+      <c r="B2" s="60" t="str">
         <f>"大盘股"&amp;" , "&amp;TEXT(SUM(E2:E4),"0.00%")</f>
         <v>大盘股 , 7.36%</v>
       </c>
@@ -6319,14 +7630,16 @@
         <v>1.6133827825397302E-2</v>
       </c>
       <c r="F2" s="2">
-        <f>SUM(G2:I2)</f>
+        <f>SUM(G2:H2)</f>
         <v>1362.55</v>
       </c>
       <c r="G2" s="2">
         <v>1362.55</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="65">
+        <v>1051</v>
+      </c>
       <c r="K2" s="18">
         <f>K4+K6</f>
         <v>78502.28</v>
@@ -6339,9 +7652,9 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26" t="str">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60" t="str">
         <f>"沪深300"&amp;" , "&amp;TEXT(SUM(E3:E4),"0.00%")</f>
         <v>沪深300 , 5.74%</v>
       </c>
@@ -6353,28 +7666,30 @@
         <v>5.2408801630350804E-2</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F37" si="1">SUM(G3:I3)</f>
+        <f t="shared" ref="F3:F37" si="1">SUM(G3:H3)</f>
         <v>4426.08</v>
       </c>
       <c r="G3" s="2">
         <v>4426.08</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="65">
+        <v>100038</v>
+      </c>
       <c r="K3" s="18" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
@@ -6387,6 +7702,9 @@
       <c r="G4" s="2">
         <v>424.92</v>
       </c>
+      <c r="I4" s="65">
+        <v>51</v>
+      </c>
       <c r="K4" s="18">
         <v>72000</v>
       </c>
@@ -6398,17 +7716,17 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26" t="str">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60" t="str">
         <f>"中小盘股"&amp;" , "&amp;TEXT(SUM(E5:E10),"0.00%")</f>
         <v>中小盘股 , 20.97%</v>
       </c>
-      <c r="C5" s="26" t="str">
+      <c r="C5" s="60" t="str">
         <f>"中证500"&amp;" , "&amp;TEXT(SUM(E5:E7),"0.00%")</f>
         <v>中证500 , 16.64%</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
@@ -6422,20 +7740,22 @@
         <v>10366.89</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="65">
+        <v>162711</v>
+      </c>
       <c r="K5" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
@@ -6449,7 +7769,9 @@
         <v>422.84</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="65">
+        <v>2903</v>
+      </c>
       <c r="K6" s="18">
         <f>螺丝钉计划!I5</f>
         <v>6502.2800000000007</v>
@@ -6462,9 +7784,9 @@
       <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="10" t="s">
         <v>25</v>
       </c>
@@ -6473,25 +7795,27 @@
         <v>3.859058157680386E-2</v>
       </c>
       <c r="F7" s="2">
-        <f>SUM(G7:I7)</f>
+        <f t="shared" si="1"/>
         <v>3259.09</v>
       </c>
       <c r="G7" s="2">
         <v>3259.09</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="65">
+        <v>161017</v>
+      </c>
       <c r="K7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>36</v>
-      </c>
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="20" t="str">
         <f>"中证1000"&amp;" , "&amp;TEXT(SUM(E8:E8),"0.00%")</f>
         <v>中证1000 , 1.47%</v>
@@ -6510,7 +7834,9 @@
       <c r="G8" s="2">
         <v>1241.47</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="65">
+        <v>162413</v>
+      </c>
       <c r="K8" s="18">
         <v>615045.06999999995</v>
       </c>
@@ -6521,9 +7847,9 @@
       <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26" t="str">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60" t="str">
         <f>"创业板"&amp;" , "&amp;TEXT(SUM(E9:E10),"0.00%")</f>
         <v>创业板 , 2.86%</v>
       </c>
@@ -6542,19 +7868,21 @@
         <v>438.87</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="65">
+        <v>3765</v>
+      </c>
       <c r="K9" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
@@ -6570,7 +7898,9 @@
         <v>1980.24</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="65">
+        <v>110026</v>
+      </c>
       <c r="K10" s="18">
         <v>136761.19</v>
       </c>
@@ -6581,7 +7911,7 @@
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="26"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="22" t="str">
         <f>"红利价值"&amp;" , "&amp;TEXT(SUM(E11:E11),"0.00%")</f>
         <v>红利价值 , 11.20%</v>
@@ -6605,18 +7935,20 @@
         <v>9458.0499999999993</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="65">
+        <v>100032</v>
+      </c>
       <c r="K11" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26" t="str">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60" t="str">
         <f>"行业股"&amp;" , "&amp;TEXT(SUM(E12:E18),"0.00%")</f>
         <v>行业股 , 22.99%</v>
       </c>
@@ -6638,9 +7970,11 @@
       <c r="G12" s="2">
         <v>5824.92</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="65">
+        <v>968</v>
+      </c>
       <c r="K12" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L12" s="1">
         <f>SUM($F$2:$F$33)/($K$2+$K$8+K$10)</f>
@@ -6650,8 +7984,8 @@
       <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="20" t="str">
         <f>"全指医药"&amp;" , "&amp;TEXT(SUM(E13:E13),"0.00%")</f>
         <v>全指医药 , 6.39%</v>
@@ -6671,9 +8005,11 @@
         <v>5392.79</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="65">
+        <v>1180</v>
+      </c>
       <c r="K13" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L13" s="1">
         <f>SUM($F$34:$F$36)/($K$2+$K$8+K$10)</f>
@@ -6682,8 +8018,8 @@
       <c r="O13" s="13"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="20" t="str">
         <f>"中证传媒"&amp;" , "&amp;TEXT(SUM(E14:E14),"0.00%")</f>
         <v>中证传媒 , 3.92%</v>
@@ -6703,8 +8039,11 @@
         <v>3309.64</v>
       </c>
       <c r="H14" s="2"/>
+      <c r="I14" s="65">
+        <v>4752</v>
+      </c>
       <c r="K14" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L14" s="1">
         <f>(F37+SUM($K$8:$K$10))/($K$2+$K$8+K$10)</f>
@@ -6714,8 +8053,8 @@
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="20" t="str">
         <f>"中证环保"&amp;" , "&amp;TEXT(SUM(E15:E15),"0.00%")</f>
         <v>中证环保 , 4.00%</v>
@@ -6734,14 +8073,16 @@
       <c r="G15" s="2">
         <v>3375.3</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="65">
+        <v>1064</v>
+      </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="20" t="str">
         <f>"全指消费"&amp;" , "&amp;TEXT(SUM(E16:E16),"0.00%")</f>
         <v>全指消费 , 0.00%</v>
@@ -6761,6 +8102,9 @@
         <v>0</v>
       </c>
       <c r="H16" s="2"/>
+      <c r="I16" s="66">
+        <v>110027</v>
+      </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="2"/>
@@ -6768,8 +8112,8 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" s="19" customFormat="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="20" t="str">
         <f>"金融地产"&amp;" , "&amp;TEXT(SUM(E17:E17),"0.00%")</f>
         <v>金融地产 , 1.17%</v>
@@ -6789,14 +8133,16 @@
         <v>988.22</v>
       </c>
       <c r="H17" s="14"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="65">
+        <v>1469</v>
+      </c>
       <c r="M17" s="9"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="20" t="str">
         <f>"证券公司"&amp;" , "&amp;TEXT(SUM(E18:E18),"0.00%")</f>
         <v>证券公司 , 0.63%</v>
@@ -6816,24 +8162,26 @@
         <v>528.41</v>
       </c>
       <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="I18" s="65">
+        <v>502010</v>
+      </c>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
       <c r="N18" s="12"/>
       <c r="O18" s="13"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26" t="str">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60" t="str">
         <f>"螺丝钉定投"&amp;" , "&amp;TEXT(SUM(E19:E28),"0.00%")</f>
         <v>螺丝钉定投 , 7.70%</v>
       </c>
-      <c r="C19" s="26" t="str">
+      <c r="C19" s="60" t="str">
         <f>"大盘股"&amp;" , "&amp;TEXT(E26+E27+E28+E22,"0.00%")</f>
         <v>大盘股 , 1.88%</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
@@ -6847,18 +8195,18 @@
       <c r="H19" s="2">
         <v>1282.1589719999999</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="14"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
@@ -6872,21 +8220,21 @@
       <c r="H20" s="2">
         <v>834.33054800000014</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="14"/>
       <c r="K20" s="20"/>
       <c r="L20" s="2"/>
       <c r="N20" s="12"/>
       <c r="O20" s="13"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26" t="str">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60" t="str">
         <f>"中盘股"&amp;" , "&amp;TEXT(E20+E23,"0.00%")</f>
         <v>中盘股 , 2.10%</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="0"/>
@@ -6900,15 +8248,15 @@
       <c r="H21" s="2">
         <v>1188.5858720000001</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="14"/>
       <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
@@ -6922,18 +8270,18 @@
       <c r="H22" s="2">
         <v>1093.7117880000001</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="14"/>
       <c r="O22" s="13"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26" t="str">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60" t="str">
         <f>"中证红利"&amp;" , "&amp;TEXT(E21+E24,"0.00%")</f>
         <v>中证红利 , 1.92%</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
@@ -6947,17 +8295,17 @@
       <c r="H23" s="2">
         <v>939.71411599999999</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="14"/>
       <c r="M23" s="2"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
@@ -6971,18 +8319,18 @@
       <c r="H24" s="2">
         <v>436.25111600000002</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="14"/>
       <c r="O24" s="13"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26" t="str">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60" t="str">
         <f>"医药"&amp;" , "&amp;TEXT(E25,"0.00%")</f>
         <v>医药 , 0.28%</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
@@ -6996,16 +8344,16 @@
       <c r="H25" s="2">
         <v>235.12213000000003</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="14"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
@@ -7019,18 +8367,18 @@
       <c r="H26" s="2">
         <v>268.89416799999998</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" s="14"/>
       <c r="O26" s="13"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26" t="str">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60" t="str">
         <f>"海外新兴"&amp;" , "&amp;TEXT(E19,"0.00%")</f>
         <v>海外新兴 , 1.52%</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
@@ -7044,36 +8392,36 @@
       <c r="H27" s="2">
         <v>152.01083599999998</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="11"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
         <v>8.4663022588069427E-4</v>
       </c>
       <c r="F28" s="2">
-        <f>SUM(G28:I28)</f>
+        <f t="shared" si="1"/>
         <v>71.500454000000005</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2">
         <v>71.500454000000005</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="11"/>
       <c r="O28" s="13"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="26" t="str">
+      <c r="A29" s="60" t="str">
         <f>"海外新兴"&amp;" , "&amp;TEXT(SUM(E29:E30),"0.00%")</f>
         <v>海外新兴 , 2.54%</v>
       </c>
@@ -7100,12 +8448,14 @@
         <v>434.22</v>
       </c>
       <c r="H29" s="14"/>
-      <c r="I29" s="2"/>
+      <c r="I29" s="65">
+        <v>71</v>
+      </c>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="26"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="20" t="str">
         <f>"海外互联"&amp;" , "&amp;TEXT(SUM(E30:E30),"0.00%")</f>
         <v>海外互联 , 2.02%</v>
@@ -7129,7 +8479,13 @@
         <v>1709.85</v>
       </c>
       <c r="H30" s="14"/>
-      <c r="I30" s="2"/>
+      <c r="I30" s="65">
+        <v>164906</v>
+      </c>
+      <c r="J30" s="19"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
       <c r="O30" s="13"/>
     </row>
     <row r="31" spans="1:15">
@@ -7160,12 +8516,18 @@
         <v>2184.41</v>
       </c>
       <c r="H31" s="14"/>
-      <c r="I31" s="2"/>
+      <c r="I31" s="65">
+        <v>614</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="26" t="str">
+      <c r="A32" s="60" t="str">
         <f>"商品"&amp;" , "&amp;TEXT(SUM(E32:E33),"0.00%")</f>
         <v>商品 , 2.29%</v>
       </c>
@@ -7192,11 +8554,17 @@
         <v>1097.06</v>
       </c>
       <c r="H32" s="14"/>
-      <c r="I32" s="2"/>
+      <c r="I32" s="65">
+        <v>162411</v>
+      </c>
+      <c r="J32" s="19"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
       <c r="O32" s="13"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="26"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="20" t="str">
         <f>"黄金"&amp;" , "&amp;TEXT(SUM(E33:E33),"0.00%")</f>
         <v>黄金 , 0.99%</v>
@@ -7220,20 +8588,26 @@
         <v>834.17</v>
       </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="I33" s="65">
+        <v>216</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="26" t="str">
+      <c r="A34" s="60" t="str">
         <f>"债券"&amp;" , "&amp;TEXT(SUM(E34:E36),"0.00%")</f>
         <v>债券 , 5.08%</v>
       </c>
-      <c r="B34" s="26" t="str">
+      <c r="B34" s="60" t="str">
         <f>"国内债券"&amp;" , "&amp;TEXT(SUM(E34:E36),"0.00%")</f>
         <v>国内债券 , 5.08%</v>
       </c>
-      <c r="C34" s="26" t="str">
+      <c r="C34" s="60" t="str">
         <f>"可转债"&amp;" , "&amp;TEXT(SUM(E34:E36),"0.00%")</f>
         <v>可转债 , 5.08%</v>
       </c>
@@ -7252,13 +8626,19 @@
         <v>1790.15</v>
       </c>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="I34" s="65">
+        <v>340001</v>
+      </c>
+      <c r="J34" s="19"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
       <c r="O34" s="13"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="10" t="s">
         <v>19</v>
       </c>
@@ -7274,14 +8654,20 @@
         <v>439.17</v>
       </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="I35" s="65">
+        <v>519977</v>
+      </c>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
       <c r="D36" s="10" t="s">
         <v>20</v>
       </c>
@@ -7297,7 +8683,13 @@
         <v>2061.4</v>
       </c>
       <c r="H36" s="8"/>
-      <c r="I36" s="2"/>
+      <c r="I36" s="65">
+        <v>110027</v>
+      </c>
+      <c r="J36" s="19"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
       <c r="P36" s="13"/>
     </row>
     <row r="37" spans="1:16">
@@ -7330,6 +8722,10 @@
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
       <c r="O37" s="12"/>
     </row>
     <row r="38" spans="1:16">
@@ -7345,6 +8741,10 @@
         <v>84452.989999999991</v>
       </c>
       <c r="I38" s="8"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="19"/>
       <c r="P38" s="13"/>
     </row>
     <row r="39" spans="1:16">
@@ -7355,34 +8755,58 @@
         <f>F38/$K$2-1</f>
         <v>7.5803021262567105E-2</v>
       </c>
+      <c r="J39" s="19"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
       <c r="O39" s="12"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="16"/>
       <c r="B40" s="8"/>
       <c r="C40" s="2"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="19"/>
       <c r="P40" s="13"/>
     </row>
     <row r="41" spans="1:16">
       <c r="C41" s="2"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
     </row>
     <row r="42" spans="1:16">
       <c r="C42" s="2"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="19"/>
     </row>
     <row r="43" spans="1:16">
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="8"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="1"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="8"/>
@@ -7391,6 +8815,10 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="8"/>
@@ -7399,6 +8827,10 @@
       <c r="D46" s="1"/>
       <c r="E46" s="25"/>
       <c r="F46" s="1"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="8"/>
@@ -7407,6 +8839,10 @@
       <c r="D47" s="1"/>
       <c r="E47" s="25"/>
       <c r="F47" s="1"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="8"/>
@@ -7415,131 +8851,199 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="8"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="8"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="8"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="8"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="8"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="8"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="8"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="8"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="8"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="8"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="8"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="8"/>
       <c r="B60" s="2"/>
       <c r="C60" s="4"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="8"/>
       <c r="B61" s="2"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="8"/>
       <c r="B62" s="7"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="8"/>
@@ -7749,6 +9253,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B19:B28"/>
     <mergeCell ref="A2:A28"/>
@@ -7761,12 +9271,6 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F45:F66 F43">
@@ -7789,7 +9293,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45 E43 E48:E66">
+  <conditionalFormatting sqref="E43 E45 E48:E66">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
